--- a/Learning Rates.xlsx
+++ b/Learning Rates.xlsx
@@ -2,21 +2,25 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\65860\Desktop\SoftwareEngineering\Year2\ITP\Project\Traffic_ML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B38B8D0-E49D-42F0-B924-093BFCD1A17D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7012A900-D586-4105-B50D-4D9AC6465116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F5510DF6-6AEA-43BD-A05A-616AF09602DE}"/>
   </bookViews>
   <sheets>
-    <sheet name="Learning Rates Comparison" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId1"/>
+    <sheet name="Learning Rates Comparison" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="25" r:id="rId4"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="34">
   <si>
     <t>MobileNet Learning Rates Accuracy</t>
   </si>
@@ -92,6 +96,51 @@
   <si>
     <t>Accuracy3</t>
   </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>Loss</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Column Labels</t>
+  </si>
+  <si>
+    <t>(All)</t>
+  </si>
+  <si>
+    <t>S/N</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>Attempt</t>
+  </si>
+  <si>
+    <t>Accuracy Average</t>
+  </si>
+  <si>
+    <t>Total Accuracy Average</t>
+  </si>
+  <si>
+    <t>Loss Average</t>
+  </si>
+  <si>
+    <t>Total Loss Average</t>
+  </si>
+  <si>
+    <t>Fixed Feature Extraction</t>
+  </si>
+  <si>
+    <t>Fixed Fine Tuning</t>
+  </si>
+  <si>
+    <t>Learning Rate Category</t>
+  </si>
 </sst>
 </file>
 
@@ -102,7 +151,7 @@
     <numFmt numFmtId="165" formatCode="0.0000%"/>
     <numFmt numFmtId="166" formatCode="0.00000%"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,8 +172,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -149,8 +212,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -158,12 +233,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -209,6 +293,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -221,28 +306,1736 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="358">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
     </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
     </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
     </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
       <font>
@@ -261,7 +2054,419 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="0.0000%"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0.00000%"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1102,24 +3307,1051 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="65860" refreshedDate="44749.39981354167" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="27" xr:uid="{E3A3974D-EEBC-4512-9025-0D94CA16EDC9}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Table2"/>
+  </cacheSource>
+  <cacheFields count="13">
+    <cacheField name="S/N" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="27"/>
+    </cacheField>
+    <cacheField name="Learning Rate Category" numFmtId="0">
+      <sharedItems count="2">
+        <s v="Fixed Fine Tuning"/>
+        <s v="Fixed Feature Extraction"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Group" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="9"/>
+    </cacheField>
+    <cacheField name="Attempt" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="3" count="3">
+        <n v="1"/>
+        <n v="2"/>
+        <n v="3"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Feature Extraction" numFmtId="165">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="8.0000000000000007E-5" maxValue="1.2E-4" count="5">
+        <n v="8.0000000000000007E-5"/>
+        <n v="9.0000000000000006E-5"/>
+        <n v="1E-4"/>
+        <n v="1.1E-4"/>
+        <n v="1.2E-4"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Fine Tuning" numFmtId="166">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="7.9999999999999996E-6" maxValue="1.2E-5" count="5">
+        <n v="7.9999999999999996E-6"/>
+        <n v="9.0000000000000002E-6"/>
+        <n v="1.0000000000000001E-5"/>
+        <n v="1.1E-5"/>
+        <n v="1.2E-5"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Epoch Set" numFmtId="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="50" maxValue="50"/>
+    </cacheField>
+    <cacheField name="Epoch Undergo" numFmtId="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="39" maxValue="50"/>
+    </cacheField>
+    <cacheField name="Epoch SetFT" numFmtId="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="50" maxValue="50"/>
+    </cacheField>
+    <cacheField name="Epoch UndergoFT" numFmtId="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="10" maxValue="33"/>
+    </cacheField>
+    <cacheField name="Loss" numFmtId="10">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.26700000000000002" maxValue="0.36280000000000001"/>
+    </cacheField>
+    <cacheField name="Accuracy" numFmtId="10">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.81359999999999999" maxValue="0.9153"/>
+    </cacheField>
+    <cacheField name="Correct Predictions (Out of 59)" numFmtId="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="48.002400000000002" maxValue="54.002699999999997"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="27">
+  <r>
+    <n v="1"/>
+    <x v="0"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="50"/>
+    <n v="50"/>
+    <n v="50"/>
+    <n v="19"/>
+    <n v="0.35570000000000002"/>
+    <n v="0.89829999999999999"/>
+    <n v="52.999699999999997"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <x v="0"/>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="50"/>
+    <n v="50"/>
+    <n v="50"/>
+    <n v="19"/>
+    <n v="0.2923"/>
+    <n v="0.89829999999999999"/>
+    <n v="52.999699999999997"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <x v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="50"/>
+    <n v="50"/>
+    <n v="50"/>
+    <n v="21"/>
+    <n v="0.32619999999999999"/>
+    <n v="0.86439999999999995"/>
+    <n v="50.999599999999994"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <x v="0"/>
+    <n v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="50"/>
+    <n v="50"/>
+    <n v="50"/>
+    <n v="11"/>
+    <n v="0.31280000000000002"/>
+    <n v="0.88139999999999996"/>
+    <n v="52.002600000000001"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <x v="0"/>
+    <n v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="50"/>
+    <n v="50"/>
+    <n v="50"/>
+    <n v="20"/>
+    <n v="0.32579999999999998"/>
+    <n v="0.88139999999999996"/>
+    <n v="52.002600000000001"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <x v="0"/>
+    <n v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="50"/>
+    <n v="50"/>
+    <n v="50"/>
+    <n v="20"/>
+    <n v="0.34310000000000002"/>
+    <n v="0.9153"/>
+    <n v="54.002699999999997"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <x v="1"/>
+    <n v="3"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="50"/>
+    <n v="50"/>
+    <n v="50"/>
+    <n v="11"/>
+    <n v="0.34820000000000001"/>
+    <n v="0.88139999999999996"/>
+    <n v="52.002600000000001"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <x v="1"/>
+    <n v="3"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="50"/>
+    <n v="50"/>
+    <n v="50"/>
+    <n v="12"/>
+    <n v="0.33729999999999999"/>
+    <n v="0.88139999999999996"/>
+    <n v="52.002600000000001"/>
+  </r>
+  <r>
+    <n v="9"/>
+    <x v="1"/>
+    <n v="3"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="50"/>
+    <n v="50"/>
+    <n v="50"/>
+    <n v="22"/>
+    <n v="0.3115"/>
+    <n v="0.88139999999999996"/>
+    <n v="52.002600000000001"/>
+  </r>
+  <r>
+    <n v="10"/>
+    <x v="1"/>
+    <n v="4"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="50"/>
+    <n v="50"/>
+    <n v="50"/>
+    <n v="33"/>
+    <n v="0.3276"/>
+    <n v="0.84750000000000003"/>
+    <n v="50.002500000000005"/>
+  </r>
+  <r>
+    <n v="11"/>
+    <x v="1"/>
+    <n v="4"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="50"/>
+    <n v="50"/>
+    <n v="50"/>
+    <n v="29"/>
+    <n v="0.34"/>
+    <n v="0.89829999999999999"/>
+    <n v="52.999699999999997"/>
+  </r>
+  <r>
+    <n v="12"/>
+    <x v="1"/>
+    <n v="4"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="50"/>
+    <n v="50"/>
+    <n v="50"/>
+    <n v="12"/>
+    <n v="0.28820000000000001"/>
+    <n v="0.88139999999999996"/>
+    <n v="52.002600000000001"/>
+  </r>
+  <r>
+    <n v="13"/>
+    <x v="1"/>
+    <n v="5"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="50"/>
+    <n v="50"/>
+    <n v="50"/>
+    <n v="15"/>
+    <n v="0.318"/>
+    <n v="0.83099999999999996"/>
+    <n v="49.028999999999996"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <x v="1"/>
+    <n v="5"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="50"/>
+    <n v="50"/>
+    <n v="50"/>
+    <n v="10"/>
+    <n v="0.36280000000000001"/>
+    <n v="0.86439999999999995"/>
+    <n v="50.999599999999994"/>
+  </r>
+  <r>
+    <n v="15"/>
+    <x v="1"/>
+    <n v="5"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="50"/>
+    <n v="50"/>
+    <n v="50"/>
+    <n v="12"/>
+    <n v="0.29389999999999999"/>
+    <n v="0.86439999999999995"/>
+    <n v="50.999599999999994"/>
+  </r>
+  <r>
+    <n v="16"/>
+    <x v="1"/>
+    <n v="6"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="50"/>
+    <n v="50"/>
+    <n v="50"/>
+    <n v="20"/>
+    <n v="0.28499999999999998"/>
+    <n v="0.81359999999999999"/>
+    <n v="48.002400000000002"/>
+  </r>
+  <r>
+    <n v="17"/>
+    <x v="1"/>
+    <n v="6"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="50"/>
+    <n v="50"/>
+    <n v="50"/>
+    <n v="12"/>
+    <n v="0.28220000000000001"/>
+    <n v="0.86439999999999995"/>
+    <n v="50.999599999999994"/>
+  </r>
+  <r>
+    <n v="18"/>
+    <x v="1"/>
+    <n v="6"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="50"/>
+    <n v="50"/>
+    <n v="50"/>
+    <n v="21"/>
+    <n v="0.2928"/>
+    <n v="0.89829999999999999"/>
+    <n v="52.999699999999997"/>
+  </r>
+  <r>
+    <n v="19"/>
+    <x v="1"/>
+    <n v="7"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="50"/>
+    <n v="50"/>
+    <n v="50"/>
+    <n v="11"/>
+    <n v="0.27060000000000001"/>
+    <n v="0.88139999999999996"/>
+    <n v="52.002600000000001"/>
+  </r>
+  <r>
+    <n v="20"/>
+    <x v="1"/>
+    <n v="7"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="50"/>
+    <n v="50"/>
+    <n v="50"/>
+    <n v="19"/>
+    <n v="0.33379999999999999"/>
+    <n v="0.86439999999999995"/>
+    <n v="50.999599999999994"/>
+  </r>
+  <r>
+    <n v="21"/>
+    <x v="1"/>
+    <n v="7"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="50"/>
+    <n v="50"/>
+    <n v="50"/>
+    <n v="19"/>
+    <n v="0.31330000000000002"/>
+    <n v="0.88139999999999996"/>
+    <n v="52.002600000000001"/>
+  </r>
+  <r>
+    <n v="22"/>
+    <x v="0"/>
+    <n v="8"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="50"/>
+    <n v="39"/>
+    <n v="50"/>
+    <n v="17"/>
+    <n v="0.3266"/>
+    <n v="0.81359999999999999"/>
+    <n v="48.002400000000002"/>
+  </r>
+  <r>
+    <n v="23"/>
+    <x v="0"/>
+    <n v="8"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="50"/>
+    <n v="50"/>
+    <n v="50"/>
+    <n v="22"/>
+    <n v="0.36230000000000001"/>
+    <n v="0.83050000000000002"/>
+    <n v="48.999499999999998"/>
+  </r>
+  <r>
+    <n v="24"/>
+    <x v="0"/>
+    <n v="8"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="50"/>
+    <n v="50"/>
+    <n v="50"/>
+    <n v="12"/>
+    <n v="0.33050000000000002"/>
+    <n v="0.83050000000000002"/>
+    <n v="48.999499999999998"/>
+  </r>
+  <r>
+    <n v="25"/>
+    <x v="0"/>
+    <n v="9"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="50"/>
+    <n v="50"/>
+    <n v="50"/>
+    <n v="19"/>
+    <n v="0.31469999999999998"/>
+    <n v="0.89829999999999999"/>
+    <n v="52.999699999999997"/>
+  </r>
+  <r>
+    <n v="26"/>
+    <x v="0"/>
+    <n v="9"/>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="50"/>
+    <n v="50"/>
+    <n v="50"/>
+    <n v="13"/>
+    <n v="0.26700000000000002"/>
+    <n v="0.9153"/>
+    <n v="54.002699999999997"/>
+  </r>
+  <r>
+    <n v="27"/>
+    <x v="0"/>
+    <n v="9"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="50"/>
+    <n v="50"/>
+    <n v="50"/>
+    <n v="12"/>
+    <n v="0.28820000000000001"/>
+    <n v="0.88139999999999996"/>
+    <n v="52.002600000000001"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{ABD16FD4-3315-4945-BC96-4CC11DAB12EF}" name="PivotTable3" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="B4:J20" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="13">
+    <pivotField subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0" defaultSubtotal="0">
+      <items count="2">
+        <item x="1"/>
+        <item x="0"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisCol" subtotalTop="0" showAll="0" defaultSubtotal="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" numFmtId="165" subtotalTop="0" showAll="0" defaultSubtotal="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" numFmtId="166" subtotalTop="0" showAll="0" defaultSubtotal="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField numFmtId="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField numFmtId="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField numFmtId="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" numFmtId="10" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" numFmtId="10" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField numFmtId="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="4"/>
+    <field x="5"/>
+  </rowFields>
+  <rowItems count="14">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="2">
+    <field x="3"/>
+    <field x="-2"/>
+  </colFields>
+  <colItems count="8">
+    <i>
+      <x/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="1"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+    <i t="grand" i="1">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="2">
+    <dataField name="Accuracy Average" fld="11" subtotal="average" baseField="3" baseItem="1" numFmtId="10"/>
+    <dataField name="Loss Average" fld="10" subtotal="average" baseField="4" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <formats count="29">
+    <format dxfId="201">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4" count="1">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="202">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="203">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="204">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="4" count="2">
+            <x v="1"/>
+            <x v="2"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="205">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="4" count="1">
+            <x v="2"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="206">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="5" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="207">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="5" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="208">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="5" count="1">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="209">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="5" count="1">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="210">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="4" count="1">
+            <x v="2"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="211">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="4" count="1">
+            <x v="2"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="212">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="4" count="1">
+            <x v="2"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="213">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="5" count="1">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="214">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="215">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="2" selected="0">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="216">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="217">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="2">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="218">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="2" selected="0">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="219">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="220">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="2">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="221">
+      <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="1">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="222">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="2">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="223">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="2" selected="0">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+          <reference field="3" count="0" selected="0"/>
+          <reference field="5" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="224">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="2" selected="0">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+          <reference field="3" count="0" selected="0"/>
+          <reference field="5" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="225">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="2" selected="0">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+          <reference field="3" count="0" selected="0"/>
+          <reference field="5" count="1">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="226">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="2" selected="0">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+          <reference field="3" count="0" selected="0"/>
+          <reference field="5" count="1">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="227">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="2" selected="0">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+          <reference field="3" count="0" selected="0"/>
+          <reference field="5" count="1">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="228">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="116">
+      <pivotArea field="3" grandCol="1" outline="0" collapsedLevelsAreSubtotals="1" axis="axisCol" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="2" selected="0">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <chartFormats count="6">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{716538A6-ED17-40C4-B673-F6A22A5DF3AB}" name="Table4" displayName="Table4" ref="B4:J14" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{716538A6-ED17-40C4-B673-F6A22A5DF3AB}" name="Table4" displayName="Table4" ref="B4:J14" totalsRowShown="0" headerRowDxfId="357" dataDxfId="356">
   <autoFilter ref="B4:J14" xr:uid="{716538A6-ED17-40C4-B673-F6A22A5DF3AB}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:J14">
     <sortCondition ref="B4:B14"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{6EA67E11-5EF1-4F64-8BF9-939BD93D1040}" name="Feature Extraction" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{22CDFD67-B970-45A7-87A1-66E85E671FF3}" name="Fine Tuning" dataDxfId="24" dataCellStyle="Percent">
+    <tableColumn id="1" xr3:uid="{6EA67E11-5EF1-4F64-8BF9-939BD93D1040}" name="Feature Extraction" dataDxfId="355"/>
+    <tableColumn id="2" xr3:uid="{22CDFD67-B970-45A7-87A1-66E85E671FF3}" name="Fine Tuning" dataDxfId="354" dataCellStyle="Percent">
       <calculatedColumnFormula>B5/10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{C25C17D1-21B9-4655-B69D-96CD06F9BA58}" name="Epoch Set" dataDxfId="23" dataCellStyle="Percent"/>
-    <tableColumn id="5" xr3:uid="{466B42DB-1E9E-4715-8191-AC1258ABD07E}" name="Epoch Undergo" dataDxfId="22" dataCellStyle="Percent"/>
-    <tableColumn id="6" xr3:uid="{78B26499-9791-444B-82E2-CC6BB1F58B87}" name="Epoch SetFT" dataDxfId="21" dataCellStyle="Percent"/>
-    <tableColumn id="7" xr3:uid="{6065AA55-BC9E-4401-BE42-91F91100B40D}" name="Epoch UndergoFT" dataDxfId="20" dataCellStyle="Percent"/>
-    <tableColumn id="9" xr3:uid="{0D9DEFB1-5291-4E76-8E60-33993FC8A74A}" name="Test Dataset Loss" dataDxfId="19" dataCellStyle="Percent"/>
-    <tableColumn id="3" xr3:uid="{A5FE943B-77B2-48AD-80B3-6ACCA0283617}" name="Test Dataset Accuracy" dataDxfId="18"/>
-    <tableColumn id="8" xr3:uid="{8585E09E-BE35-48A6-989E-910542286FC9}" name="Correct Predictions (Out of 59)" dataDxfId="17" dataCellStyle="Percent">
+    <tableColumn id="4" xr3:uid="{C25C17D1-21B9-4655-B69D-96CD06F9BA58}" name="Epoch Set" dataDxfId="353" dataCellStyle="Percent"/>
+    <tableColumn id="5" xr3:uid="{466B42DB-1E9E-4715-8191-AC1258ABD07E}" name="Epoch Undergo" dataDxfId="352" dataCellStyle="Percent"/>
+    <tableColumn id="6" xr3:uid="{78B26499-9791-444B-82E2-CC6BB1F58B87}" name="Epoch SetFT" dataDxfId="351" dataCellStyle="Percent"/>
+    <tableColumn id="7" xr3:uid="{6065AA55-BC9E-4401-BE42-91F91100B40D}" name="Epoch UndergoFT" dataDxfId="350" dataCellStyle="Percent"/>
+    <tableColumn id="9" xr3:uid="{0D9DEFB1-5291-4E76-8E60-33993FC8A74A}" name="Test Dataset Loss" dataDxfId="349" dataCellStyle="Percent"/>
+    <tableColumn id="3" xr3:uid="{A5FE943B-77B2-48AD-80B3-6ACCA0283617}" name="Test Dataset Accuracy" dataDxfId="348"/>
+    <tableColumn id="8" xr3:uid="{8585E09E-BE35-48A6-989E-910542286FC9}" name="Correct Predictions (Out of 59)" dataDxfId="347" dataCellStyle="Percent">
       <calculatedColumnFormula>59*Table4[[#This Row],[Test Dataset Accuracy]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1128,37 +4360,61 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7F2F301C-5A38-4540-B768-F8EE0DF5A255}" name="Table42" displayName="Table42" ref="B17:P27" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7F2F301C-5A38-4540-B768-F8EE0DF5A255}" name="Table42" displayName="Table42" ref="B17:P27" totalsRowShown="0" headerRowDxfId="346" dataDxfId="345">
   <autoFilter ref="B17:P27" xr:uid="{7F2F301C-5A38-4540-B768-F8EE0DF5A255}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B18:P27">
-    <sortCondition ref="B4:B14"/>
+    <sortCondition ref="B17:B27"/>
   </sortState>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{485E10B5-49B3-4B34-B2A8-8DB25F38CDCA}" name="Feature Extraction" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{4F0EFF3C-EFBD-4D81-AF1E-B70D89FE1140}" name="Fine Tuning" dataDxfId="13" dataCellStyle="Percent">
+    <tableColumn id="1" xr3:uid="{485E10B5-49B3-4B34-B2A8-8DB25F38CDCA}" name="Feature Extraction" dataDxfId="344"/>
+    <tableColumn id="2" xr3:uid="{4F0EFF3C-EFBD-4D81-AF1E-B70D89FE1140}" name="Fine Tuning" dataDxfId="343" dataCellStyle="Percent">
       <calculatedColumnFormula>B18/10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{77EF4E9A-34E8-42B4-8650-6D0269E36D3D}" name="Epoch Set" dataDxfId="12" dataCellStyle="Percent"/>
-    <tableColumn id="5" xr3:uid="{3737EB52-8EE7-42AC-BCF5-DACF8AB4C666}" name="Epoch Undergo" dataDxfId="11" dataCellStyle="Percent"/>
-    <tableColumn id="6" xr3:uid="{DCEDF8C3-7222-4373-9998-716476D1DC64}" name="Epoch SetFT" dataDxfId="10" dataCellStyle="Percent"/>
-    <tableColumn id="7" xr3:uid="{74AAFDFC-BD4D-486D-AAA8-27D289481B92}" name="Epoch UndergoFT" dataDxfId="9" dataCellStyle="Percent"/>
-    <tableColumn id="9" xr3:uid="{43302B6C-0A80-40E6-B114-66E468306993}" name="Loss1" dataDxfId="8" dataCellStyle="Percent"/>
-    <tableColumn id="3" xr3:uid="{26356F77-460D-416A-99B3-BBF85C9DC69C}" name="Accuracy1" dataDxfId="7"/>
-    <tableColumn id="10" xr3:uid="{33DD8E20-21E9-42DB-A9ED-2EB6254B6694}" name="Loss2" dataDxfId="6"/>
-    <tableColumn id="11" xr3:uid="{6829DF2F-21F4-45FB-AA73-F683252A3142}" name="Accuracy2" dataDxfId="5"/>
-    <tableColumn id="12" xr3:uid="{5F661F4D-678B-4020-A679-2664CA8B6202}" name="Loss3" dataDxfId="3"/>
-    <tableColumn id="13" xr3:uid="{C3FA50CB-D03F-46D8-8412-C9DB34573DBE}" name="Accuracy3" dataDxfId="2"/>
-    <tableColumn id="14" xr3:uid="{8A397EB8-90C6-4673-BA0C-2881AB360A11}" name="Average Loss" dataDxfId="1">
+    <tableColumn id="4" xr3:uid="{77EF4E9A-34E8-42B4-8650-6D0269E36D3D}" name="Epoch Set" dataDxfId="342" dataCellStyle="Percent"/>
+    <tableColumn id="5" xr3:uid="{3737EB52-8EE7-42AC-BCF5-DACF8AB4C666}" name="Epoch Undergo" dataDxfId="341" dataCellStyle="Percent"/>
+    <tableColumn id="6" xr3:uid="{DCEDF8C3-7222-4373-9998-716476D1DC64}" name="Epoch SetFT" dataDxfId="340" dataCellStyle="Percent"/>
+    <tableColumn id="7" xr3:uid="{74AAFDFC-BD4D-486D-AAA8-27D289481B92}" name="Epoch UndergoFT" dataDxfId="339" dataCellStyle="Percent"/>
+    <tableColumn id="9" xr3:uid="{43302B6C-0A80-40E6-B114-66E468306993}" name="Loss1" dataDxfId="338" dataCellStyle="Percent"/>
+    <tableColumn id="3" xr3:uid="{26356F77-460D-416A-99B3-BBF85C9DC69C}" name="Accuracy1" dataDxfId="337"/>
+    <tableColumn id="10" xr3:uid="{33DD8E20-21E9-42DB-A9ED-2EB6254B6694}" name="Loss2" dataDxfId="336"/>
+    <tableColumn id="11" xr3:uid="{6829DF2F-21F4-45FB-AA73-F683252A3142}" name="Accuracy2" dataDxfId="335"/>
+    <tableColumn id="12" xr3:uid="{5F661F4D-678B-4020-A679-2664CA8B6202}" name="Loss3" dataDxfId="334"/>
+    <tableColumn id="13" xr3:uid="{C3FA50CB-D03F-46D8-8412-C9DB34573DBE}" name="Accuracy3" dataDxfId="333"/>
+    <tableColumn id="14" xr3:uid="{8A397EB8-90C6-4673-BA0C-2881AB360A11}" name="Average Loss" dataDxfId="332">
       <calculatedColumnFormula>SUM(Table42[[#This Row],[Loss1]],Table42[[#This Row],[Loss2]],Table42[[#This Row],[Loss3]])/3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{38831F4B-7CB6-47D1-8189-BC480F70AD1C}" name="Average Accuracy" dataDxfId="0">
+    <tableColumn id="15" xr3:uid="{38831F4B-7CB6-47D1-8189-BC480F70AD1C}" name="Average Accuracy" dataDxfId="331">
       <calculatedColumnFormula>SUM(Table42[[#This Row],[Accuracy1]],Table42[[#This Row],[Accuracy2]],Table42[[#This Row],[Accuracy3]])/3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{2104EC55-481A-4232-AE55-D62BBCD49840}" name="Correct Predictions (Out of 59)" dataDxfId="4" dataCellStyle="Percent">
+    <tableColumn id="8" xr3:uid="{2104EC55-481A-4232-AE55-D62BBCD49840}" name="Correct Predictions (Out of 59)" dataDxfId="330" dataCellStyle="Percent">
       <calculatedColumnFormula>59*Table42[[#This Row],[Accuracy1]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{81E28367-2AA6-4DC8-ABBD-1124D9E224C3}" name="Table2" displayName="Table2" ref="B31:N58" totalsRowShown="0" headerRowDxfId="322" dataDxfId="323" headerRowBorderDxfId="328" tableBorderDxfId="329">
+  <autoFilter ref="B31:N58" xr:uid="{81E28367-2AA6-4DC8-ABBD-1124D9E224C3}"/>
+  <tableColumns count="13">
+    <tableColumn id="18" xr3:uid="{15CAC9F2-A9AE-4DF9-9463-27879ABEF874}" name="S/N" dataDxfId="315"/>
+    <tableColumn id="20" xr3:uid="{8751364B-A1F1-4231-839D-41D6BB3744A9}" name="Learning Rate Category" dataDxfId="313"/>
+    <tableColumn id="17" xr3:uid="{88D66E1E-4B55-479B-8E01-B940A81D996D}" name="Group" dataDxfId="316"/>
+    <tableColumn id="19" xr3:uid="{C29B4EA7-872E-4985-985F-D1263991876A}" name="Attempt" dataDxfId="314"/>
+    <tableColumn id="1" xr3:uid="{74E818B4-0889-4479-B54B-2EB291E76806}" name="Feature Extraction" dataDxfId="317"/>
+    <tableColumn id="2" xr3:uid="{E88A4247-AE56-4CAC-ADE1-2DC704DFF04C}" name="Fine Tuning" dataDxfId="327" dataCellStyle="Percent"/>
+    <tableColumn id="3" xr3:uid="{2D1A8174-0CF5-49BA-A3D3-35867E5CEF7A}" name="Epoch Set" dataDxfId="326" dataCellStyle="Percent"/>
+    <tableColumn id="4" xr3:uid="{B2813A48-925E-4FF2-9D9E-34A17D47193E}" name="Epoch Undergo" dataDxfId="325" dataCellStyle="Percent"/>
+    <tableColumn id="5" xr3:uid="{2B60C0D8-8FA3-49FB-BBB4-167EEE24539A}" name="Epoch SetFT" dataDxfId="324" dataCellStyle="Percent"/>
+    <tableColumn id="6" xr3:uid="{E9B28B45-1179-4DAB-BC0E-B365B8833F0E}" name="Epoch UndergoFT" dataDxfId="321" dataCellStyle="Percent"/>
+    <tableColumn id="7" xr3:uid="{2754ABEE-B570-4C31-9C72-7C21A1F82BA4}" name="Loss" dataDxfId="320" dataCellStyle="Percent"/>
+    <tableColumn id="8" xr3:uid="{2913B544-8DB0-45C7-9420-367138A8248F}" name="Accuracy" dataDxfId="319"/>
+    <tableColumn id="15" xr3:uid="{F30FA38B-490A-4BE9-8DB2-AD16F3E68C1C}" name="Correct Predictions (Out of 59)" dataDxfId="318" dataCellStyle="Percent">
+      <calculatedColumnFormula>59*Table2[[#This Row],[Accuracy]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1458,50 +4714,541 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54A7B53C-1470-498D-AE06-6C9C8BBDE7A1}">
-  <dimension ref="B2:P27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C346F59A-573B-4DDB-BDC9-8AEA89CF662B}">
+  <dimension ref="B2:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.44140625" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" hidden="1" customWidth="1"/>
-    <col min="5" max="6" width="0" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" hidden="1" customWidth="1"/>
-    <col min="9" max="10" width="10.6640625" customWidth="1"/>
-    <col min="16" max="16" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="3.77734375" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.33203125" customWidth="1"/>
+    <col min="12" max="12" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="7" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="29" width="4" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="38" width="3" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="43" max="74" width="7" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="76" max="77" width="3" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="4" bestFit="1" customWidth="1"/>
+    <col min="80" max="81" width="3" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="4" bestFit="1" customWidth="1"/>
+    <col min="84" max="85" width="3" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="4" bestFit="1" customWidth="1"/>
+    <col min="88" max="89" width="3" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="4" bestFit="1" customWidth="1"/>
+    <col min="92" max="93" width="3" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="4" bestFit="1" customWidth="1"/>
+    <col min="96" max="97" width="3" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="4" bestFit="1" customWidth="1"/>
+    <col min="100" max="101" width="3" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="4" bestFit="1" customWidth="1"/>
+    <col min="104" max="105" width="3" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="4" bestFit="1" customWidth="1"/>
+    <col min="108" max="109" width="3" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="112" max="113" width="3" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="4" bestFit="1" customWidth="1"/>
+    <col min="116" max="117" width="3" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="4" bestFit="1" customWidth="1"/>
+    <col min="120" max="121" width="3" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="4" bestFit="1" customWidth="1"/>
+    <col min="124" max="125" width="3" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="4" bestFit="1" customWidth="1"/>
+    <col min="128" max="129" width="3" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="4" bestFit="1" customWidth="1"/>
+    <col min="132" max="133" width="3" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="4" bestFit="1" customWidth="1"/>
+    <col min="136" max="137" width="3" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="139" max="139" width="4" bestFit="1" customWidth="1"/>
+    <col min="140" max="141" width="3" bestFit="1" customWidth="1"/>
+    <col min="142" max="142" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="143" max="143" width="4" bestFit="1" customWidth="1"/>
+    <col min="144" max="145" width="3" bestFit="1" customWidth="1"/>
+    <col min="146" max="146" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="147" max="147" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="148" max="148" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="149" max="149" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="150" max="150" width="27.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C4" s="32" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C5" s="37">
+        <v>1</v>
+      </c>
+      <c r="D5" s="37"/>
+      <c r="E5" s="40">
+        <v>2</v>
+      </c>
+      <c r="F5" s="40"/>
+      <c r="G5" s="43">
+        <v>3</v>
+      </c>
+      <c r="H5" s="43"/>
+      <c r="I5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="43" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B7" s="33">
+        <v>8.0000000000000007E-5</v>
+      </c>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="34">
+        <v>7.9999999999999996E-6</v>
+      </c>
+      <c r="C8" s="39">
+        <v>0.89829999999999999</v>
+      </c>
+      <c r="D8" s="39">
+        <v>0.35570000000000002</v>
+      </c>
+      <c r="E8" s="42">
+        <v>0.89829999999999999</v>
+      </c>
+      <c r="F8" s="42">
+        <v>0.2923</v>
+      </c>
+      <c r="G8" s="45">
+        <v>0.86439999999999995</v>
+      </c>
+      <c r="H8" s="45">
+        <v>0.32619999999999999</v>
+      </c>
+      <c r="I8" s="35">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="J8" s="35">
+        <v>0.32473333333333332</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="33">
+        <v>9.0000000000000006E-5</v>
+      </c>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="34">
+        <v>7.9999999999999996E-6</v>
+      </c>
+      <c r="C10" s="39">
+        <v>0.88139999999999996</v>
+      </c>
+      <c r="D10" s="39">
+        <v>0.31280000000000002</v>
+      </c>
+      <c r="E10" s="42">
+        <v>0.88139999999999996</v>
+      </c>
+      <c r="F10" s="42">
+        <v>0.32579999999999998</v>
+      </c>
+      <c r="G10" s="45">
+        <v>0.9153</v>
+      </c>
+      <c r="H10" s="45">
+        <v>0.34310000000000002</v>
+      </c>
+      <c r="I10" s="35">
+        <v>0.89269999999999994</v>
+      </c>
+      <c r="J10" s="35">
+        <v>0.32723333333333332</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="33">
+        <v>1E-4</v>
+      </c>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="34">
+        <v>7.9999999999999996E-6</v>
+      </c>
+      <c r="C12" s="39">
+        <v>0.88139999999999996</v>
+      </c>
+      <c r="D12" s="39">
+        <v>0.34820000000000001</v>
+      </c>
+      <c r="E12" s="42">
+        <v>0.88139999999999996</v>
+      </c>
+      <c r="F12" s="42">
+        <v>0.33729999999999999</v>
+      </c>
+      <c r="G12" s="45">
+        <v>0.88139999999999996</v>
+      </c>
+      <c r="H12" s="45">
+        <v>0.3115</v>
+      </c>
+      <c r="I12" s="35">
+        <v>0.88139999999999985</v>
+      </c>
+      <c r="J12" s="35">
+        <v>0.33233333333333331</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="34">
+        <v>9.0000000000000002E-6</v>
+      </c>
+      <c r="C13" s="39">
+        <v>0.84750000000000003</v>
+      </c>
+      <c r="D13" s="39">
+        <v>0.3276</v>
+      </c>
+      <c r="E13" s="42">
+        <v>0.89829999999999999</v>
+      </c>
+      <c r="F13" s="42">
+        <v>0.34</v>
+      </c>
+      <c r="G13" s="45">
+        <v>0.88139999999999996</v>
+      </c>
+      <c r="H13" s="45">
+        <v>0.28820000000000001</v>
+      </c>
+      <c r="I13" s="35">
+        <v>0.87573333333333336</v>
+      </c>
+      <c r="J13" s="35">
+        <v>0.31859999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B14" s="34">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="C14" s="39">
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="D14" s="39">
+        <v>0.318</v>
+      </c>
+      <c r="E14" s="42">
+        <v>0.86439999999999995</v>
+      </c>
+      <c r="F14" s="42">
+        <v>0.36280000000000001</v>
+      </c>
+      <c r="G14" s="45">
+        <v>0.86439999999999995</v>
+      </c>
+      <c r="H14" s="45">
+        <v>0.29389999999999999</v>
+      </c>
+      <c r="I14" s="35">
+        <v>0.85326666666666651</v>
+      </c>
+      <c r="J14" s="35">
+        <v>0.32490000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B15" s="34">
+        <v>1.1E-5</v>
+      </c>
+      <c r="C15" s="39">
+        <v>0.81359999999999999</v>
+      </c>
+      <c r="D15" s="39">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="E15" s="42">
+        <v>0.86439999999999995</v>
+      </c>
+      <c r="F15" s="42">
+        <v>0.28220000000000001</v>
+      </c>
+      <c r="G15" s="45">
+        <v>0.89829999999999999</v>
+      </c>
+      <c r="H15" s="45">
+        <v>0.2928</v>
+      </c>
+      <c r="I15" s="35">
+        <v>0.85876666666666657</v>
+      </c>
+      <c r="J15" s="35">
+        <v>0.28666666666666663</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B16" s="34">
+        <v>1.2E-5</v>
+      </c>
+      <c r="C16" s="39">
+        <v>0.88139999999999996</v>
+      </c>
+      <c r="D16" s="39">
+        <v>0.27060000000000001</v>
+      </c>
+      <c r="E16" s="42">
+        <v>0.86439999999999995</v>
+      </c>
+      <c r="F16" s="42">
+        <v>0.33379999999999999</v>
+      </c>
+      <c r="G16" s="45">
+        <v>0.88139999999999996</v>
+      </c>
+      <c r="H16" s="45">
+        <v>0.31330000000000002</v>
+      </c>
+      <c r="I16" s="35">
+        <v>0.87573333333333336</v>
+      </c>
+      <c r="J16" s="35">
+        <v>0.30590000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B17" s="33">
+        <v>1.1E-4</v>
+      </c>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B18" s="34">
+        <v>7.9999999999999996E-6</v>
+      </c>
+      <c r="C18" s="39">
+        <v>0.81359999999999999</v>
+      </c>
+      <c r="D18" s="39">
+        <v>0.3266</v>
+      </c>
+      <c r="E18" s="42">
+        <v>0.83050000000000002</v>
+      </c>
+      <c r="F18" s="42">
+        <v>0.36230000000000001</v>
+      </c>
+      <c r="G18" s="45">
+        <v>0.83050000000000002</v>
+      </c>
+      <c r="H18" s="45">
+        <v>0.33050000000000002</v>
+      </c>
+      <c r="I18" s="35">
+        <v>0.82486666666666653</v>
+      </c>
+      <c r="J18" s="35">
+        <v>0.33980000000000005</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B19" s="33">
+        <v>1.2E-4</v>
+      </c>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B20" s="34">
+        <v>7.9999999999999996E-6</v>
+      </c>
+      <c r="C20" s="39">
+        <v>0.89829999999999999</v>
+      </c>
+      <c r="D20" s="39">
+        <v>0.31469999999999998</v>
+      </c>
+      <c r="E20" s="42">
+        <v>0.9153</v>
+      </c>
+      <c r="F20" s="42">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="G20" s="45">
+        <v>0.88139999999999996</v>
+      </c>
+      <c r="H20" s="45">
+        <v>0.28820000000000001</v>
+      </c>
+      <c r="I20" s="35">
+        <v>0.89833333333333343</v>
+      </c>
+      <c r="J20" s="35">
+        <v>0.28996666666666665</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54A7B53C-1470-498D-AE06-6C9C8BBDE7A1}">
+  <dimension ref="B2:P58"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" customWidth="1"/>
+    <col min="7" max="7" width="17.21875" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" customWidth="1"/>
+    <col min="11" max="11" width="10.88671875" customWidth="1"/>
+    <col min="13" max="13" width="10.88671875" customWidth="1"/>
+    <col min="14" max="14" width="13.33203125" customWidth="1"/>
+    <col min="15" max="15" width="17.33203125" customWidth="1"/>
+    <col min="16" max="16" width="28.109375" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
     </row>
     <row r="3" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="18" t="s">
+      <c r="C3" s="18"/>
+      <c r="D3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="19" t="s">
+      <c r="E3" s="19"/>
+      <c r="F3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="19"/>
+      <c r="G3" s="20"/>
     </row>
     <row r="4" spans="2:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B4" s="12" t="s">
@@ -1847,18 +5594,18 @@
       <c r="C15" s="1"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="18" t="s">
+      <c r="C16" s="18"/>
+      <c r="D16" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="18"/>
-      <c r="F16" s="19" t="s">
+      <c r="E16" s="19"/>
+      <c r="F16" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="G16" s="19"/>
+      <c r="G16" s="20"/>
     </row>
     <row r="17" spans="2:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B17" s="12" t="s">
@@ -1909,136 +5656,122 @@
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B18" s="13">
-        <v>1E-4</v>
+        <v>8.0000000000000007E-5</v>
       </c>
       <c r="C18" s="14">
-        <v>1.1E-5</v>
-      </c>
-      <c r="D18" s="10">
-        <v>50</v>
-      </c>
-      <c r="E18" s="10">
-        <v>50</v>
-      </c>
-      <c r="F18" s="8">
-        <v>50</v>
-      </c>
-      <c r="G18" s="8">
-        <v>20</v>
-      </c>
+        <v>7.9999999999999996E-6</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
       <c r="H18" s="16">
-        <v>0.28499999999999998</v>
+        <v>0.35570000000000002</v>
       </c>
       <c r="I18" s="4">
-        <v>0.81359999999999999</v>
-      </c>
-      <c r="J18" s="16">
-        <v>0.28220000000000001</v>
+        <v>0.89829999999999999</v>
+      </c>
+      <c r="J18" s="4">
+        <v>0.2923</v>
       </c>
       <c r="K18" s="4">
+        <v>0.89829999999999999</v>
+      </c>
+      <c r="L18" s="4">
+        <v>0.32619999999999999</v>
+      </c>
+      <c r="M18" s="4">
         <v>0.86439999999999995</v>
-      </c>
-      <c r="L18" s="16">
-        <v>0.2928</v>
-      </c>
-      <c r="M18" s="4">
-        <v>0.89829999999999999</v>
       </c>
       <c r="N18" s="4">
         <f>SUM(Table42[[#This Row],[Loss1]],Table42[[#This Row],[Loss2]],Table42[[#This Row],[Loss3]])/3</f>
-        <v>0.28666666666666663</v>
+        <v>0.32473333333333332</v>
       </c>
       <c r="O18" s="4">
         <f>SUM(Table42[[#This Row],[Accuracy1]],Table42[[#This Row],[Accuracy2]],Table42[[#This Row],[Accuracy3]])/3</f>
-        <v>0.85876666666666657</v>
-      </c>
-      <c r="P18" s="6">
-        <f>59*Table42[[#This Row],[Average Accuracy]]</f>
-        <v>50.667233333333328</v>
-      </c>
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="P18" s="6"/>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B19" s="13">
-        <v>1E-4</v>
+        <v>9.0000000000000006E-5</v>
       </c>
       <c r="C19" s="14">
-        <v>1.2E-5</v>
+        <v>7.9999999999999996E-6</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c r="H19" s="16">
-        <v>0.27060000000000001</v>
+        <v>0.31280000000000002</v>
       </c>
       <c r="I19" s="4">
         <v>0.88139999999999996</v>
       </c>
       <c r="J19" s="4">
-        <v>0.33379999999999999</v>
+        <v>0.32579999999999998</v>
       </c>
       <c r="K19" s="4">
-        <v>0.86439999999999995</v>
+        <v>0.88139999999999996</v>
       </c>
       <c r="L19" s="4">
-        <v>0.31330000000000002</v>
+        <v>0.34310000000000002</v>
       </c>
       <c r="M19" s="4">
-        <v>0.88139999999999996</v>
+        <v>0.9153</v>
       </c>
       <c r="N19" s="4">
         <f>SUM(Table42[[#This Row],[Loss1]],Table42[[#This Row],[Loss2]],Table42[[#This Row],[Loss3]])/3</f>
-        <v>0.30590000000000001</v>
+        <v>0.32723333333333332</v>
       </c>
       <c r="O19" s="4">
         <f>SUM(Table42[[#This Row],[Accuracy1]],Table42[[#This Row],[Accuracy2]],Table42[[#This Row],[Accuracy3]])/3</f>
-        <v>0.87573333333333336</v>
-      </c>
-      <c r="P19" s="6">
-        <f>59*Table42[[#This Row],[Average Accuracy]]</f>
-        <v>51.668266666666668</v>
-      </c>
+        <v>0.89269999999999994</v>
+      </c>
+      <c r="P19" s="6"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B20" s="13">
         <v>1E-4</v>
       </c>
       <c r="C20" s="14">
-        <v>9.0000000000000002E-6</v>
+        <v>7.9999999999999996E-6</v>
       </c>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="16">
-        <v>0.3276</v>
+        <v>0.34820000000000001</v>
       </c>
       <c r="I20" s="4">
-        <v>0.84750000000000003</v>
+        <v>0.88139999999999996</v>
       </c>
       <c r="J20" s="4">
-        <v>0.34</v>
+        <v>0.33729999999999999</v>
       </c>
       <c r="K20" s="4">
-        <v>0.89829999999999999</v>
+        <v>0.88139999999999996</v>
       </c>
       <c r="L20" s="4">
-        <v>0.28820000000000001</v>
+        <v>0.3115</v>
       </c>
       <c r="M20" s="4">
         <v>0.88139999999999996</v>
       </c>
       <c r="N20" s="4">
         <f>SUM(Table42[[#This Row],[Loss1]],Table42[[#This Row],[Loss2]],Table42[[#This Row],[Loss3]])/3</f>
-        <v>0.31859999999999999</v>
+        <v>0.33233333333333331</v>
       </c>
       <c r="O20" s="4">
         <f>SUM(Table42[[#This Row],[Accuracy1]],Table42[[#This Row],[Accuracy2]],Table42[[#This Row],[Accuracy3]])/3</f>
-        <v>0.87573333333333336</v>
+        <v>0.88139999999999985</v>
       </c>
       <c r="P20" s="6">
         <f>59*Table42[[#This Row],[Average Accuracy]]</f>
-        <v>51.668266666666668</v>
+        <v>52.002599999999994</v>
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.3">
@@ -2046,41 +5779,41 @@
         <v>1E-4</v>
       </c>
       <c r="C21" s="14">
-        <v>7.9999999999999996E-6</v>
+        <v>9.0000000000000002E-6</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c r="H21" s="16">
-        <v>0.34820000000000001</v>
+        <v>0.3276</v>
       </c>
       <c r="I21" s="4">
-        <v>0.88139999999999996</v>
+        <v>0.84750000000000003</v>
       </c>
       <c r="J21" s="4">
-        <v>0.33729999999999999</v>
+        <v>0.34</v>
       </c>
       <c r="K21" s="4">
-        <v>0.88139999999999996</v>
+        <v>0.89829999999999999</v>
       </c>
       <c r="L21" s="4">
-        <v>0.3115</v>
+        <v>0.28820000000000001</v>
       </c>
       <c r="M21" s="4">
         <v>0.88139999999999996</v>
       </c>
       <c r="N21" s="4">
         <f>SUM(Table42[[#This Row],[Loss1]],Table42[[#This Row],[Loss2]],Table42[[#This Row],[Loss3]])/3</f>
-        <v>0.33233333333333331</v>
+        <v>0.31859999999999999</v>
       </c>
       <c r="O21" s="4">
         <f>SUM(Table42[[#This Row],[Accuracy1]],Table42[[#This Row],[Accuracy2]],Table42[[#This Row],[Accuracy3]])/3</f>
-        <v>0.88139999999999985</v>
+        <v>0.87573333333333336</v>
       </c>
       <c r="P21" s="6">
         <f>59*Table42[[#This Row],[Average Accuracy]]</f>
-        <v>52.002599999999994</v>
+        <v>51.668266666666668</v>
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.3">
@@ -2088,7 +5821,7 @@
         <v>1E-4</v>
       </c>
       <c r="C22" s="14">
-        <f t="shared" ref="C22" si="1">B22/10</f>
+        <f>B22/10</f>
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="D22" s="10">
@@ -2134,109 +5867,179 @@
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B23" s="13">
-        <v>1.1E-4</v>
+        <v>1E-4</v>
       </c>
       <c r="C23" s="14">
-        <v>7.9999999999999996E-6</v>
-      </c>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
+        <v>1.1E-5</v>
+      </c>
+      <c r="D23" s="10">
+        <v>50</v>
+      </c>
+      <c r="E23" s="10">
+        <v>50</v>
+      </c>
+      <c r="F23" s="8">
+        <v>50</v>
+      </c>
+      <c r="G23" s="8">
+        <v>20</v>
+      </c>
       <c r="H23" s="16">
-        <v>0.3266</v>
+        <v>0.28499999999999998</v>
       </c>
       <c r="I23" s="4">
         <v>0.81359999999999999</v>
       </c>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
+      <c r="J23" s="16">
+        <v>0.28220000000000001</v>
+      </c>
+      <c r="K23" s="4">
+        <v>0.86439999999999995</v>
+      </c>
+      <c r="L23" s="16">
+        <v>0.2928</v>
+      </c>
+      <c r="M23" s="4">
+        <v>0.89829999999999999</v>
+      </c>
       <c r="N23" s="4">
         <f>SUM(Table42[[#This Row],[Loss1]],Table42[[#This Row],[Loss2]],Table42[[#This Row],[Loss3]])/3</f>
-        <v>0.10886666666666667</v>
+        <v>0.28666666666666663</v>
       </c>
       <c r="O23" s="4">
         <f>SUM(Table42[[#This Row],[Accuracy1]],Table42[[#This Row],[Accuracy2]],Table42[[#This Row],[Accuracy3]])/3</f>
-        <v>0.2712</v>
+        <v>0.85876666666666657</v>
       </c>
       <c r="P23" s="6">
         <f>59*Table42[[#This Row],[Average Accuracy]]</f>
-        <v>16.000799999999998</v>
+        <v>50.667233333333328</v>
       </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B24" s="13"/>
-      <c r="C24" s="14"/>
+      <c r="B24" s="13">
+        <v>1E-4</v>
+      </c>
+      <c r="C24" s="14">
+        <v>1.2E-5</v>
+      </c>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
+      <c r="H24" s="16">
+        <v>0.27060000000000001</v>
+      </c>
+      <c r="I24" s="4">
+        <v>0.88139999999999996</v>
+      </c>
+      <c r="J24" s="4">
+        <v>0.33379999999999999</v>
+      </c>
+      <c r="K24" s="4">
+        <v>0.86439999999999995</v>
+      </c>
+      <c r="L24" s="4">
+        <v>0.31330000000000002</v>
+      </c>
+      <c r="M24" s="4">
+        <v>0.88139999999999996</v>
+      </c>
       <c r="N24" s="4">
         <f>SUM(Table42[[#This Row],[Loss1]],Table42[[#This Row],[Loss2]],Table42[[#This Row],[Loss3]])/3</f>
-        <v>0</v>
+        <v>0.30590000000000001</v>
       </c>
       <c r="O24" s="4">
         <f>SUM(Table42[[#This Row],[Accuracy1]],Table42[[#This Row],[Accuracy2]],Table42[[#This Row],[Accuracy3]])/3</f>
-        <v>0</v>
+        <v>0.87573333333333336</v>
       </c>
       <c r="P24" s="6">
         <f>59*Table42[[#This Row],[Average Accuracy]]</f>
-        <v>0</v>
+        <v>51.668266666666668</v>
       </c>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B25" s="13"/>
-      <c r="C25" s="14"/>
+      <c r="B25" s="13">
+        <v>1.1E-4</v>
+      </c>
+      <c r="C25" s="14">
+        <v>7.9999999999999996E-6</v>
+      </c>
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
+      <c r="H25" s="16">
+        <v>0.3266</v>
+      </c>
+      <c r="I25" s="4">
+        <v>0.81359999999999999</v>
+      </c>
+      <c r="J25" s="4">
+        <v>0.36230000000000001</v>
+      </c>
+      <c r="K25" s="4">
+        <v>0.83050000000000002</v>
+      </c>
+      <c r="L25" s="4">
+        <v>0.33050000000000002</v>
+      </c>
+      <c r="M25" s="4">
+        <v>0.83050000000000002</v>
+      </c>
       <c r="N25" s="4">
         <f>SUM(Table42[[#This Row],[Loss1]],Table42[[#This Row],[Loss2]],Table42[[#This Row],[Loss3]])/3</f>
-        <v>0</v>
+        <v>0.33980000000000005</v>
       </c>
       <c r="O25" s="4">
         <f>SUM(Table42[[#This Row],[Accuracy1]],Table42[[#This Row],[Accuracy2]],Table42[[#This Row],[Accuracy3]])/3</f>
-        <v>0</v>
-      </c>
-      <c r="P25" s="6"/>
+        <v>0.82486666666666653</v>
+      </c>
+      <c r="P25" s="6">
+        <f>59*Table42[[#This Row],[Average Accuracy]]</f>
+        <v>48.667133333333325</v>
+      </c>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B26" s="13"/>
-      <c r="C26" s="14"/>
+      <c r="B26" s="13">
+        <v>1.2E-4</v>
+      </c>
+      <c r="C26" s="14">
+        <v>7.9999999999999996E-6</v>
+      </c>
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
+      <c r="H26" s="16">
+        <v>0.31469999999999998</v>
+      </c>
+      <c r="I26" s="4">
+        <v>0.89829999999999999</v>
+      </c>
+      <c r="J26" s="4">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="K26" s="4">
+        <v>0.9153</v>
+      </c>
+      <c r="L26" s="4">
+        <v>0.28820000000000001</v>
+      </c>
+      <c r="M26" s="4">
+        <v>0.88139999999999996</v>
+      </c>
       <c r="N26" s="4">
         <f>SUM(Table42[[#This Row],[Loss1]],Table42[[#This Row],[Loss2]],Table42[[#This Row],[Loss3]])/3</f>
-        <v>0</v>
+        <v>0.28996666666666665</v>
       </c>
       <c r="O26" s="4">
         <f>SUM(Table42[[#This Row],[Accuracy1]],Table42[[#This Row],[Accuracy2]],Table42[[#This Row],[Accuracy3]])/3</f>
-        <v>0</v>
-      </c>
-      <c r="P26" s="6"/>
+        <v>0.89833333333333343</v>
+      </c>
+      <c r="P26" s="6">
+        <f>59*Table42[[#This Row],[Average Accuracy]]</f>
+        <v>53.001666666666672</v>
+      </c>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B27" s="13"/>
@@ -2261,6 +6064,1184 @@
       </c>
       <c r="P27" s="6"/>
     </row>
+    <row r="31" spans="2:16" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B31" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="F31" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="G31" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="H31" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="I31" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="J31" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="K31" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="L31" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="M31" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="N31" s="27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B32" s="36">
+        <v>1</v>
+      </c>
+      <c r="C32" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" s="36">
+        <v>1</v>
+      </c>
+      <c r="E32" s="36">
+        <v>1</v>
+      </c>
+      <c r="F32" s="22">
+        <v>8.0000000000000007E-5</v>
+      </c>
+      <c r="G32" s="14">
+        <v>7.9999999999999996E-6</v>
+      </c>
+      <c r="H32" s="28">
+        <v>50</v>
+      </c>
+      <c r="I32" s="28">
+        <v>50</v>
+      </c>
+      <c r="J32" s="29">
+        <v>50</v>
+      </c>
+      <c r="K32" s="29">
+        <v>19</v>
+      </c>
+      <c r="L32" s="16">
+        <v>0.35570000000000002</v>
+      </c>
+      <c r="M32" s="30">
+        <v>0.89829999999999999</v>
+      </c>
+      <c r="N32" s="31">
+        <f>59*Table2[[#This Row],[Accuracy]]</f>
+        <v>52.999699999999997</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B33" s="36">
+        <v>2</v>
+      </c>
+      <c r="C33" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="36">
+        <v>1</v>
+      </c>
+      <c r="E33" s="36">
+        <v>2</v>
+      </c>
+      <c r="F33" s="22">
+        <v>8.0000000000000007E-5</v>
+      </c>
+      <c r="G33" s="14">
+        <v>7.9999999999999996E-6</v>
+      </c>
+      <c r="H33" s="28">
+        <v>50</v>
+      </c>
+      <c r="I33" s="28">
+        <v>50</v>
+      </c>
+      <c r="J33" s="29">
+        <v>50</v>
+      </c>
+      <c r="K33" s="29">
+        <v>19</v>
+      </c>
+      <c r="L33" s="30">
+        <v>0.2923</v>
+      </c>
+      <c r="M33" s="30">
+        <v>0.89829999999999999</v>
+      </c>
+      <c r="N33" s="31">
+        <f>59*Table2[[#This Row],[Accuracy]]</f>
+        <v>52.999699999999997</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B34" s="36">
+        <v>3</v>
+      </c>
+      <c r="C34" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34" s="36">
+        <v>1</v>
+      </c>
+      <c r="E34" s="36">
+        <v>3</v>
+      </c>
+      <c r="F34" s="22">
+        <v>8.0000000000000007E-5</v>
+      </c>
+      <c r="G34" s="14">
+        <v>7.9999999999999996E-6</v>
+      </c>
+      <c r="H34" s="28">
+        <v>50</v>
+      </c>
+      <c r="I34" s="10">
+        <v>50</v>
+      </c>
+      <c r="J34" s="29">
+        <v>50</v>
+      </c>
+      <c r="K34" s="8">
+        <v>21</v>
+      </c>
+      <c r="L34" s="30">
+        <v>0.32619999999999999</v>
+      </c>
+      <c r="M34" s="30">
+        <v>0.86439999999999995</v>
+      </c>
+      <c r="N34" s="31">
+        <f>59*Table2[[#This Row],[Accuracy]]</f>
+        <v>50.999599999999994</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B35" s="36">
+        <v>4</v>
+      </c>
+      <c r="C35" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="D35" s="36">
+        <v>2</v>
+      </c>
+      <c r="E35" s="36">
+        <v>1</v>
+      </c>
+      <c r="F35" s="22">
+        <v>9.0000000000000006E-5</v>
+      </c>
+      <c r="G35" s="14">
+        <v>7.9999999999999996E-6</v>
+      </c>
+      <c r="H35" s="28">
+        <v>50</v>
+      </c>
+      <c r="I35" s="10">
+        <v>50</v>
+      </c>
+      <c r="J35" s="29">
+        <v>50</v>
+      </c>
+      <c r="K35" s="8">
+        <v>11</v>
+      </c>
+      <c r="L35" s="16">
+        <v>0.31280000000000002</v>
+      </c>
+      <c r="M35" s="16">
+        <v>0.88139999999999996</v>
+      </c>
+      <c r="N35" s="31">
+        <f>59*Table2[[#This Row],[Accuracy]]</f>
+        <v>52.002600000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B36" s="36">
+        <v>5</v>
+      </c>
+      <c r="C36" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36" s="36">
+        <v>2</v>
+      </c>
+      <c r="E36" s="36">
+        <v>2</v>
+      </c>
+      <c r="F36" s="22">
+        <v>9.0000000000000006E-5</v>
+      </c>
+      <c r="G36" s="14">
+        <v>7.9999999999999996E-6</v>
+      </c>
+      <c r="H36" s="28">
+        <v>50</v>
+      </c>
+      <c r="I36" s="10">
+        <v>50</v>
+      </c>
+      <c r="J36" s="29">
+        <v>50</v>
+      </c>
+      <c r="K36" s="8">
+        <v>20</v>
+      </c>
+      <c r="L36" s="30">
+        <v>0.32579999999999998</v>
+      </c>
+      <c r="M36" s="30">
+        <v>0.88139999999999996</v>
+      </c>
+      <c r="N36" s="31">
+        <f>59*Table2[[#This Row],[Accuracy]]</f>
+        <v>52.002600000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B37" s="36">
+        <v>6</v>
+      </c>
+      <c r="C37" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" s="36">
+        <v>2</v>
+      </c>
+      <c r="E37" s="36">
+        <v>3</v>
+      </c>
+      <c r="F37" s="22">
+        <v>9.0000000000000006E-5</v>
+      </c>
+      <c r="G37" s="14">
+        <v>7.9999999999999996E-6</v>
+      </c>
+      <c r="H37" s="28">
+        <v>50</v>
+      </c>
+      <c r="I37" s="10">
+        <v>50</v>
+      </c>
+      <c r="J37" s="29">
+        <v>50</v>
+      </c>
+      <c r="K37" s="8">
+        <v>20</v>
+      </c>
+      <c r="L37" s="16">
+        <v>0.34310000000000002</v>
+      </c>
+      <c r="M37" s="16">
+        <v>0.9153</v>
+      </c>
+      <c r="N37" s="31">
+        <f>59*Table2[[#This Row],[Accuracy]]</f>
+        <v>54.002699999999997</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B38" s="36">
+        <v>7</v>
+      </c>
+      <c r="C38" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="D38" s="36">
+        <v>3</v>
+      </c>
+      <c r="E38" s="36">
+        <v>1</v>
+      </c>
+      <c r="F38" s="22">
+        <v>1E-4</v>
+      </c>
+      <c r="G38" s="14">
+        <v>7.9999999999999996E-6</v>
+      </c>
+      <c r="H38" s="28">
+        <v>50</v>
+      </c>
+      <c r="I38" s="10">
+        <v>50</v>
+      </c>
+      <c r="J38" s="29">
+        <v>50</v>
+      </c>
+      <c r="K38" s="8">
+        <v>11</v>
+      </c>
+      <c r="L38" s="16">
+        <v>0.34820000000000001</v>
+      </c>
+      <c r="M38" s="30">
+        <v>0.88139999999999996</v>
+      </c>
+      <c r="N38" s="31">
+        <f>59*Table2[[#This Row],[Accuracy]]</f>
+        <v>52.002600000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B39" s="36">
+        <v>8</v>
+      </c>
+      <c r="C39" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="D39" s="36">
+        <v>3</v>
+      </c>
+      <c r="E39" s="36">
+        <v>2</v>
+      </c>
+      <c r="F39" s="22">
+        <v>1E-4</v>
+      </c>
+      <c r="G39" s="14">
+        <v>7.9999999999999996E-6</v>
+      </c>
+      <c r="H39" s="28">
+        <v>50</v>
+      </c>
+      <c r="I39" s="10">
+        <v>50</v>
+      </c>
+      <c r="J39" s="29">
+        <v>50</v>
+      </c>
+      <c r="K39" s="8">
+        <v>12</v>
+      </c>
+      <c r="L39" s="30">
+        <v>0.33729999999999999</v>
+      </c>
+      <c r="M39" s="30">
+        <v>0.88139999999999996</v>
+      </c>
+      <c r="N39" s="31">
+        <f>59*Table2[[#This Row],[Accuracy]]</f>
+        <v>52.002600000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B40" s="36">
+        <v>9</v>
+      </c>
+      <c r="C40" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="D40" s="36">
+        <v>3</v>
+      </c>
+      <c r="E40" s="36">
+        <v>3</v>
+      </c>
+      <c r="F40" s="22">
+        <v>1E-4</v>
+      </c>
+      <c r="G40" s="14">
+        <v>7.9999999999999996E-6</v>
+      </c>
+      <c r="H40" s="28">
+        <v>50</v>
+      </c>
+      <c r="I40" s="10">
+        <v>50</v>
+      </c>
+      <c r="J40" s="29">
+        <v>50</v>
+      </c>
+      <c r="K40" s="8">
+        <v>22</v>
+      </c>
+      <c r="L40" s="30">
+        <v>0.3115</v>
+      </c>
+      <c r="M40" s="30">
+        <v>0.88139999999999996</v>
+      </c>
+      <c r="N40" s="31">
+        <f>59*Table2[[#This Row],[Accuracy]]</f>
+        <v>52.002600000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B41" s="36">
+        <v>10</v>
+      </c>
+      <c r="C41" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="D41" s="36">
+        <v>4</v>
+      </c>
+      <c r="E41" s="36">
+        <v>1</v>
+      </c>
+      <c r="F41" s="22">
+        <v>1E-4</v>
+      </c>
+      <c r="G41" s="14">
+        <v>9.0000000000000002E-6</v>
+      </c>
+      <c r="H41" s="28">
+        <v>50</v>
+      </c>
+      <c r="I41" s="10">
+        <v>50</v>
+      </c>
+      <c r="J41" s="29">
+        <v>50</v>
+      </c>
+      <c r="K41" s="8">
+        <v>33</v>
+      </c>
+      <c r="L41" s="30">
+        <v>0.3276</v>
+      </c>
+      <c r="M41" s="30">
+        <v>0.84750000000000003</v>
+      </c>
+      <c r="N41" s="31">
+        <f>59*Table2[[#This Row],[Accuracy]]</f>
+        <v>50.002500000000005</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B42" s="36">
+        <v>11</v>
+      </c>
+      <c r="C42" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="D42" s="36">
+        <v>4</v>
+      </c>
+      <c r="E42" s="36">
+        <v>2</v>
+      </c>
+      <c r="F42" s="22">
+        <v>1E-4</v>
+      </c>
+      <c r="G42" s="14">
+        <v>9.0000000000000002E-6</v>
+      </c>
+      <c r="H42" s="28">
+        <v>50</v>
+      </c>
+      <c r="I42" s="10">
+        <v>50</v>
+      </c>
+      <c r="J42" s="29">
+        <v>50</v>
+      </c>
+      <c r="K42" s="8">
+        <v>29</v>
+      </c>
+      <c r="L42" s="30">
+        <v>0.34</v>
+      </c>
+      <c r="M42" s="30">
+        <v>0.89829999999999999</v>
+      </c>
+      <c r="N42" s="31">
+        <f>59*Table2[[#This Row],[Accuracy]]</f>
+        <v>52.999699999999997</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B43" s="36">
+        <v>12</v>
+      </c>
+      <c r="C43" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="D43" s="36">
+        <v>4</v>
+      </c>
+      <c r="E43" s="36">
+        <v>3</v>
+      </c>
+      <c r="F43" s="22">
+        <v>1E-4</v>
+      </c>
+      <c r="G43" s="14">
+        <v>9.0000000000000002E-6</v>
+      </c>
+      <c r="H43" s="28">
+        <v>50</v>
+      </c>
+      <c r="I43" s="10">
+        <v>50</v>
+      </c>
+      <c r="J43" s="29">
+        <v>50</v>
+      </c>
+      <c r="K43" s="8">
+        <v>12</v>
+      </c>
+      <c r="L43" s="30">
+        <v>0.28820000000000001</v>
+      </c>
+      <c r="M43" s="30">
+        <v>0.88139999999999996</v>
+      </c>
+      <c r="N43" s="31">
+        <f>59*Table2[[#This Row],[Accuracy]]</f>
+        <v>52.002600000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B44" s="36">
+        <v>13</v>
+      </c>
+      <c r="C44" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="D44" s="36">
+        <v>5</v>
+      </c>
+      <c r="E44" s="36">
+        <v>1</v>
+      </c>
+      <c r="F44" s="22">
+        <v>1E-4</v>
+      </c>
+      <c r="G44" s="14">
+        <f>F44/10</f>
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="H44" s="28">
+        <v>50</v>
+      </c>
+      <c r="I44" s="10">
+        <v>50</v>
+      </c>
+      <c r="J44" s="29">
+        <v>50</v>
+      </c>
+      <c r="K44" s="8">
+        <v>15</v>
+      </c>
+      <c r="L44" s="16">
+        <v>0.318</v>
+      </c>
+      <c r="M44" s="30">
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="N44" s="31">
+        <f>59*Table2[[#This Row],[Accuracy]]</f>
+        <v>49.028999999999996</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B45" s="36">
+        <v>14</v>
+      </c>
+      <c r="C45" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="D45" s="36">
+        <v>5</v>
+      </c>
+      <c r="E45" s="36">
+        <v>2</v>
+      </c>
+      <c r="F45" s="22">
+        <v>1E-4</v>
+      </c>
+      <c r="G45" s="14">
+        <f>F45/10</f>
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="H45" s="28">
+        <v>50</v>
+      </c>
+      <c r="I45" s="10">
+        <v>50</v>
+      </c>
+      <c r="J45" s="29">
+        <v>50</v>
+      </c>
+      <c r="K45" s="8">
+        <v>10</v>
+      </c>
+      <c r="L45" s="30">
+        <v>0.36280000000000001</v>
+      </c>
+      <c r="M45" s="30">
+        <v>0.86439999999999995</v>
+      </c>
+      <c r="N45" s="31">
+        <f>59*Table2[[#This Row],[Accuracy]]</f>
+        <v>50.999599999999994</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B46" s="36">
+        <v>15</v>
+      </c>
+      <c r="C46" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="D46" s="36">
+        <v>5</v>
+      </c>
+      <c r="E46" s="36">
+        <v>3</v>
+      </c>
+      <c r="F46" s="22">
+        <v>1E-4</v>
+      </c>
+      <c r="G46" s="14">
+        <f>F46/10</f>
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="H46" s="28">
+        <v>50</v>
+      </c>
+      <c r="I46" s="10">
+        <v>50</v>
+      </c>
+      <c r="J46" s="29">
+        <v>50</v>
+      </c>
+      <c r="K46" s="8">
+        <v>12</v>
+      </c>
+      <c r="L46" s="30">
+        <v>0.29389999999999999</v>
+      </c>
+      <c r="M46" s="30">
+        <v>0.86439999999999995</v>
+      </c>
+      <c r="N46" s="31">
+        <f>59*Table2[[#This Row],[Accuracy]]</f>
+        <v>50.999599999999994</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B47" s="36">
+        <v>16</v>
+      </c>
+      <c r="C47" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="D47" s="36">
+        <v>6</v>
+      </c>
+      <c r="E47" s="36">
+        <v>1</v>
+      </c>
+      <c r="F47" s="22">
+        <v>1E-4</v>
+      </c>
+      <c r="G47" s="14">
+        <v>1.1E-5</v>
+      </c>
+      <c r="H47" s="28">
+        <v>50</v>
+      </c>
+      <c r="I47" s="10">
+        <v>50</v>
+      </c>
+      <c r="J47" s="29">
+        <v>50</v>
+      </c>
+      <c r="K47" s="8">
+        <v>20</v>
+      </c>
+      <c r="L47" s="16">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="M47" s="30">
+        <v>0.81359999999999999</v>
+      </c>
+      <c r="N47" s="31">
+        <f>59*Table2[[#This Row],[Accuracy]]</f>
+        <v>48.002400000000002</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B48" s="36">
+        <v>17</v>
+      </c>
+      <c r="C48" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="D48" s="36">
+        <v>6</v>
+      </c>
+      <c r="E48" s="36">
+        <v>2</v>
+      </c>
+      <c r="F48" s="22">
+        <v>1E-4</v>
+      </c>
+      <c r="G48" s="14">
+        <v>1.1E-5</v>
+      </c>
+      <c r="H48" s="28">
+        <v>50</v>
+      </c>
+      <c r="I48" s="10">
+        <v>50</v>
+      </c>
+      <c r="J48" s="29">
+        <v>50</v>
+      </c>
+      <c r="K48" s="8">
+        <v>12</v>
+      </c>
+      <c r="L48" s="16">
+        <v>0.28220000000000001</v>
+      </c>
+      <c r="M48" s="30">
+        <v>0.86439999999999995</v>
+      </c>
+      <c r="N48" s="31">
+        <f>59*Table2[[#This Row],[Accuracy]]</f>
+        <v>50.999599999999994</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B49" s="36">
+        <v>18</v>
+      </c>
+      <c r="C49" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="D49" s="36">
+        <v>6</v>
+      </c>
+      <c r="E49" s="36">
+        <v>3</v>
+      </c>
+      <c r="F49" s="22">
+        <v>1E-4</v>
+      </c>
+      <c r="G49" s="14">
+        <v>1.1E-5</v>
+      </c>
+      <c r="H49" s="28">
+        <v>50</v>
+      </c>
+      <c r="I49" s="10">
+        <v>50</v>
+      </c>
+      <c r="J49" s="29">
+        <v>50</v>
+      </c>
+      <c r="K49" s="8">
+        <v>21</v>
+      </c>
+      <c r="L49" s="16">
+        <v>0.2928</v>
+      </c>
+      <c r="M49" s="30">
+        <v>0.89829999999999999</v>
+      </c>
+      <c r="N49" s="31">
+        <f>59*Table2[[#This Row],[Accuracy]]</f>
+        <v>52.999699999999997</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B50" s="36">
+        <v>19</v>
+      </c>
+      <c r="C50" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="D50" s="36">
+        <v>7</v>
+      </c>
+      <c r="E50" s="36">
+        <v>1</v>
+      </c>
+      <c r="F50" s="22">
+        <v>1E-4</v>
+      </c>
+      <c r="G50" s="14">
+        <v>1.2E-5</v>
+      </c>
+      <c r="H50" s="28">
+        <v>50</v>
+      </c>
+      <c r="I50" s="10">
+        <v>50</v>
+      </c>
+      <c r="J50" s="29">
+        <v>50</v>
+      </c>
+      <c r="K50" s="8">
+        <v>11</v>
+      </c>
+      <c r="L50" s="16">
+        <v>0.27060000000000001</v>
+      </c>
+      <c r="M50" s="30">
+        <v>0.88139999999999996</v>
+      </c>
+      <c r="N50" s="31">
+        <f>59*Table2[[#This Row],[Accuracy]]</f>
+        <v>52.002600000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B51" s="36">
+        <v>20</v>
+      </c>
+      <c r="C51" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="D51" s="36">
+        <v>7</v>
+      </c>
+      <c r="E51" s="36">
+        <v>2</v>
+      </c>
+      <c r="F51" s="22">
+        <v>1E-4</v>
+      </c>
+      <c r="G51" s="14">
+        <v>1.2E-5</v>
+      </c>
+      <c r="H51" s="28">
+        <v>50</v>
+      </c>
+      <c r="I51" s="10">
+        <v>50</v>
+      </c>
+      <c r="J51" s="29">
+        <v>50</v>
+      </c>
+      <c r="K51" s="8">
+        <v>19</v>
+      </c>
+      <c r="L51" s="30">
+        <v>0.33379999999999999</v>
+      </c>
+      <c r="M51" s="30">
+        <v>0.86439999999999995</v>
+      </c>
+      <c r="N51" s="31">
+        <f>59*Table2[[#This Row],[Accuracy]]</f>
+        <v>50.999599999999994</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B52" s="36">
+        <v>21</v>
+      </c>
+      <c r="C52" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="D52" s="36">
+        <v>7</v>
+      </c>
+      <c r="E52" s="36">
+        <v>3</v>
+      </c>
+      <c r="F52" s="22">
+        <v>1E-4</v>
+      </c>
+      <c r="G52" s="14">
+        <v>1.2E-5</v>
+      </c>
+      <c r="H52" s="28">
+        <v>50</v>
+      </c>
+      <c r="I52" s="10">
+        <v>50</v>
+      </c>
+      <c r="J52" s="29">
+        <v>50</v>
+      </c>
+      <c r="K52" s="8">
+        <v>19</v>
+      </c>
+      <c r="L52" s="30">
+        <v>0.31330000000000002</v>
+      </c>
+      <c r="M52" s="30">
+        <v>0.88139999999999996</v>
+      </c>
+      <c r="N52" s="31">
+        <f>59*Table2[[#This Row],[Accuracy]]</f>
+        <v>52.002600000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B53" s="36">
+        <v>22</v>
+      </c>
+      <c r="C53" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="D53" s="36">
+        <v>8</v>
+      </c>
+      <c r="E53" s="36">
+        <v>1</v>
+      </c>
+      <c r="F53" s="22">
+        <v>1.1E-4</v>
+      </c>
+      <c r="G53" s="14">
+        <v>7.9999999999999996E-6</v>
+      </c>
+      <c r="H53" s="28">
+        <v>50</v>
+      </c>
+      <c r="I53" s="10">
+        <v>39</v>
+      </c>
+      <c r="J53" s="29">
+        <v>50</v>
+      </c>
+      <c r="K53" s="8">
+        <v>17</v>
+      </c>
+      <c r="L53" s="16">
+        <v>0.3266</v>
+      </c>
+      <c r="M53" s="30">
+        <v>0.81359999999999999</v>
+      </c>
+      <c r="N53" s="31">
+        <f>59*Table2[[#This Row],[Accuracy]]</f>
+        <v>48.002400000000002</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B54" s="36">
+        <v>23</v>
+      </c>
+      <c r="C54" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="D54" s="36">
+        <v>8</v>
+      </c>
+      <c r="E54" s="36">
+        <v>2</v>
+      </c>
+      <c r="F54" s="22">
+        <v>1.1E-4</v>
+      </c>
+      <c r="G54" s="14">
+        <v>7.9999999999999996E-6</v>
+      </c>
+      <c r="H54" s="28">
+        <v>50</v>
+      </c>
+      <c r="I54" s="10">
+        <v>50</v>
+      </c>
+      <c r="J54" s="29">
+        <v>50</v>
+      </c>
+      <c r="K54" s="8">
+        <v>22</v>
+      </c>
+      <c r="L54" s="30">
+        <v>0.36230000000000001</v>
+      </c>
+      <c r="M54" s="30">
+        <v>0.83050000000000002</v>
+      </c>
+      <c r="N54" s="31">
+        <f>59*Table2[[#This Row],[Accuracy]]</f>
+        <v>48.999499999999998</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B55" s="36">
+        <v>24</v>
+      </c>
+      <c r="C55" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="D55" s="36">
+        <v>8</v>
+      </c>
+      <c r="E55" s="36">
+        <v>3</v>
+      </c>
+      <c r="F55" s="22">
+        <v>1.1E-4</v>
+      </c>
+      <c r="G55" s="14">
+        <v>7.9999999999999996E-6</v>
+      </c>
+      <c r="H55" s="28">
+        <v>50</v>
+      </c>
+      <c r="I55" s="10">
+        <v>50</v>
+      </c>
+      <c r="J55" s="29">
+        <v>50</v>
+      </c>
+      <c r="K55" s="8">
+        <v>12</v>
+      </c>
+      <c r="L55" s="30">
+        <v>0.33050000000000002</v>
+      </c>
+      <c r="M55" s="30">
+        <v>0.83050000000000002</v>
+      </c>
+      <c r="N55" s="31">
+        <f>59*Table2[[#This Row],[Accuracy]]</f>
+        <v>48.999499999999998</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B56" s="36">
+        <v>25</v>
+      </c>
+      <c r="C56" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="D56" s="36">
+        <v>9</v>
+      </c>
+      <c r="E56" s="36">
+        <v>1</v>
+      </c>
+      <c r="F56" s="22">
+        <v>1.2E-4</v>
+      </c>
+      <c r="G56" s="14">
+        <v>7.9999999999999996E-6</v>
+      </c>
+      <c r="H56" s="28">
+        <v>50</v>
+      </c>
+      <c r="I56" s="10">
+        <v>50</v>
+      </c>
+      <c r="J56" s="29">
+        <v>50</v>
+      </c>
+      <c r="K56" s="8">
+        <v>19</v>
+      </c>
+      <c r="L56" s="16">
+        <v>0.31469999999999998</v>
+      </c>
+      <c r="M56" s="30">
+        <v>0.89829999999999999</v>
+      </c>
+      <c r="N56" s="31">
+        <f>59*Table2[[#This Row],[Accuracy]]</f>
+        <v>52.999699999999997</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B57" s="36">
+        <v>26</v>
+      </c>
+      <c r="C57" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="D57" s="36">
+        <v>9</v>
+      </c>
+      <c r="E57" s="36">
+        <v>2</v>
+      </c>
+      <c r="F57" s="22">
+        <v>1.2E-4</v>
+      </c>
+      <c r="G57" s="14">
+        <v>7.9999999999999996E-6</v>
+      </c>
+      <c r="H57" s="28">
+        <v>50</v>
+      </c>
+      <c r="I57" s="10">
+        <v>50</v>
+      </c>
+      <c r="J57" s="29">
+        <v>50</v>
+      </c>
+      <c r="K57" s="8">
+        <v>13</v>
+      </c>
+      <c r="L57" s="30">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="M57" s="30">
+        <v>0.9153</v>
+      </c>
+      <c r="N57" s="31">
+        <f>59*Table2[[#This Row],[Accuracy]]</f>
+        <v>54.002699999999997</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B58" s="36">
+        <v>27</v>
+      </c>
+      <c r="C58" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="D58" s="36">
+        <v>9</v>
+      </c>
+      <c r="E58" s="36">
+        <v>3</v>
+      </c>
+      <c r="F58" s="22">
+        <v>1.2E-4</v>
+      </c>
+      <c r="G58" s="14">
+        <v>7.9999999999999996E-6</v>
+      </c>
+      <c r="H58" s="28">
+        <v>50</v>
+      </c>
+      <c r="I58" s="10">
+        <v>50</v>
+      </c>
+      <c r="J58" s="29">
+        <v>50</v>
+      </c>
+      <c r="K58" s="8">
+        <v>12</v>
+      </c>
+      <c r="L58" s="30">
+        <v>0.28820000000000001</v>
+      </c>
+      <c r="M58" s="30">
+        <v>0.88139999999999996</v>
+      </c>
+      <c r="N58" s="31">
+        <f>59*Table2[[#This Row],[Accuracy]]</f>
+        <v>52.002600000000001</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="B3:C3"/>
@@ -2274,14 +7255,15 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <tableParts count="2">
+  <tableParts count="3">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BADC4B10-C001-4BB7-890B-BA160B8A2716}">
   <dimension ref="A1:A86"/>
   <sheetViews>
@@ -2291,31 +7273,31 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14" style="21" customWidth="1"/>
+    <col min="1" max="1" width="14" style="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21">
+      <c r="A1" s="17">
         <v>7.9999999999999996E-6</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="21">
+      <c r="A23" s="17">
         <v>9.0000000000000002E-6</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" s="21">
+      <c r="A45" s="17">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66" s="21">
+      <c r="A66" s="17">
         <v>1.1E-5</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A86" s="21">
+      <c r="A86" s="17">
         <v>1.2E-5</v>
       </c>
     </row>

--- a/Learning Rates.xlsx
+++ b/Learning Rates.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\65860\Desktop\SoftwareEngineering\Year2\ITP\Project\Traffic_ML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7012A900-D586-4105-B50D-4D9AC6465116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75E9C5C7-A263-4E69-AB6A-F78F388D2703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F5510DF6-6AEA-43BD-A05A-616AF09602DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="3" r:id="rId1"/>
     <sheet name="Learning Rates Comparison" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="25" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -247,7 +248,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -294,18 +295,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -356,1686 +345,52 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="10" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="358">
+  <dxfs count="74">
     <dxf>
       <font>
-        <color theme="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.59999389629810485"/>
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="7" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="7" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="7" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="7" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="7" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="7" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="7" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="7" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="7" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="7" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="7" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="7" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="7" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="7" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="7" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="7" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="7" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="7" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="7" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="7" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="7" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="7" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2106,11 +461,219 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0.00000%"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="0.0000%"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2142,6 +705,13 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -2158,14 +728,39 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="165" formatCode="0.0000%"/>
       <fill>
         <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.59999389629810485"/>
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2185,13 +780,35 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2236,11 +853,11 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <numFmt numFmtId="1" formatCode="0"/>
       <fill>
-        <patternFill patternType="none">
+        <patternFill>
           <fgColor indexed="64"/>
-          <bgColor auto="1"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2264,53 +881,9 @@
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
       <fill>
-        <patternFill patternType="solid">
+        <patternFill>
           <fgColor indexed="64"/>
           <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2334,9 +907,9 @@
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
       <fill>
-        <patternFill patternType="solid">
+        <patternFill>
           <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.59999389629810485"/>
+          <bgColor theme="5" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2360,33 +933,7 @@
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
+        <patternFill>
           <fgColor indexed="64"/>
           <bgColor theme="5" tint="0.59999389629810485"/>
         </patternFill>
@@ -2412,26 +959,28 @@
       </font>
       <numFmt numFmtId="166" formatCode="0.00000%"/>
       <fill>
-        <patternFill patternType="solid">
+        <patternFill>
           <fgColor indexed="64"/>
           <bgColor theme="7" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-      </border>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0000%"/>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2451,30 +1000,6 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2655,199 +1180,158 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <color auto="1"/>
       </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <color auto="1"/>
       </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
       <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
       <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor theme="9" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
       <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
+        <patternFill patternType="solid">
           <bgColor theme="9" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
       <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.59999389629810485"/>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <color theme="0"/>
       </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <color auto="1"/>
       </font>
-      <numFmt numFmtId="166" formatCode="0.00000%"/>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0000%"/>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3791,7 +2275,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{ABD16FD4-3315-4945-BC96-4CC11DAB12EF}" name="PivotTable3" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{ABD16FD4-3315-4945-BC96-4CC11DAB12EF}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="B4:J20" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="13">
     <pivotField subtotalTop="0" showAll="0" defaultSubtotal="0"/>
@@ -3924,7 +2408,7 @@
     <dataField name="Loss Average" fld="10" subtotal="average" baseField="4" baseItem="0" numFmtId="10"/>
   </dataFields>
   <formats count="29">
-    <format dxfId="201">
+    <format dxfId="73">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4" count="1">
@@ -3933,7 +2417,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="202">
+    <format dxfId="72">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4" count="1">
@@ -3942,7 +2426,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="203">
+    <format dxfId="71">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -3951,7 +2435,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="204">
+    <format dxfId="70">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4" count="2">
@@ -3964,7 +2448,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="205">
+    <format dxfId="69">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4" count="1">
@@ -3976,7 +2460,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="206">
+    <format dxfId="68">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="1">
@@ -3985,7 +2469,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="207">
+    <format dxfId="67">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="1">
@@ -3994,7 +2478,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="208">
+    <format dxfId="66">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="1">
@@ -4003,7 +2487,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="209">
+    <format dxfId="65">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="1">
@@ -4012,7 +2496,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="210">
+    <format dxfId="64">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4" count="1">
@@ -4024,7 +2508,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="211">
+    <format dxfId="63">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4" count="1">
@@ -4036,7 +2520,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="212">
+    <format dxfId="62">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4" count="1">
@@ -4048,7 +2532,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="213">
+    <format dxfId="61">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="1">
@@ -4057,7 +2541,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="214">
+    <format dxfId="60">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -4066,7 +2550,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="215">
+    <format dxfId="59">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="2" selected="0">
@@ -4079,7 +2563,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="216">
+    <format dxfId="58">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="1">
@@ -4088,7 +2572,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="217">
+    <format dxfId="57">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="2">
@@ -4101,7 +2585,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="218">
+    <format dxfId="56">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="2" selected="0">
@@ -4114,7 +2598,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="219">
+    <format dxfId="55">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="1">
@@ -4123,7 +2607,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="220">
+    <format dxfId="54">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="2">
@@ -4136,7 +2620,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="221">
+    <format dxfId="53">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="3" count="1">
@@ -4145,7 +2629,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="222">
+    <format dxfId="52">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="2">
@@ -4158,7 +2642,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="223">
+    <format dxfId="51">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="4294967294" count="2" selected="0">
@@ -4172,7 +2656,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="224">
+    <format dxfId="50">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="4294967294" count="2" selected="0">
@@ -4186,7 +2670,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="225">
+    <format dxfId="49">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="4294967294" count="2" selected="0">
@@ -4200,7 +2684,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="226">
+    <format dxfId="48">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="4294967294" count="2" selected="0">
@@ -4214,7 +2698,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="227">
+    <format dxfId="47">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="4294967294" count="2" selected="0">
@@ -4228,7 +2712,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="228">
+    <format dxfId="46">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -4237,7 +2721,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="116">
+    <format dxfId="45">
       <pivotArea field="3" grandCol="1" outline="0" collapsedLevelsAreSubtotals="1" axis="axisCol" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2" selected="0">
@@ -4335,23 +2819,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{716538A6-ED17-40C4-B673-F6A22A5DF3AB}" name="Table4" displayName="Table4" ref="B4:J14" totalsRowShown="0" headerRowDxfId="357" dataDxfId="356">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{716538A6-ED17-40C4-B673-F6A22A5DF3AB}" name="Table4" displayName="Table4" ref="B4:J14" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
   <autoFilter ref="B4:J14" xr:uid="{716538A6-ED17-40C4-B673-F6A22A5DF3AB}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:J14">
     <sortCondition ref="B4:B14"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{6EA67E11-5EF1-4F64-8BF9-939BD93D1040}" name="Feature Extraction" dataDxfId="355"/>
-    <tableColumn id="2" xr3:uid="{22CDFD67-B970-45A7-87A1-66E85E671FF3}" name="Fine Tuning" dataDxfId="354" dataCellStyle="Percent">
+    <tableColumn id="1" xr3:uid="{6EA67E11-5EF1-4F64-8BF9-939BD93D1040}" name="Feature Extraction" dataDxfId="42"/>
+    <tableColumn id="2" xr3:uid="{22CDFD67-B970-45A7-87A1-66E85E671FF3}" name="Fine Tuning" dataDxfId="41" dataCellStyle="Percent">
       <calculatedColumnFormula>B5/10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{C25C17D1-21B9-4655-B69D-96CD06F9BA58}" name="Epoch Set" dataDxfId="353" dataCellStyle="Percent"/>
-    <tableColumn id="5" xr3:uid="{466B42DB-1E9E-4715-8191-AC1258ABD07E}" name="Epoch Undergo" dataDxfId="352" dataCellStyle="Percent"/>
-    <tableColumn id="6" xr3:uid="{78B26499-9791-444B-82E2-CC6BB1F58B87}" name="Epoch SetFT" dataDxfId="351" dataCellStyle="Percent"/>
-    <tableColumn id="7" xr3:uid="{6065AA55-BC9E-4401-BE42-91F91100B40D}" name="Epoch UndergoFT" dataDxfId="350" dataCellStyle="Percent"/>
-    <tableColumn id="9" xr3:uid="{0D9DEFB1-5291-4E76-8E60-33993FC8A74A}" name="Test Dataset Loss" dataDxfId="349" dataCellStyle="Percent"/>
-    <tableColumn id="3" xr3:uid="{A5FE943B-77B2-48AD-80B3-6ACCA0283617}" name="Test Dataset Accuracy" dataDxfId="348"/>
-    <tableColumn id="8" xr3:uid="{8585E09E-BE35-48A6-989E-910542286FC9}" name="Correct Predictions (Out of 59)" dataDxfId="347" dataCellStyle="Percent">
+    <tableColumn id="4" xr3:uid="{C25C17D1-21B9-4655-B69D-96CD06F9BA58}" name="Epoch Set" dataDxfId="40" dataCellStyle="Percent"/>
+    <tableColumn id="5" xr3:uid="{466B42DB-1E9E-4715-8191-AC1258ABD07E}" name="Epoch Undergo" dataDxfId="39" dataCellStyle="Percent"/>
+    <tableColumn id="6" xr3:uid="{78B26499-9791-444B-82E2-CC6BB1F58B87}" name="Epoch SetFT" dataDxfId="38" dataCellStyle="Percent"/>
+    <tableColumn id="7" xr3:uid="{6065AA55-BC9E-4401-BE42-91F91100B40D}" name="Epoch UndergoFT" dataDxfId="37" dataCellStyle="Percent"/>
+    <tableColumn id="9" xr3:uid="{0D9DEFB1-5291-4E76-8E60-33993FC8A74A}" name="Test Dataset Loss" dataDxfId="36" dataCellStyle="Percent"/>
+    <tableColumn id="3" xr3:uid="{A5FE943B-77B2-48AD-80B3-6ACCA0283617}" name="Test Dataset Accuracy" dataDxfId="35"/>
+    <tableColumn id="8" xr3:uid="{8585E09E-BE35-48A6-989E-910542286FC9}" name="Correct Predictions (Out of 59)" dataDxfId="34" dataCellStyle="Percent">
       <calculatedColumnFormula>59*Table4[[#This Row],[Test Dataset Accuracy]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4360,33 +2844,33 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7F2F301C-5A38-4540-B768-F8EE0DF5A255}" name="Table42" displayName="Table42" ref="B17:P27" totalsRowShown="0" headerRowDxfId="346" dataDxfId="345">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7F2F301C-5A38-4540-B768-F8EE0DF5A255}" name="Table42" displayName="Table42" ref="B17:P27" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
   <autoFilter ref="B17:P27" xr:uid="{7F2F301C-5A38-4540-B768-F8EE0DF5A255}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B18:P27">
     <sortCondition ref="B17:B27"/>
   </sortState>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{485E10B5-49B3-4B34-B2A8-8DB25F38CDCA}" name="Feature Extraction" dataDxfId="344"/>
-    <tableColumn id="2" xr3:uid="{4F0EFF3C-EFBD-4D81-AF1E-B70D89FE1140}" name="Fine Tuning" dataDxfId="343" dataCellStyle="Percent">
+    <tableColumn id="1" xr3:uid="{485E10B5-49B3-4B34-B2A8-8DB25F38CDCA}" name="Feature Extraction" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{4F0EFF3C-EFBD-4D81-AF1E-B70D89FE1140}" name="Fine Tuning" dataDxfId="30" dataCellStyle="Percent">
       <calculatedColumnFormula>B18/10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{77EF4E9A-34E8-42B4-8650-6D0269E36D3D}" name="Epoch Set" dataDxfId="342" dataCellStyle="Percent"/>
-    <tableColumn id="5" xr3:uid="{3737EB52-8EE7-42AC-BCF5-DACF8AB4C666}" name="Epoch Undergo" dataDxfId="341" dataCellStyle="Percent"/>
-    <tableColumn id="6" xr3:uid="{DCEDF8C3-7222-4373-9998-716476D1DC64}" name="Epoch SetFT" dataDxfId="340" dataCellStyle="Percent"/>
-    <tableColumn id="7" xr3:uid="{74AAFDFC-BD4D-486D-AAA8-27D289481B92}" name="Epoch UndergoFT" dataDxfId="339" dataCellStyle="Percent"/>
-    <tableColumn id="9" xr3:uid="{43302B6C-0A80-40E6-B114-66E468306993}" name="Loss1" dataDxfId="338" dataCellStyle="Percent"/>
-    <tableColumn id="3" xr3:uid="{26356F77-460D-416A-99B3-BBF85C9DC69C}" name="Accuracy1" dataDxfId="337"/>
-    <tableColumn id="10" xr3:uid="{33DD8E20-21E9-42DB-A9ED-2EB6254B6694}" name="Loss2" dataDxfId="336"/>
-    <tableColumn id="11" xr3:uid="{6829DF2F-21F4-45FB-AA73-F683252A3142}" name="Accuracy2" dataDxfId="335"/>
-    <tableColumn id="12" xr3:uid="{5F661F4D-678B-4020-A679-2664CA8B6202}" name="Loss3" dataDxfId="334"/>
-    <tableColumn id="13" xr3:uid="{C3FA50CB-D03F-46D8-8412-C9DB34573DBE}" name="Accuracy3" dataDxfId="333"/>
-    <tableColumn id="14" xr3:uid="{8A397EB8-90C6-4673-BA0C-2881AB360A11}" name="Average Loss" dataDxfId="332">
+    <tableColumn id="4" xr3:uid="{77EF4E9A-34E8-42B4-8650-6D0269E36D3D}" name="Epoch Set" dataDxfId="29" dataCellStyle="Percent"/>
+    <tableColumn id="5" xr3:uid="{3737EB52-8EE7-42AC-BCF5-DACF8AB4C666}" name="Epoch Undergo" dataDxfId="28" dataCellStyle="Percent"/>
+    <tableColumn id="6" xr3:uid="{DCEDF8C3-7222-4373-9998-716476D1DC64}" name="Epoch SetFT" dataDxfId="27" dataCellStyle="Percent"/>
+    <tableColumn id="7" xr3:uid="{74AAFDFC-BD4D-486D-AAA8-27D289481B92}" name="Epoch UndergoFT" dataDxfId="26" dataCellStyle="Percent"/>
+    <tableColumn id="9" xr3:uid="{43302B6C-0A80-40E6-B114-66E468306993}" name="Loss1" dataDxfId="25" dataCellStyle="Percent"/>
+    <tableColumn id="3" xr3:uid="{26356F77-460D-416A-99B3-BBF85C9DC69C}" name="Accuracy1" dataDxfId="24"/>
+    <tableColumn id="10" xr3:uid="{33DD8E20-21E9-42DB-A9ED-2EB6254B6694}" name="Loss2" dataDxfId="23"/>
+    <tableColumn id="11" xr3:uid="{6829DF2F-21F4-45FB-AA73-F683252A3142}" name="Accuracy2" dataDxfId="22"/>
+    <tableColumn id="12" xr3:uid="{5F661F4D-678B-4020-A679-2664CA8B6202}" name="Loss3" dataDxfId="21"/>
+    <tableColumn id="13" xr3:uid="{C3FA50CB-D03F-46D8-8412-C9DB34573DBE}" name="Accuracy3" dataDxfId="20"/>
+    <tableColumn id="14" xr3:uid="{8A397EB8-90C6-4673-BA0C-2881AB360A11}" name="Average Loss" dataDxfId="19">
       <calculatedColumnFormula>SUM(Table42[[#This Row],[Loss1]],Table42[[#This Row],[Loss2]],Table42[[#This Row],[Loss3]])/3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{38831F4B-7CB6-47D1-8189-BC480F70AD1C}" name="Average Accuracy" dataDxfId="331">
+    <tableColumn id="15" xr3:uid="{38831F4B-7CB6-47D1-8189-BC480F70AD1C}" name="Average Accuracy" dataDxfId="18">
       <calculatedColumnFormula>SUM(Table42[[#This Row],[Accuracy1]],Table42[[#This Row],[Accuracy2]],Table42[[#This Row],[Accuracy3]])/3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{2104EC55-481A-4232-AE55-D62BBCD49840}" name="Correct Predictions (Out of 59)" dataDxfId="330" dataCellStyle="Percent">
+    <tableColumn id="8" xr3:uid="{2104EC55-481A-4232-AE55-D62BBCD49840}" name="Correct Predictions (Out of 59)" dataDxfId="17" dataCellStyle="Percent">
       <calculatedColumnFormula>59*Table42[[#This Row],[Accuracy1]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4395,22 +2879,22 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{81E28367-2AA6-4DC8-ABBD-1124D9E224C3}" name="Table2" displayName="Table2" ref="B31:N58" totalsRowShown="0" headerRowDxfId="322" dataDxfId="323" headerRowBorderDxfId="328" tableBorderDxfId="329">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{81E28367-2AA6-4DC8-ABBD-1124D9E224C3}" name="Table2" displayName="Table2" ref="B31:N58" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="13">
   <autoFilter ref="B31:N58" xr:uid="{81E28367-2AA6-4DC8-ABBD-1124D9E224C3}"/>
   <tableColumns count="13">
-    <tableColumn id="18" xr3:uid="{15CAC9F2-A9AE-4DF9-9463-27879ABEF874}" name="S/N" dataDxfId="315"/>
-    <tableColumn id="20" xr3:uid="{8751364B-A1F1-4231-839D-41D6BB3744A9}" name="Learning Rate Category" dataDxfId="313"/>
-    <tableColumn id="17" xr3:uid="{88D66E1E-4B55-479B-8E01-B940A81D996D}" name="Group" dataDxfId="316"/>
-    <tableColumn id="19" xr3:uid="{C29B4EA7-872E-4985-985F-D1263991876A}" name="Attempt" dataDxfId="314"/>
-    <tableColumn id="1" xr3:uid="{74E818B4-0889-4479-B54B-2EB291E76806}" name="Feature Extraction" dataDxfId="317"/>
-    <tableColumn id="2" xr3:uid="{E88A4247-AE56-4CAC-ADE1-2DC704DFF04C}" name="Fine Tuning" dataDxfId="327" dataCellStyle="Percent"/>
-    <tableColumn id="3" xr3:uid="{2D1A8174-0CF5-49BA-A3D3-35867E5CEF7A}" name="Epoch Set" dataDxfId="326" dataCellStyle="Percent"/>
-    <tableColumn id="4" xr3:uid="{B2813A48-925E-4FF2-9D9E-34A17D47193E}" name="Epoch Undergo" dataDxfId="325" dataCellStyle="Percent"/>
-    <tableColumn id="5" xr3:uid="{2B60C0D8-8FA3-49FB-BBB4-167EEE24539A}" name="Epoch SetFT" dataDxfId="324" dataCellStyle="Percent"/>
-    <tableColumn id="6" xr3:uid="{E9B28B45-1179-4DAB-BC0E-B365B8833F0E}" name="Epoch UndergoFT" dataDxfId="321" dataCellStyle="Percent"/>
-    <tableColumn id="7" xr3:uid="{2754ABEE-B570-4C31-9C72-7C21A1F82BA4}" name="Loss" dataDxfId="320" dataCellStyle="Percent"/>
-    <tableColumn id="8" xr3:uid="{2913B544-8DB0-45C7-9420-367138A8248F}" name="Accuracy" dataDxfId="319"/>
-    <tableColumn id="15" xr3:uid="{F30FA38B-490A-4BE9-8DB2-AD16F3E68C1C}" name="Correct Predictions (Out of 59)" dataDxfId="318" dataCellStyle="Percent">
+    <tableColumn id="18" xr3:uid="{15CAC9F2-A9AE-4DF9-9463-27879ABEF874}" name="S/N" dataDxfId="2"/>
+    <tableColumn id="20" xr3:uid="{8751364B-A1F1-4231-839D-41D6BB3744A9}" name="Learning Rate Category" dataDxfId="0"/>
+    <tableColumn id="17" xr3:uid="{88D66E1E-4B55-479B-8E01-B940A81D996D}" name="Group" dataDxfId="1"/>
+    <tableColumn id="19" xr3:uid="{C29B4EA7-872E-4985-985F-D1263991876A}" name="Attempt" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{74E818B4-0889-4479-B54B-2EB291E76806}" name="Feature Extraction" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{E88A4247-AE56-4CAC-ADE1-2DC704DFF04C}" name="Fine Tuning" dataDxfId="10" dataCellStyle="Percent"/>
+    <tableColumn id="3" xr3:uid="{2D1A8174-0CF5-49BA-A3D3-35867E5CEF7A}" name="Epoch Set" dataDxfId="9" dataCellStyle="Percent"/>
+    <tableColumn id="4" xr3:uid="{B2813A48-925E-4FF2-9D9E-34A17D47193E}" name="Epoch Undergo" dataDxfId="8" dataCellStyle="Percent"/>
+    <tableColumn id="5" xr3:uid="{2B60C0D8-8FA3-49FB-BBB4-167EEE24539A}" name="Epoch SetFT" dataDxfId="7" dataCellStyle="Percent"/>
+    <tableColumn id="6" xr3:uid="{E9B28B45-1179-4DAB-BC0E-B365B8833F0E}" name="Epoch UndergoFT" dataDxfId="6" dataCellStyle="Percent"/>
+    <tableColumn id="7" xr3:uid="{2754ABEE-B570-4C31-9C72-7C21A1F82BA4}" name="Loss" dataDxfId="5" dataCellStyle="Percent"/>
+    <tableColumn id="8" xr3:uid="{2913B544-8DB0-45C7-9420-367138A8248F}" name="Accuracy" dataDxfId="4"/>
+    <tableColumn id="15" xr3:uid="{F30FA38B-490A-4BE9-8DB2-AD16F3E68C1C}" name="Correct Predictions (Out of 59)" dataDxfId="3" dataCellStyle="Percent">
       <calculatedColumnFormula>59*Table2[[#This Row],[Accuracy]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4812,7 +3296,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="28" t="s">
         <v>33</v>
       </c>
       <c r="C2" t="s">
@@ -4820,23 +3304,23 @@
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="28" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C5" s="37">
+      <c r="C5" s="33">
         <v>1</v>
       </c>
-      <c r="D5" s="37"/>
-      <c r="E5" s="40">
+      <c r="D5" s="33"/>
+      <c r="E5" s="36">
         <v>2</v>
       </c>
-      <c r="F5" s="40"/>
-      <c r="G5" s="43">
+      <c r="F5" s="36"/>
+      <c r="G5" s="39">
         <v>3</v>
       </c>
-      <c r="H5" s="43"/>
+      <c r="H5" s="39"/>
       <c r="I5" t="s">
         <v>28</v>
       </c>
@@ -4845,351 +3329,351 @@
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="40" t="s">
+      <c r="E6" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="40" t="s">
+      <c r="F6" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="43" t="s">
+      <c r="G6" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="43" t="s">
+      <c r="H6" s="39" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B7" s="33">
+      <c r="B7" s="29">
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="34">
+      <c r="B8" s="30">
         <v>7.9999999999999996E-6</v>
       </c>
-      <c r="C8" s="39">
+      <c r="C8" s="35">
         <v>0.89829999999999999</v>
       </c>
-      <c r="D8" s="39">
+      <c r="D8" s="35">
         <v>0.35570000000000002</v>
       </c>
-      <c r="E8" s="42">
+      <c r="E8" s="38">
         <v>0.89829999999999999</v>
       </c>
-      <c r="F8" s="42">
+      <c r="F8" s="38">
         <v>0.2923</v>
       </c>
-      <c r="G8" s="45">
+      <c r="G8" s="41">
         <v>0.86439999999999995</v>
       </c>
-      <c r="H8" s="45">
+      <c r="H8" s="41">
         <v>0.32619999999999999</v>
       </c>
-      <c r="I8" s="35">
+      <c r="I8" s="31">
         <v>0.88700000000000001</v>
       </c>
-      <c r="J8" s="35">
+      <c r="J8" s="31">
         <v>0.32473333333333332</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="33">
+      <c r="B9" s="29">
         <v>9.0000000000000006E-5</v>
       </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="34">
+      <c r="B10" s="30">
         <v>7.9999999999999996E-6</v>
       </c>
-      <c r="C10" s="39">
+      <c r="C10" s="35">
         <v>0.88139999999999996</v>
       </c>
-      <c r="D10" s="39">
+      <c r="D10" s="35">
         <v>0.31280000000000002</v>
       </c>
-      <c r="E10" s="42">
+      <c r="E10" s="38">
         <v>0.88139999999999996</v>
       </c>
-      <c r="F10" s="42">
+      <c r="F10" s="38">
         <v>0.32579999999999998</v>
       </c>
-      <c r="G10" s="45">
+      <c r="G10" s="41">
         <v>0.9153</v>
       </c>
-      <c r="H10" s="45">
+      <c r="H10" s="41">
         <v>0.34310000000000002</v>
       </c>
-      <c r="I10" s="35">
+      <c r="I10" s="31">
         <v>0.89269999999999994</v>
       </c>
-      <c r="J10" s="35">
+      <c r="J10" s="31">
         <v>0.32723333333333332</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="33">
+      <c r="B11" s="29">
         <v>1E-4</v>
       </c>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="34">
+      <c r="B12" s="30">
         <v>7.9999999999999996E-6</v>
       </c>
-      <c r="C12" s="39">
+      <c r="C12" s="35">
         <v>0.88139999999999996</v>
       </c>
-      <c r="D12" s="39">
+      <c r="D12" s="35">
         <v>0.34820000000000001</v>
       </c>
-      <c r="E12" s="42">
+      <c r="E12" s="38">
         <v>0.88139999999999996</v>
       </c>
-      <c r="F12" s="42">
+      <c r="F12" s="38">
         <v>0.33729999999999999</v>
       </c>
-      <c r="G12" s="45">
+      <c r="G12" s="41">
         <v>0.88139999999999996</v>
       </c>
-      <c r="H12" s="45">
+      <c r="H12" s="41">
         <v>0.3115</v>
       </c>
-      <c r="I12" s="35">
+      <c r="I12" s="31">
         <v>0.88139999999999985</v>
       </c>
-      <c r="J12" s="35">
+      <c r="J12" s="31">
         <v>0.33233333333333331</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="34">
+      <c r="B13" s="30">
         <v>9.0000000000000002E-6</v>
       </c>
-      <c r="C13" s="39">
+      <c r="C13" s="35">
         <v>0.84750000000000003</v>
       </c>
-      <c r="D13" s="39">
+      <c r="D13" s="35">
         <v>0.3276</v>
       </c>
-      <c r="E13" s="42">
+      <c r="E13" s="38">
         <v>0.89829999999999999</v>
       </c>
-      <c r="F13" s="42">
+      <c r="F13" s="38">
         <v>0.34</v>
       </c>
-      <c r="G13" s="45">
+      <c r="G13" s="41">
         <v>0.88139999999999996</v>
       </c>
-      <c r="H13" s="45">
+      <c r="H13" s="41">
         <v>0.28820000000000001</v>
       </c>
-      <c r="I13" s="35">
+      <c r="I13" s="31">
         <v>0.87573333333333336</v>
       </c>
-      <c r="J13" s="35">
+      <c r="J13" s="31">
         <v>0.31859999999999999</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B14" s="34">
+      <c r="B14" s="30">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="C14" s="39">
+      <c r="C14" s="35">
         <v>0.83099999999999996</v>
       </c>
-      <c r="D14" s="39">
+      <c r="D14" s="35">
         <v>0.318</v>
       </c>
-      <c r="E14" s="42">
+      <c r="E14" s="38">
         <v>0.86439999999999995</v>
       </c>
-      <c r="F14" s="42">
+      <c r="F14" s="38">
         <v>0.36280000000000001</v>
       </c>
-      <c r="G14" s="45">
+      <c r="G14" s="41">
         <v>0.86439999999999995</v>
       </c>
-      <c r="H14" s="45">
+      <c r="H14" s="41">
         <v>0.29389999999999999</v>
       </c>
-      <c r="I14" s="35">
+      <c r="I14" s="31">
         <v>0.85326666666666651</v>
       </c>
-      <c r="J14" s="35">
+      <c r="J14" s="31">
         <v>0.32490000000000002</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="34">
+      <c r="B15" s="30">
         <v>1.1E-5</v>
       </c>
-      <c r="C15" s="39">
+      <c r="C15" s="35">
         <v>0.81359999999999999</v>
       </c>
-      <c r="D15" s="39">
+      <c r="D15" s="35">
         <v>0.28499999999999998</v>
       </c>
-      <c r="E15" s="42">
+      <c r="E15" s="38">
         <v>0.86439999999999995</v>
       </c>
-      <c r="F15" s="42">
+      <c r="F15" s="38">
         <v>0.28220000000000001</v>
       </c>
-      <c r="G15" s="45">
+      <c r="G15" s="41">
         <v>0.89829999999999999</v>
       </c>
-      <c r="H15" s="45">
+      <c r="H15" s="41">
         <v>0.2928</v>
       </c>
-      <c r="I15" s="35">
+      <c r="I15" s="31">
         <v>0.85876666666666657</v>
       </c>
-      <c r="J15" s="35">
+      <c r="J15" s="31">
         <v>0.28666666666666663</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B16" s="34">
+      <c r="B16" s="30">
         <v>1.2E-5</v>
       </c>
-      <c r="C16" s="39">
+      <c r="C16" s="35">
         <v>0.88139999999999996</v>
       </c>
-      <c r="D16" s="39">
+      <c r="D16" s="35">
         <v>0.27060000000000001</v>
       </c>
-      <c r="E16" s="42">
+      <c r="E16" s="38">
         <v>0.86439999999999995</v>
       </c>
-      <c r="F16" s="42">
+      <c r="F16" s="38">
         <v>0.33379999999999999</v>
       </c>
-      <c r="G16" s="45">
+      <c r="G16" s="41">
         <v>0.88139999999999996</v>
       </c>
-      <c r="H16" s="45">
+      <c r="H16" s="41">
         <v>0.31330000000000002</v>
       </c>
-      <c r="I16" s="35">
+      <c r="I16" s="31">
         <v>0.87573333333333336</v>
       </c>
-      <c r="J16" s="35">
+      <c r="J16" s="31">
         <v>0.30590000000000001</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B17" s="33">
+      <c r="B17" s="29">
         <v>1.1E-4</v>
       </c>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B18" s="34">
+      <c r="B18" s="30">
         <v>7.9999999999999996E-6</v>
       </c>
-      <c r="C18" s="39">
+      <c r="C18" s="35">
         <v>0.81359999999999999</v>
       </c>
-      <c r="D18" s="39">
+      <c r="D18" s="35">
         <v>0.3266</v>
       </c>
-      <c r="E18" s="42">
+      <c r="E18" s="38">
         <v>0.83050000000000002</v>
       </c>
-      <c r="F18" s="42">
+      <c r="F18" s="38">
         <v>0.36230000000000001</v>
       </c>
-      <c r="G18" s="45">
+      <c r="G18" s="41">
         <v>0.83050000000000002</v>
       </c>
-      <c r="H18" s="45">
+      <c r="H18" s="41">
         <v>0.33050000000000002</v>
       </c>
-      <c r="I18" s="35">
+      <c r="I18" s="31">
         <v>0.82486666666666653</v>
       </c>
-      <c r="J18" s="35">
+      <c r="J18" s="31">
         <v>0.33980000000000005</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B19" s="33">
+      <c r="B19" s="29">
         <v>1.2E-4</v>
       </c>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B20" s="34">
+      <c r="B20" s="30">
         <v>7.9999999999999996E-6</v>
       </c>
-      <c r="C20" s="39">
+      <c r="C20" s="35">
         <v>0.89829999999999999</v>
       </c>
-      <c r="D20" s="39">
+      <c r="D20" s="35">
         <v>0.31469999999999998</v>
       </c>
-      <c r="E20" s="42">
+      <c r="E20" s="38">
         <v>0.9153</v>
       </c>
-      <c r="F20" s="42">
+      <c r="F20" s="38">
         <v>0.26700000000000002</v>
       </c>
-      <c r="G20" s="45">
+      <c r="G20" s="41">
         <v>0.88139999999999996</v>
       </c>
-      <c r="H20" s="45">
+      <c r="H20" s="41">
         <v>0.28820000000000001</v>
       </c>
-      <c r="I20" s="35">
+      <c r="I20" s="31">
         <v>0.89833333333333343</v>
       </c>
-      <c r="J20" s="35">
+      <c r="J20" s="31">
         <v>0.28996666666666665</v>
       </c>
     </row>
@@ -5202,14 +3686,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54A7B53C-1470-498D-AE06-6C9C8BBDE7A1}">
   <dimension ref="B2:P58"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="N48" sqref="N48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" customWidth="1"/>
     <col min="4" max="4" width="14.6640625" customWidth="1"/>
     <col min="5" max="5" width="15.33203125" customWidth="1"/>
     <col min="6" max="6" width="12.44140625" customWidth="1"/>
@@ -5224,33 +3708,33 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-    </row>
-    <row r="3" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="18" t="s">
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+    </row>
+    <row r="3" spans="2:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="19" t="s">
+      <c r="C3" s="42"/>
+      <c r="D3" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="20" t="s">
+      <c r="E3" s="43"/>
+      <c r="F3" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="20"/>
-    </row>
-    <row r="4" spans="2:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="G3" s="44"/>
+    </row>
+    <row r="4" spans="2:10" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B4" s="12" t="s">
         <v>2</v>
       </c>
@@ -5279,7 +3763,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B5" s="13">
         <v>1.0000000000000001E-5</v>
       </c>
@@ -5310,7 +3794,7 @@
         <v>50.002500000000005</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B6" s="13">
         <v>2.5000000000000001E-5</v>
       </c>
@@ -5341,7 +3825,7 @@
         <v>52.002600000000001</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B7" s="13">
         <v>5.0000000000000002E-5</v>
       </c>
@@ -5372,7 +3856,7 @@
         <v>48.002400000000002</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B8" s="13">
         <v>7.4999999999999993E-5</v>
       </c>
@@ -5403,7 +3887,7 @@
         <v>50.002500000000005</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B9" s="13">
         <v>1E-4</v>
       </c>
@@ -5434,7 +3918,7 @@
         <v>52.999699999999997</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B10" s="13">
         <v>1.25E-4</v>
       </c>
@@ -5465,7 +3949,7 @@
         <v>50.999599999999994</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B11" s="13">
         <v>1.4999999999999999E-4</v>
       </c>
@@ -5496,7 +3980,7 @@
         <v>50.999599999999994</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B12" s="13">
         <v>1.75E-4</v>
       </c>
@@ -5527,7 +4011,7 @@
         <v>50.002500000000005</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B13" s="13">
         <v>2.0000000000000001E-4</v>
       </c>
@@ -5558,7 +4042,7 @@
         <v>50.999599999999994</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B14" s="13">
         <v>1E-3</v>
       </c>
@@ -5589,25 +4073,25 @@
         <v>44.014000000000003</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B16" s="18" t="s">
+    <row r="16" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="19" t="s">
+      <c r="C16" s="42"/>
+      <c r="D16" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="19"/>
-      <c r="F16" s="20" t="s">
+      <c r="E16" s="43"/>
+      <c r="F16" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="G16" s="20"/>
-    </row>
-    <row r="17" spans="2:16" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="G16" s="44"/>
+    </row>
+    <row r="17" spans="2:16" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B17" s="12" t="s">
         <v>2</v>
       </c>
@@ -5654,7 +4138,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B18" s="13">
         <v>8.0000000000000007E-5</v>
       </c>
@@ -5693,7 +4177,7 @@
       </c>
       <c r="P18" s="6"/>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B19" s="13">
         <v>9.0000000000000006E-5</v>
       </c>
@@ -5732,7 +4216,7 @@
       </c>
       <c r="P19" s="6"/>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B20" s="13">
         <v>1E-4</v>
       </c>
@@ -5774,7 +4258,7 @@
         <v>52.002599999999994</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B21" s="13">
         <v>1E-4</v>
       </c>
@@ -5816,7 +4300,7 @@
         <v>51.668266666666668</v>
       </c>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B22" s="13">
         <v>1E-4</v>
       </c>
@@ -5865,7 +4349,7 @@
         <v>50.342733333333321</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B23" s="13">
         <v>1E-4</v>
       </c>
@@ -5915,7 +4399,7 @@
         <v>50.667233333333328</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B24" s="13">
         <v>1E-4</v>
       </c>
@@ -5957,7 +4441,7 @@
         <v>51.668266666666668</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B25" s="13">
         <v>1.1E-4</v>
       </c>
@@ -5999,7 +4483,7 @@
         <v>48.667133333333325</v>
       </c>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B26" s="13">
         <v>1.2E-4</v>
       </c>
@@ -6041,7 +4525,7 @@
         <v>53.001666666666672</v>
       </c>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B27" s="13"/>
       <c r="C27" s="14"/>
       <c r="D27" s="10"/>
@@ -6064,199 +4548,202 @@
       </c>
       <c r="P27" s="6"/>
     </row>
+    <row r="28" spans="2:16" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="2:16" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="2:16" hidden="1" x14ac:dyDescent="0.3"/>
     <row r="31" spans="2:16" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B31" s="23" t="s">
+      <c r="B31" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="23" t="s">
+      <c r="C31" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="D31" s="23" t="s">
+      <c r="D31" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="E31" s="23" t="s">
+      <c r="E31" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="F31" s="23" t="s">
+      <c r="F31" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G31" s="24" t="s">
+      <c r="G31" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="H31" s="25" t="s">
+      <c r="H31" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="I31" s="25" t="s">
+      <c r="I31" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="J31" s="26" t="s">
+      <c r="J31" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="K31" s="26" t="s">
+      <c r="K31" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="L31" s="27" t="s">
+      <c r="L31" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="M31" s="27" t="s">
+      <c r="M31" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="N31" s="27" t="s">
+      <c r="N31" s="23" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B32" s="36">
+    <row r="32" spans="2:16" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="32">
         <v>1</v>
       </c>
-      <c r="C32" s="36" t="s">
+      <c r="C32" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="36">
+      <c r="D32" s="32">
         <v>1</v>
       </c>
-      <c r="E32" s="36">
+      <c r="E32" s="32">
         <v>1</v>
       </c>
-      <c r="F32" s="22">
+      <c r="F32" s="18">
         <v>8.0000000000000007E-5</v>
       </c>
       <c r="G32" s="14">
         <v>7.9999999999999996E-6</v>
       </c>
-      <c r="H32" s="28">
-        <v>50</v>
-      </c>
-      <c r="I32" s="28">
-        <v>50</v>
-      </c>
-      <c r="J32" s="29">
-        <v>50</v>
-      </c>
-      <c r="K32" s="29">
+      <c r="H32" s="24">
+        <v>50</v>
+      </c>
+      <c r="I32" s="24">
+        <v>50</v>
+      </c>
+      <c r="J32" s="25">
+        <v>50</v>
+      </c>
+      <c r="K32" s="25">
         <v>19</v>
       </c>
       <c r="L32" s="16">
         <v>0.35570000000000002</v>
       </c>
-      <c r="M32" s="30">
+      <c r="M32" s="26">
         <v>0.89829999999999999</v>
       </c>
-      <c r="N32" s="31">
+      <c r="N32" s="27">
         <f>59*Table2[[#This Row],[Accuracy]]</f>
         <v>52.999699999999997</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B33" s="36">
+    <row r="33" spans="2:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="32">
         <v>2</v>
       </c>
-      <c r="C33" s="36" t="s">
+      <c r="C33" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="D33" s="36">
+      <c r="D33" s="32">
         <v>1</v>
       </c>
-      <c r="E33" s="36">
+      <c r="E33" s="32">
         <v>2</v>
       </c>
-      <c r="F33" s="22">
+      <c r="F33" s="18">
         <v>8.0000000000000007E-5</v>
       </c>
       <c r="G33" s="14">
         <v>7.9999999999999996E-6</v>
       </c>
-      <c r="H33" s="28">
-        <v>50</v>
-      </c>
-      <c r="I33" s="28">
-        <v>50</v>
-      </c>
-      <c r="J33" s="29">
-        <v>50</v>
-      </c>
-      <c r="K33" s="29">
+      <c r="H33" s="24">
+        <v>50</v>
+      </c>
+      <c r="I33" s="24">
+        <v>50</v>
+      </c>
+      <c r="J33" s="25">
+        <v>50</v>
+      </c>
+      <c r="K33" s="25">
         <v>19</v>
       </c>
-      <c r="L33" s="30">
+      <c r="L33" s="26">
         <v>0.2923</v>
       </c>
-      <c r="M33" s="30">
+      <c r="M33" s="26">
         <v>0.89829999999999999</v>
       </c>
-      <c r="N33" s="31">
+      <c r="N33" s="27">
         <f>59*Table2[[#This Row],[Accuracy]]</f>
         <v>52.999699999999997</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B34" s="36">
+    <row r="34" spans="2:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="32">
         <v>3</v>
       </c>
-      <c r="C34" s="36" t="s">
+      <c r="C34" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="D34" s="36">
+      <c r="D34" s="32">
         <v>1</v>
       </c>
-      <c r="E34" s="36">
+      <c r="E34" s="32">
         <v>3</v>
       </c>
-      <c r="F34" s="22">
+      <c r="F34" s="18">
         <v>8.0000000000000007E-5</v>
       </c>
       <c r="G34" s="14">
         <v>7.9999999999999996E-6</v>
       </c>
-      <c r="H34" s="28">
+      <c r="H34" s="24">
         <v>50</v>
       </c>
       <c r="I34" s="10">
         <v>50</v>
       </c>
-      <c r="J34" s="29">
+      <c r="J34" s="25">
         <v>50</v>
       </c>
       <c r="K34" s="8">
         <v>21</v>
       </c>
-      <c r="L34" s="30">
+      <c r="L34" s="26">
         <v>0.32619999999999999</v>
       </c>
-      <c r="M34" s="30">
+      <c r="M34" s="26">
         <v>0.86439999999999995</v>
       </c>
-      <c r="N34" s="31">
+      <c r="N34" s="27">
         <f>59*Table2[[#This Row],[Accuracy]]</f>
         <v>50.999599999999994</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B35" s="36">
+    <row r="35" spans="2:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="32">
         <v>4</v>
       </c>
-      <c r="C35" s="36" t="s">
+      <c r="C35" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="36">
+      <c r="D35" s="32">
         <v>2</v>
       </c>
-      <c r="E35" s="36">
+      <c r="E35" s="32">
         <v>1</v>
       </c>
-      <c r="F35" s="22">
+      <c r="F35" s="18">
         <v>9.0000000000000006E-5</v>
       </c>
       <c r="G35" s="14">
         <v>7.9999999999999996E-6</v>
       </c>
-      <c r="H35" s="28">
+      <c r="H35" s="24">
         <v>50</v>
       </c>
       <c r="I35" s="10">
         <v>50</v>
       </c>
-      <c r="J35" s="29">
+      <c r="J35" s="25">
         <v>50</v>
       </c>
       <c r="K35" s="8">
@@ -6268,79 +4755,79 @@
       <c r="M35" s="16">
         <v>0.88139999999999996</v>
       </c>
-      <c r="N35" s="31">
+      <c r="N35" s="27">
         <f>59*Table2[[#This Row],[Accuracy]]</f>
         <v>52.002600000000001</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B36" s="36">
+    <row r="36" spans="2:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="32">
         <v>5</v>
       </c>
-      <c r="C36" s="36" t="s">
+      <c r="C36" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="D36" s="36">
+      <c r="D36" s="32">
         <v>2</v>
       </c>
-      <c r="E36" s="36">
+      <c r="E36" s="32">
         <v>2</v>
       </c>
-      <c r="F36" s="22">
+      <c r="F36" s="18">
         <v>9.0000000000000006E-5</v>
       </c>
       <c r="G36" s="14">
         <v>7.9999999999999996E-6</v>
       </c>
-      <c r="H36" s="28">
+      <c r="H36" s="24">
         <v>50</v>
       </c>
       <c r="I36" s="10">
         <v>50</v>
       </c>
-      <c r="J36" s="29">
+      <c r="J36" s="25">
         <v>50</v>
       </c>
       <c r="K36" s="8">
         <v>20</v>
       </c>
-      <c r="L36" s="30">
+      <c r="L36" s="26">
         <v>0.32579999999999998</v>
       </c>
-      <c r="M36" s="30">
+      <c r="M36" s="26">
         <v>0.88139999999999996</v>
       </c>
-      <c r="N36" s="31">
+      <c r="N36" s="27">
         <f>59*Table2[[#This Row],[Accuracy]]</f>
         <v>52.002600000000001</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B37" s="36">
+    <row r="37" spans="2:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="32">
         <v>6</v>
       </c>
-      <c r="C37" s="36" t="s">
+      <c r="C37" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="D37" s="36">
+      <c r="D37" s="32">
         <v>2</v>
       </c>
-      <c r="E37" s="36">
+      <c r="E37" s="32">
         <v>3</v>
       </c>
-      <c r="F37" s="22">
+      <c r="F37" s="18">
         <v>9.0000000000000006E-5</v>
       </c>
       <c r="G37" s="14">
         <v>7.9999999999999996E-6</v>
       </c>
-      <c r="H37" s="28">
+      <c r="H37" s="24">
         <v>50</v>
       </c>
       <c r="I37" s="10">
         <v>50</v>
       </c>
-      <c r="J37" s="29">
+      <c r="J37" s="25">
         <v>50</v>
       </c>
       <c r="K37" s="8">
@@ -6352,37 +4839,37 @@
       <c r="M37" s="16">
         <v>0.9153</v>
       </c>
-      <c r="N37" s="31">
+      <c r="N37" s="27">
         <f>59*Table2[[#This Row],[Accuracy]]</f>
         <v>54.002699999999997</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B38" s="36">
+    <row r="38" spans="2:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="32">
         <v>7</v>
       </c>
-      <c r="C38" s="36" t="s">
+      <c r="C38" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="D38" s="36">
+      <c r="D38" s="32">
         <v>3</v>
       </c>
-      <c r="E38" s="36">
+      <c r="E38" s="32">
         <v>1</v>
       </c>
-      <c r="F38" s="22">
+      <c r="F38" s="18">
         <v>1E-4</v>
       </c>
       <c r="G38" s="14">
         <v>7.9999999999999996E-6</v>
       </c>
-      <c r="H38" s="28">
+      <c r="H38" s="24">
         <v>50</v>
       </c>
       <c r="I38" s="10">
         <v>50</v>
       </c>
-      <c r="J38" s="29">
+      <c r="J38" s="25">
         <v>50</v>
       </c>
       <c r="K38" s="8">
@@ -6391,251 +4878,251 @@
       <c r="L38" s="16">
         <v>0.34820000000000001</v>
       </c>
-      <c r="M38" s="30">
+      <c r="M38" s="26">
         <v>0.88139999999999996</v>
       </c>
-      <c r="N38" s="31">
+      <c r="N38" s="27">
         <f>59*Table2[[#This Row],[Accuracy]]</f>
         <v>52.002600000000001</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B39" s="36">
+    <row r="39" spans="2:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="32">
         <v>8</v>
       </c>
-      <c r="C39" s="36" t="s">
+      <c r="C39" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="D39" s="36">
+      <c r="D39" s="32">
         <v>3</v>
       </c>
-      <c r="E39" s="36">
+      <c r="E39" s="32">
         <v>2</v>
       </c>
-      <c r="F39" s="22">
+      <c r="F39" s="18">
         <v>1E-4</v>
       </c>
       <c r="G39" s="14">
         <v>7.9999999999999996E-6</v>
       </c>
-      <c r="H39" s="28">
+      <c r="H39" s="24">
         <v>50</v>
       </c>
       <c r="I39" s="10">
         <v>50</v>
       </c>
-      <c r="J39" s="29">
+      <c r="J39" s="25">
         <v>50</v>
       </c>
       <c r="K39" s="8">
         <v>12</v>
       </c>
-      <c r="L39" s="30">
+      <c r="L39" s="26">
         <v>0.33729999999999999</v>
       </c>
-      <c r="M39" s="30">
+      <c r="M39" s="26">
         <v>0.88139999999999996</v>
       </c>
-      <c r="N39" s="31">
+      <c r="N39" s="27">
         <f>59*Table2[[#This Row],[Accuracy]]</f>
         <v>52.002600000000001</v>
       </c>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B40" s="36">
+    <row r="40" spans="2:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="32">
         <v>9</v>
       </c>
-      <c r="C40" s="36" t="s">
+      <c r="C40" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="D40" s="36">
+      <c r="D40" s="32">
         <v>3</v>
       </c>
-      <c r="E40" s="36">
+      <c r="E40" s="32">
         <v>3</v>
       </c>
-      <c r="F40" s="22">
+      <c r="F40" s="18">
         <v>1E-4</v>
       </c>
       <c r="G40" s="14">
         <v>7.9999999999999996E-6</v>
       </c>
-      <c r="H40" s="28">
+      <c r="H40" s="24">
         <v>50</v>
       </c>
       <c r="I40" s="10">
         <v>50</v>
       </c>
-      <c r="J40" s="29">
+      <c r="J40" s="25">
         <v>50</v>
       </c>
       <c r="K40" s="8">
         <v>22</v>
       </c>
-      <c r="L40" s="30">
+      <c r="L40" s="26">
         <v>0.3115</v>
       </c>
-      <c r="M40" s="30">
+      <c r="M40" s="26">
         <v>0.88139999999999996</v>
       </c>
-      <c r="N40" s="31">
+      <c r="N40" s="27">
         <f>59*Table2[[#This Row],[Accuracy]]</f>
         <v>52.002600000000001</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B41" s="36">
+    <row r="41" spans="2:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="32">
         <v>10</v>
       </c>
-      <c r="C41" s="36" t="s">
+      <c r="C41" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="D41" s="36">
+      <c r="D41" s="32">
         <v>4</v>
       </c>
-      <c r="E41" s="36">
+      <c r="E41" s="32">
         <v>1</v>
       </c>
-      <c r="F41" s="22">
+      <c r="F41" s="18">
         <v>1E-4</v>
       </c>
       <c r="G41" s="14">
         <v>9.0000000000000002E-6</v>
       </c>
-      <c r="H41" s="28">
+      <c r="H41" s="24">
         <v>50</v>
       </c>
       <c r="I41" s="10">
         <v>50</v>
       </c>
-      <c r="J41" s="29">
+      <c r="J41" s="25">
         <v>50</v>
       </c>
       <c r="K41" s="8">
         <v>33</v>
       </c>
-      <c r="L41" s="30">
+      <c r="L41" s="26">
         <v>0.3276</v>
       </c>
-      <c r="M41" s="30">
+      <c r="M41" s="26">
         <v>0.84750000000000003</v>
       </c>
-      <c r="N41" s="31">
+      <c r="N41" s="27">
         <f>59*Table2[[#This Row],[Accuracy]]</f>
         <v>50.002500000000005</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B42" s="36">
+    <row r="42" spans="2:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="32">
         <v>11</v>
       </c>
-      <c r="C42" s="36" t="s">
+      <c r="C42" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="D42" s="36">
+      <c r="D42" s="32">
         <v>4</v>
       </c>
-      <c r="E42" s="36">
+      <c r="E42" s="32">
         <v>2</v>
       </c>
-      <c r="F42" s="22">
+      <c r="F42" s="18">
         <v>1E-4</v>
       </c>
       <c r="G42" s="14">
         <v>9.0000000000000002E-6</v>
       </c>
-      <c r="H42" s="28">
+      <c r="H42" s="24">
         <v>50</v>
       </c>
       <c r="I42" s="10">
         <v>50</v>
       </c>
-      <c r="J42" s="29">
+      <c r="J42" s="25">
         <v>50</v>
       </c>
       <c r="K42" s="8">
         <v>29</v>
       </c>
-      <c r="L42" s="30">
+      <c r="L42" s="26">
         <v>0.34</v>
       </c>
-      <c r="M42" s="30">
+      <c r="M42" s="26">
         <v>0.89829999999999999</v>
       </c>
-      <c r="N42" s="31">
+      <c r="N42" s="27">
         <f>59*Table2[[#This Row],[Accuracy]]</f>
         <v>52.999699999999997</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B43" s="36">
+    <row r="43" spans="2:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="32">
         <v>12</v>
       </c>
-      <c r="C43" s="36" t="s">
+      <c r="C43" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="36">
+      <c r="D43" s="32">
         <v>4</v>
       </c>
-      <c r="E43" s="36">
+      <c r="E43" s="32">
         <v>3</v>
       </c>
-      <c r="F43" s="22">
+      <c r="F43" s="18">
         <v>1E-4</v>
       </c>
       <c r="G43" s="14">
         <v>9.0000000000000002E-6</v>
       </c>
-      <c r="H43" s="28">
+      <c r="H43" s="24">
         <v>50</v>
       </c>
       <c r="I43" s="10">
         <v>50</v>
       </c>
-      <c r="J43" s="29">
+      <c r="J43" s="25">
         <v>50</v>
       </c>
       <c r="K43" s="8">
         <v>12</v>
       </c>
-      <c r="L43" s="30">
+      <c r="L43" s="26">
         <v>0.28820000000000001</v>
       </c>
-      <c r="M43" s="30">
+      <c r="M43" s="26">
         <v>0.88139999999999996</v>
       </c>
-      <c r="N43" s="31">
+      <c r="N43" s="27">
         <f>59*Table2[[#This Row],[Accuracy]]</f>
         <v>52.002600000000001</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B44" s="36">
+    <row r="44" spans="2:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="32">
         <v>13</v>
       </c>
-      <c r="C44" s="36" t="s">
+      <c r="C44" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="D44" s="36">
+      <c r="D44" s="32">
         <v>5</v>
       </c>
-      <c r="E44" s="36">
+      <c r="E44" s="32">
         <v>1</v>
       </c>
-      <c r="F44" s="22">
+      <c r="F44" s="18">
         <v>1E-4</v>
       </c>
       <c r="G44" s="14">
         <f>F44/10</f>
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="H44" s="28">
+      <c r="H44" s="24">
         <v>50</v>
       </c>
       <c r="I44" s="10">
         <v>50</v>
       </c>
-      <c r="J44" s="29">
+      <c r="J44" s="25">
         <v>50</v>
       </c>
       <c r="K44" s="8">
@@ -6644,126 +5131,126 @@
       <c r="L44" s="16">
         <v>0.318</v>
       </c>
-      <c r="M44" s="30">
+      <c r="M44" s="26">
         <v>0.83099999999999996</v>
       </c>
-      <c r="N44" s="31">
+      <c r="N44" s="27">
         <f>59*Table2[[#This Row],[Accuracy]]</f>
         <v>49.028999999999996</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B45" s="36">
+    <row r="45" spans="2:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="32">
         <v>14</v>
       </c>
-      <c r="C45" s="36" t="s">
+      <c r="C45" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="D45" s="36">
+      <c r="D45" s="32">
         <v>5</v>
       </c>
-      <c r="E45" s="36">
+      <c r="E45" s="32">
         <v>2</v>
       </c>
-      <c r="F45" s="22">
+      <c r="F45" s="18">
         <v>1E-4</v>
       </c>
       <c r="G45" s="14">
         <f>F45/10</f>
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="H45" s="28">
+      <c r="H45" s="24">
         <v>50</v>
       </c>
       <c r="I45" s="10">
         <v>50</v>
       </c>
-      <c r="J45" s="29">
+      <c r="J45" s="25">
         <v>50</v>
       </c>
       <c r="K45" s="8">
         <v>10</v>
       </c>
-      <c r="L45" s="30">
+      <c r="L45" s="26">
         <v>0.36280000000000001</v>
       </c>
-      <c r="M45" s="30">
+      <c r="M45" s="26">
         <v>0.86439999999999995</v>
       </c>
-      <c r="N45" s="31">
+      <c r="N45" s="27">
         <f>59*Table2[[#This Row],[Accuracy]]</f>
         <v>50.999599999999994</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B46" s="36">
+    <row r="46" spans="2:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="32">
         <v>15</v>
       </c>
-      <c r="C46" s="36" t="s">
+      <c r="C46" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="D46" s="36">
+      <c r="D46" s="32">
         <v>5</v>
       </c>
-      <c r="E46" s="36">
+      <c r="E46" s="32">
         <v>3</v>
       </c>
-      <c r="F46" s="22">
+      <c r="F46" s="18">
         <v>1E-4</v>
       </c>
       <c r="G46" s="14">
         <f>F46/10</f>
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="H46" s="28">
+      <c r="H46" s="24">
         <v>50</v>
       </c>
       <c r="I46" s="10">
         <v>50</v>
       </c>
-      <c r="J46" s="29">
+      <c r="J46" s="25">
         <v>50</v>
       </c>
       <c r="K46" s="8">
         <v>12</v>
       </c>
-      <c r="L46" s="30">
+      <c r="L46" s="26">
         <v>0.29389999999999999</v>
       </c>
-      <c r="M46" s="30">
+      <c r="M46" s="26">
         <v>0.86439999999999995</v>
       </c>
-      <c r="N46" s="31">
+      <c r="N46" s="27">
         <f>59*Table2[[#This Row],[Accuracy]]</f>
         <v>50.999599999999994</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B47" s="36">
+    <row r="47" spans="2:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="32">
         <v>16</v>
       </c>
-      <c r="C47" s="36" t="s">
+      <c r="C47" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="D47" s="36">
+      <c r="D47" s="32">
         <v>6</v>
       </c>
-      <c r="E47" s="36">
+      <c r="E47" s="32">
         <v>1</v>
       </c>
-      <c r="F47" s="22">
+      <c r="F47" s="18">
         <v>1E-4</v>
       </c>
       <c r="G47" s="14">
         <v>1.1E-5</v>
       </c>
-      <c r="H47" s="28">
+      <c r="H47" s="24">
         <v>50</v>
       </c>
       <c r="I47" s="10">
         <v>50</v>
       </c>
-      <c r="J47" s="29">
+      <c r="J47" s="25">
         <v>50</v>
       </c>
       <c r="K47" s="8">
@@ -6772,40 +5259,40 @@
       <c r="L47" s="16">
         <v>0.28499999999999998</v>
       </c>
-      <c r="M47" s="30">
+      <c r="M47" s="26">
         <v>0.81359999999999999</v>
       </c>
-      <c r="N47" s="31">
+      <c r="N47" s="27">
         <f>59*Table2[[#This Row],[Accuracy]]</f>
         <v>48.002400000000002</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B48" s="36">
+    <row r="48" spans="2:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="32">
         <v>17</v>
       </c>
-      <c r="C48" s="36" t="s">
+      <c r="C48" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="D48" s="36">
+      <c r="D48" s="32">
         <v>6</v>
       </c>
-      <c r="E48" s="36">
+      <c r="E48" s="32">
         <v>2</v>
       </c>
-      <c r="F48" s="22">
+      <c r="F48" s="18">
         <v>1E-4</v>
       </c>
       <c r="G48" s="14">
         <v>1.1E-5</v>
       </c>
-      <c r="H48" s="28">
+      <c r="H48" s="24">
         <v>50</v>
       </c>
       <c r="I48" s="10">
         <v>50</v>
       </c>
-      <c r="J48" s="29">
+      <c r="J48" s="25">
         <v>50</v>
       </c>
       <c r="K48" s="8">
@@ -6814,40 +5301,40 @@
       <c r="L48" s="16">
         <v>0.28220000000000001</v>
       </c>
-      <c r="M48" s="30">
+      <c r="M48" s="26">
         <v>0.86439999999999995</v>
       </c>
-      <c r="N48" s="31">
+      <c r="N48" s="27">
         <f>59*Table2[[#This Row],[Accuracy]]</f>
         <v>50.999599999999994</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B49" s="36">
+    <row r="49" spans="2:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="32">
         <v>18</v>
       </c>
-      <c r="C49" s="36" t="s">
+      <c r="C49" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="D49" s="36">
+      <c r="D49" s="32">
         <v>6</v>
       </c>
-      <c r="E49" s="36">
+      <c r="E49" s="32">
         <v>3</v>
       </c>
-      <c r="F49" s="22">
+      <c r="F49" s="18">
         <v>1E-4</v>
       </c>
       <c r="G49" s="14">
         <v>1.1E-5</v>
       </c>
-      <c r="H49" s="28">
+      <c r="H49" s="24">
         <v>50</v>
       </c>
       <c r="I49" s="10">
         <v>50</v>
       </c>
-      <c r="J49" s="29">
+      <c r="J49" s="25">
         <v>50</v>
       </c>
       <c r="K49" s="8">
@@ -6856,40 +5343,40 @@
       <c r="L49" s="16">
         <v>0.2928</v>
       </c>
-      <c r="M49" s="30">
+      <c r="M49" s="26">
         <v>0.89829999999999999</v>
       </c>
-      <c r="N49" s="31">
+      <c r="N49" s="27">
         <f>59*Table2[[#This Row],[Accuracy]]</f>
         <v>52.999699999999997</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B50" s="36">
+    <row r="50" spans="2:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="32">
         <v>19</v>
       </c>
-      <c r="C50" s="36" t="s">
+      <c r="C50" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="D50" s="36">
+      <c r="D50" s="32">
         <v>7</v>
       </c>
-      <c r="E50" s="36">
+      <c r="E50" s="32">
         <v>1</v>
       </c>
-      <c r="F50" s="22">
+      <c r="F50" s="18">
         <v>1E-4</v>
       </c>
       <c r="G50" s="14">
         <v>1.2E-5</v>
       </c>
-      <c r="H50" s="28">
+      <c r="H50" s="24">
         <v>50</v>
       </c>
       <c r="I50" s="10">
         <v>50</v>
       </c>
-      <c r="J50" s="29">
+      <c r="J50" s="25">
         <v>50</v>
       </c>
       <c r="K50" s="8">
@@ -6898,124 +5385,124 @@
       <c r="L50" s="16">
         <v>0.27060000000000001</v>
       </c>
-      <c r="M50" s="30">
+      <c r="M50" s="26">
         <v>0.88139999999999996</v>
       </c>
-      <c r="N50" s="31">
+      <c r="N50" s="27">
         <f>59*Table2[[#This Row],[Accuracy]]</f>
         <v>52.002600000000001</v>
       </c>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B51" s="36">
+    <row r="51" spans="2:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="32">
         <v>20</v>
       </c>
-      <c r="C51" s="36" t="s">
+      <c r="C51" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="D51" s="36">
+      <c r="D51" s="32">
         <v>7</v>
       </c>
-      <c r="E51" s="36">
+      <c r="E51" s="32">
         <v>2</v>
       </c>
-      <c r="F51" s="22">
+      <c r="F51" s="18">
         <v>1E-4</v>
       </c>
       <c r="G51" s="14">
         <v>1.2E-5</v>
       </c>
-      <c r="H51" s="28">
+      <c r="H51" s="24">
         <v>50</v>
       </c>
       <c r="I51" s="10">
         <v>50</v>
       </c>
-      <c r="J51" s="29">
+      <c r="J51" s="25">
         <v>50</v>
       </c>
       <c r="K51" s="8">
         <v>19</v>
       </c>
-      <c r="L51" s="30">
+      <c r="L51" s="26">
         <v>0.33379999999999999</v>
       </c>
-      <c r="M51" s="30">
+      <c r="M51" s="26">
         <v>0.86439999999999995</v>
       </c>
-      <c r="N51" s="31">
+      <c r="N51" s="27">
         <f>59*Table2[[#This Row],[Accuracy]]</f>
         <v>50.999599999999994</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B52" s="36">
+    <row r="52" spans="2:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="32">
         <v>21</v>
       </c>
-      <c r="C52" s="36" t="s">
+      <c r="C52" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="D52" s="36">
+      <c r="D52" s="32">
         <v>7</v>
       </c>
-      <c r="E52" s="36">
+      <c r="E52" s="32">
         <v>3</v>
       </c>
-      <c r="F52" s="22">
+      <c r="F52" s="18">
         <v>1E-4</v>
       </c>
       <c r="G52" s="14">
         <v>1.2E-5</v>
       </c>
-      <c r="H52" s="28">
+      <c r="H52" s="24">
         <v>50</v>
       </c>
       <c r="I52" s="10">
         <v>50</v>
       </c>
-      <c r="J52" s="29">
+      <c r="J52" s="25">
         <v>50</v>
       </c>
       <c r="K52" s="8">
         <v>19</v>
       </c>
-      <c r="L52" s="30">
+      <c r="L52" s="26">
         <v>0.31330000000000002</v>
       </c>
-      <c r="M52" s="30">
+      <c r="M52" s="26">
         <v>0.88139999999999996</v>
       </c>
-      <c r="N52" s="31">
+      <c r="N52" s="27">
         <f>59*Table2[[#This Row],[Accuracy]]</f>
         <v>52.002600000000001</v>
       </c>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B53" s="36">
+    <row r="53" spans="2:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="32">
         <v>22</v>
       </c>
-      <c r="C53" s="36" t="s">
+      <c r="C53" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="D53" s="36">
+      <c r="D53" s="32">
         <v>8</v>
       </c>
-      <c r="E53" s="36">
+      <c r="E53" s="32">
         <v>1</v>
       </c>
-      <c r="F53" s="22">
+      <c r="F53" s="18">
         <v>1.1E-4</v>
       </c>
       <c r="G53" s="14">
         <v>7.9999999999999996E-6</v>
       </c>
-      <c r="H53" s="28">
+      <c r="H53" s="24">
         <v>50</v>
       </c>
       <c r="I53" s="10">
         <v>39</v>
       </c>
-      <c r="J53" s="29">
+      <c r="J53" s="25">
         <v>50</v>
       </c>
       <c r="K53" s="8">
@@ -7024,124 +5511,124 @@
       <c r="L53" s="16">
         <v>0.3266</v>
       </c>
-      <c r="M53" s="30">
+      <c r="M53" s="26">
         <v>0.81359999999999999</v>
       </c>
-      <c r="N53" s="31">
+      <c r="N53" s="27">
         <f>59*Table2[[#This Row],[Accuracy]]</f>
         <v>48.002400000000002</v>
       </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B54" s="36">
+    <row r="54" spans="2:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="32">
         <v>23</v>
       </c>
-      <c r="C54" s="36" t="s">
+      <c r="C54" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="D54" s="36">
+      <c r="D54" s="32">
         <v>8</v>
       </c>
-      <c r="E54" s="36">
+      <c r="E54" s="32">
         <v>2</v>
       </c>
-      <c r="F54" s="22">
+      <c r="F54" s="18">
         <v>1.1E-4</v>
       </c>
       <c r="G54" s="14">
         <v>7.9999999999999996E-6</v>
       </c>
-      <c r="H54" s="28">
+      <c r="H54" s="24">
         <v>50</v>
       </c>
       <c r="I54" s="10">
         <v>50</v>
       </c>
-      <c r="J54" s="29">
+      <c r="J54" s="25">
         <v>50</v>
       </c>
       <c r="K54" s="8">
         <v>22</v>
       </c>
-      <c r="L54" s="30">
+      <c r="L54" s="26">
         <v>0.36230000000000001</v>
       </c>
-      <c r="M54" s="30">
+      <c r="M54" s="26">
         <v>0.83050000000000002</v>
       </c>
-      <c r="N54" s="31">
+      <c r="N54" s="27">
         <f>59*Table2[[#This Row],[Accuracy]]</f>
         <v>48.999499999999998</v>
       </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B55" s="36">
+    <row r="55" spans="2:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="32">
         <v>24</v>
       </c>
-      <c r="C55" s="36" t="s">
+      <c r="C55" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="D55" s="36">
+      <c r="D55" s="32">
         <v>8</v>
       </c>
-      <c r="E55" s="36">
+      <c r="E55" s="32">
         <v>3</v>
       </c>
-      <c r="F55" s="22">
+      <c r="F55" s="18">
         <v>1.1E-4</v>
       </c>
       <c r="G55" s="14">
         <v>7.9999999999999996E-6</v>
       </c>
-      <c r="H55" s="28">
+      <c r="H55" s="24">
         <v>50</v>
       </c>
       <c r="I55" s="10">
         <v>50</v>
       </c>
-      <c r="J55" s="29">
+      <c r="J55" s="25">
         <v>50</v>
       </c>
       <c r="K55" s="8">
         <v>12</v>
       </c>
-      <c r="L55" s="30">
+      <c r="L55" s="26">
         <v>0.33050000000000002</v>
       </c>
-      <c r="M55" s="30">
+      <c r="M55" s="26">
         <v>0.83050000000000002</v>
       </c>
-      <c r="N55" s="31">
+      <c r="N55" s="27">
         <f>59*Table2[[#This Row],[Accuracy]]</f>
         <v>48.999499999999998</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B56" s="36">
+    <row r="56" spans="2:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="32">
         <v>25</v>
       </c>
-      <c r="C56" s="36" t="s">
+      <c r="C56" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="D56" s="36">
+      <c r="D56" s="32">
         <v>9</v>
       </c>
-      <c r="E56" s="36">
+      <c r="E56" s="32">
         <v>1</v>
       </c>
-      <c r="F56" s="22">
+      <c r="F56" s="18">
         <v>1.2E-4</v>
       </c>
       <c r="G56" s="14">
         <v>7.9999999999999996E-6</v>
       </c>
-      <c r="H56" s="28">
+      <c r="H56" s="24">
         <v>50</v>
       </c>
       <c r="I56" s="10">
         <v>50</v>
       </c>
-      <c r="J56" s="29">
+      <c r="J56" s="25">
         <v>50</v>
       </c>
       <c r="K56" s="8">
@@ -7150,94 +5637,94 @@
       <c r="L56" s="16">
         <v>0.31469999999999998</v>
       </c>
-      <c r="M56" s="30">
+      <c r="M56" s="26">
         <v>0.89829999999999999</v>
       </c>
-      <c r="N56" s="31">
+      <c r="N56" s="27">
         <f>59*Table2[[#This Row],[Accuracy]]</f>
         <v>52.999699999999997</v>
       </c>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B57" s="36">
+    <row r="57" spans="2:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="32">
         <v>26</v>
       </c>
-      <c r="C57" s="36" t="s">
+      <c r="C57" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="D57" s="36">
+      <c r="D57" s="32">
         <v>9</v>
       </c>
-      <c r="E57" s="36">
+      <c r="E57" s="32">
         <v>2</v>
       </c>
-      <c r="F57" s="22">
+      <c r="F57" s="18">
         <v>1.2E-4</v>
       </c>
       <c r="G57" s="14">
         <v>7.9999999999999996E-6</v>
       </c>
-      <c r="H57" s="28">
+      <c r="H57" s="24">
         <v>50</v>
       </c>
       <c r="I57" s="10">
         <v>50</v>
       </c>
-      <c r="J57" s="29">
+      <c r="J57" s="25">
         <v>50</v>
       </c>
       <c r="K57" s="8">
         <v>13</v>
       </c>
-      <c r="L57" s="30">
+      <c r="L57" s="26">
         <v>0.26700000000000002</v>
       </c>
-      <c r="M57" s="30">
+      <c r="M57" s="26">
         <v>0.9153</v>
       </c>
-      <c r="N57" s="31">
+      <c r="N57" s="27">
         <f>59*Table2[[#This Row],[Accuracy]]</f>
         <v>54.002699999999997</v>
       </c>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B58" s="36">
+    <row r="58" spans="2:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="32">
         <v>27</v>
       </c>
-      <c r="C58" s="36" t="s">
+      <c r="C58" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="D58" s="36">
+      <c r="D58" s="32">
         <v>9</v>
       </c>
-      <c r="E58" s="36">
+      <c r="E58" s="32">
         <v>3</v>
       </c>
-      <c r="F58" s="22">
+      <c r="F58" s="18">
         <v>1.2E-4</v>
       </c>
       <c r="G58" s="14">
         <v>7.9999999999999996E-6</v>
       </c>
-      <c r="H58" s="28">
+      <c r="H58" s="24">
         <v>50</v>
       </c>
       <c r="I58" s="10">
         <v>50</v>
       </c>
-      <c r="J58" s="29">
+      <c r="J58" s="25">
         <v>50</v>
       </c>
       <c r="K58" s="8">
         <v>12</v>
       </c>
-      <c r="L58" s="30">
+      <c r="L58" s="26">
         <v>0.28820000000000001</v>
       </c>
-      <c r="M58" s="30">
+      <c r="M58" s="26">
         <v>0.88139999999999996</v>
       </c>
-      <c r="N58" s="31">
+      <c r="N58" s="27">
         <f>59*Table2[[#This Row],[Accuracy]]</f>
         <v>52.002600000000001</v>
       </c>
@@ -7264,11 +5751,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{468FF429-579D-4BF9-B4BF-DB37CEA13A3D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:N26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BADC4B10-C001-4BB7-890B-BA160B8A2716}">
   <dimension ref="A1:A86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G105" sqref="G105"/>
+      <selection activeCell="I2" sqref="I2:V27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Learning Rates.xlsx
+++ b/Learning Rates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\65860\Desktop\SoftwareEngineering\Year2\ITP\Project\Traffic_ML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75E9C5C7-A263-4E69-AB6A-F78F388D2703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B145E1BE-4729-46BB-8EBD-70ECE1E63A3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F5510DF6-6AEA-43BD-A05A-616AF09602DE}"/>
   </bookViews>
@@ -147,12 +147,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000%"/>
     <numFmt numFmtId="165" formatCode="0.0000%"/>
     <numFmt numFmtId="166" formatCode="0.00000%"/>
+    <numFmt numFmtId="169" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,6 +183,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -248,7 +256,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -332,19 +340,18 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -357,15 +364,555 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="74">
+  <dxfs count="139">
+    <dxf>
+      <numFmt numFmtId="169" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0.00000%"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="0.0000%"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -391,292 +938,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0.00000%"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="0.0000%"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2407,8 +2668,8 @@
     <dataField name="Accuracy Average" fld="11" subtotal="average" baseField="3" baseItem="1" numFmtId="10"/>
     <dataField name="Loss Average" fld="10" subtotal="average" baseField="4" baseItem="0" numFmtId="10"/>
   </dataFields>
-  <formats count="29">
-    <format dxfId="73">
+  <formats count="77">
+    <format dxfId="138">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4" count="1">
@@ -2417,7 +2678,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="72">
+    <format dxfId="137">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4" count="1">
@@ -2426,7 +2687,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="71">
+    <format dxfId="136">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -2435,7 +2696,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="70">
+    <format dxfId="135">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4" count="2">
@@ -2448,7 +2709,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="69">
+    <format dxfId="134">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4" count="1">
@@ -2460,7 +2721,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="68">
+    <format dxfId="133">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="1">
@@ -2469,7 +2730,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="67">
+    <format dxfId="132">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="1">
@@ -2478,7 +2739,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="66">
+    <format dxfId="131">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="1">
@@ -2487,7 +2748,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="65">
+    <format dxfId="130">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="1">
@@ -2496,7 +2757,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="64">
+    <format dxfId="129">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4" count="1">
@@ -2508,7 +2769,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="63">
+    <format dxfId="128">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4" count="1">
@@ -2520,7 +2781,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="62">
+    <format dxfId="127">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4" count="1">
@@ -2532,7 +2793,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="61">
+    <format dxfId="126">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="1">
@@ -2541,7 +2802,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="60">
+    <format dxfId="125">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -2550,7 +2811,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="59">
+    <format dxfId="124">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="2" selected="0">
@@ -2563,7 +2824,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="58">
+    <format dxfId="123">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="1">
@@ -2572,7 +2833,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="57">
+    <format dxfId="122">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="2">
@@ -2585,7 +2846,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="56">
+    <format dxfId="121">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="2" selected="0">
@@ -2598,7 +2859,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="55">
+    <format dxfId="120">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="1">
@@ -2606,6 +2867,190 @@
           </reference>
         </references>
       </pivotArea>
+    </format>
+    <format dxfId="119">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="2">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="118">
+      <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="1">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="117">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="2">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="116">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="2" selected="0">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+          <reference field="3" count="0" selected="0"/>
+          <reference field="5" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="115">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="2" selected="0">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+          <reference field="3" count="0" selected="0"/>
+          <reference field="5" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="114">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="2" selected="0">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+          <reference field="3" count="0" selected="0"/>
+          <reference field="5" count="1">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="113">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="2" selected="0">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+          <reference field="3" count="0" selected="0"/>
+          <reference field="5" count="1">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="112">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="2" selected="0">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+          <reference field="3" count="0" selected="0"/>
+          <reference field="5" count="1">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="111">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="110">
+      <pivotArea field="3" grandCol="1" outline="0" collapsedLevelsAreSubtotals="1" axis="axisCol" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="2" selected="0">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="64">
+      <pivotArea field="3" dataOnly="0" labelOnly="1" grandCol="1" outline="0" axis="axisCol" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="62">
+      <pivotArea field="3" dataOnly="0" labelOnly="1" grandCol="1" outline="0" axis="axisCol" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="60">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="2">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="59">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="2">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="58">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="2">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="57">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
     <format dxfId="54">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
@@ -2615,16 +3060,20 @@
             <x v="1"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="1"/>
+            <x v="0"/>
           </reference>
         </references>
       </pivotArea>
     </format>
     <format dxfId="53">
-      <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="1">
-            <x v="2"/>
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="2">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
           </reference>
         </references>
       </pivotArea>
@@ -2642,91 +3091,601 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="51">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+    <format dxfId="49">
+      <pivotArea field="3" dataOnly="0" labelOnly="1" grandCol="1" outline="0" axis="axisCol" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="47">
+      <pivotArea field="3" dataOnly="0" labelOnly="1" grandCol="1" outline="0" axis="axisCol" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="45">
+      <pivotArea field="5" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="1">
         <references count="3">
           <reference field="4294967294" count="2" selected="0">
             <x v="0"/>
             <x v="1"/>
           </reference>
-          <reference field="3" count="0" selected="0"/>
+          <reference field="4" count="1" selected="0">
+            <x v="4"/>
+          </reference>
           <reference field="5" count="1">
             <x v="0"/>
           </reference>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="50">
+    <format dxfId="44">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="4">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="42">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
-          <reference field="4294967294" count="2" selected="0">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
             <x v="0"/>
-            <x v="1"/>
-          </reference>
-          <reference field="3" count="0" selected="0"/>
+          </reference>
+          <reference field="4" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="40">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="4">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="1"/>
+          </reference>
           <reference field="5" count="1">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="49">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="38">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
-          <reference field="4294967294" count="2" selected="0">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
             <x v="0"/>
-            <x v="1"/>
-          </reference>
-          <reference field="3" count="0" selected="0"/>
-          <reference field="5" count="1">
+          </reference>
+          <reference field="4" count="1">
             <x v="2"/>
           </reference>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="48">
+    <format dxfId="36">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="4">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="5" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="34">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
-          <reference field="4294967294" count="2" selected="0">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
             <x v="0"/>
-            <x v="1"/>
-          </reference>
-          <reference field="3" count="0" selected="0"/>
+          </reference>
+          <reference field="4" count="1">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="32">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="4">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="3"/>
+          </reference>
           <reference field="5" count="1">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="47">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="30">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
-          <reference field="4294967294" count="2" selected="0">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
             <x v="0"/>
-            <x v="1"/>
-          </reference>
-          <reference field="3" count="0" selected="0"/>
+          </reference>
+          <reference field="4" count="1">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="28">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="4">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="4"/>
+          </reference>
           <reference field="5" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="26">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="4">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="25">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="4" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="24">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="4">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="5" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="23">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="4" count="1">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="22">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="4">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="5" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="21">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="4" count="1">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="20">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="4">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="5" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="19">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="4" count="1">
             <x v="4"/>
           </reference>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="46">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
+    <format dxfId="18">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="4">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+          <reference field="5" count="1">
             <x v="0"/>
           </reference>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="45">
-      <pivotArea field="3" grandCol="1" outline="0" collapsedLevelsAreSubtotals="1" axis="axisCol" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="2" selected="0">
+    <format dxfId="17">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="4">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
             <x v="0"/>
-            <x v="1"/>
+          </reference>
+          <reference field="5" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="16">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="4" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="15">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="4">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="5" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="14">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="4" count="1">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="13">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="4">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="5" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="12">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="4" count="1">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="11">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="4">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="5" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="10">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="4" count="1">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="9">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="4">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+          <reference field="5" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="8">
+      <pivotArea field="5" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="1">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="7">
+      <pivotArea field="4" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="4" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="6">
+      <pivotArea field="5" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="1">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="5" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="5">
+      <pivotArea field="4" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="4" count="1">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="4">
+      <pivotArea field="5" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="1">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="5" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="3">
+      <pivotArea field="4" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="4" count="1">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="2">
+      <pivotArea field="5" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="1">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="5" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="1">
+      <pivotArea field="4" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="4" count="1">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="0">
+      <pivotArea field="5" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="1">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+          <reference field="5" count="1">
+            <x v="0"/>
           </reference>
         </references>
       </pivotArea>
@@ -2819,23 +3778,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{716538A6-ED17-40C4-B673-F6A22A5DF3AB}" name="Table4" displayName="Table4" ref="B4:J14" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{716538A6-ED17-40C4-B673-F6A22A5DF3AB}" name="Table4" displayName="Table4" ref="B4:J14" totalsRowShown="0" headerRowDxfId="109" dataDxfId="108">
   <autoFilter ref="B4:J14" xr:uid="{716538A6-ED17-40C4-B673-F6A22A5DF3AB}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:J14">
     <sortCondition ref="B4:B14"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{6EA67E11-5EF1-4F64-8BF9-939BD93D1040}" name="Feature Extraction" dataDxfId="42"/>
-    <tableColumn id="2" xr3:uid="{22CDFD67-B970-45A7-87A1-66E85E671FF3}" name="Fine Tuning" dataDxfId="41" dataCellStyle="Percent">
+    <tableColumn id="1" xr3:uid="{6EA67E11-5EF1-4F64-8BF9-939BD93D1040}" name="Feature Extraction" dataDxfId="107"/>
+    <tableColumn id="2" xr3:uid="{22CDFD67-B970-45A7-87A1-66E85E671FF3}" name="Fine Tuning" dataDxfId="106" dataCellStyle="Percent">
       <calculatedColumnFormula>B5/10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{C25C17D1-21B9-4655-B69D-96CD06F9BA58}" name="Epoch Set" dataDxfId="40" dataCellStyle="Percent"/>
-    <tableColumn id="5" xr3:uid="{466B42DB-1E9E-4715-8191-AC1258ABD07E}" name="Epoch Undergo" dataDxfId="39" dataCellStyle="Percent"/>
-    <tableColumn id="6" xr3:uid="{78B26499-9791-444B-82E2-CC6BB1F58B87}" name="Epoch SetFT" dataDxfId="38" dataCellStyle="Percent"/>
-    <tableColumn id="7" xr3:uid="{6065AA55-BC9E-4401-BE42-91F91100B40D}" name="Epoch UndergoFT" dataDxfId="37" dataCellStyle="Percent"/>
-    <tableColumn id="9" xr3:uid="{0D9DEFB1-5291-4E76-8E60-33993FC8A74A}" name="Test Dataset Loss" dataDxfId="36" dataCellStyle="Percent"/>
-    <tableColumn id="3" xr3:uid="{A5FE943B-77B2-48AD-80B3-6ACCA0283617}" name="Test Dataset Accuracy" dataDxfId="35"/>
-    <tableColumn id="8" xr3:uid="{8585E09E-BE35-48A6-989E-910542286FC9}" name="Correct Predictions (Out of 59)" dataDxfId="34" dataCellStyle="Percent">
+    <tableColumn id="4" xr3:uid="{C25C17D1-21B9-4655-B69D-96CD06F9BA58}" name="Epoch Set" dataDxfId="105" dataCellStyle="Percent"/>
+    <tableColumn id="5" xr3:uid="{466B42DB-1E9E-4715-8191-AC1258ABD07E}" name="Epoch Undergo" dataDxfId="104" dataCellStyle="Percent"/>
+    <tableColumn id="6" xr3:uid="{78B26499-9791-444B-82E2-CC6BB1F58B87}" name="Epoch SetFT" dataDxfId="103" dataCellStyle="Percent"/>
+    <tableColumn id="7" xr3:uid="{6065AA55-BC9E-4401-BE42-91F91100B40D}" name="Epoch UndergoFT" dataDxfId="102" dataCellStyle="Percent"/>
+    <tableColumn id="9" xr3:uid="{0D9DEFB1-5291-4E76-8E60-33993FC8A74A}" name="Test Dataset Loss" dataDxfId="101" dataCellStyle="Percent"/>
+    <tableColumn id="3" xr3:uid="{A5FE943B-77B2-48AD-80B3-6ACCA0283617}" name="Test Dataset Accuracy" dataDxfId="100"/>
+    <tableColumn id="8" xr3:uid="{8585E09E-BE35-48A6-989E-910542286FC9}" name="Correct Predictions (Out of 59)" dataDxfId="99" dataCellStyle="Percent">
       <calculatedColumnFormula>59*Table4[[#This Row],[Test Dataset Accuracy]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2844,33 +3803,33 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7F2F301C-5A38-4540-B768-F8EE0DF5A255}" name="Table42" displayName="Table42" ref="B17:P27" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7F2F301C-5A38-4540-B768-F8EE0DF5A255}" name="Table42" displayName="Table42" ref="B17:P27" totalsRowShown="0" headerRowDxfId="98" dataDxfId="97">
   <autoFilter ref="B17:P27" xr:uid="{7F2F301C-5A38-4540-B768-F8EE0DF5A255}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B18:P27">
     <sortCondition ref="B17:B27"/>
   </sortState>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{485E10B5-49B3-4B34-B2A8-8DB25F38CDCA}" name="Feature Extraction" dataDxfId="31"/>
-    <tableColumn id="2" xr3:uid="{4F0EFF3C-EFBD-4D81-AF1E-B70D89FE1140}" name="Fine Tuning" dataDxfId="30" dataCellStyle="Percent">
+    <tableColumn id="1" xr3:uid="{485E10B5-49B3-4B34-B2A8-8DB25F38CDCA}" name="Feature Extraction" dataDxfId="96"/>
+    <tableColumn id="2" xr3:uid="{4F0EFF3C-EFBD-4D81-AF1E-B70D89FE1140}" name="Fine Tuning" dataDxfId="95" dataCellStyle="Percent">
       <calculatedColumnFormula>B18/10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{77EF4E9A-34E8-42B4-8650-6D0269E36D3D}" name="Epoch Set" dataDxfId="29" dataCellStyle="Percent"/>
-    <tableColumn id="5" xr3:uid="{3737EB52-8EE7-42AC-BCF5-DACF8AB4C666}" name="Epoch Undergo" dataDxfId="28" dataCellStyle="Percent"/>
-    <tableColumn id="6" xr3:uid="{DCEDF8C3-7222-4373-9998-716476D1DC64}" name="Epoch SetFT" dataDxfId="27" dataCellStyle="Percent"/>
-    <tableColumn id="7" xr3:uid="{74AAFDFC-BD4D-486D-AAA8-27D289481B92}" name="Epoch UndergoFT" dataDxfId="26" dataCellStyle="Percent"/>
-    <tableColumn id="9" xr3:uid="{43302B6C-0A80-40E6-B114-66E468306993}" name="Loss1" dataDxfId="25" dataCellStyle="Percent"/>
-    <tableColumn id="3" xr3:uid="{26356F77-460D-416A-99B3-BBF85C9DC69C}" name="Accuracy1" dataDxfId="24"/>
-    <tableColumn id="10" xr3:uid="{33DD8E20-21E9-42DB-A9ED-2EB6254B6694}" name="Loss2" dataDxfId="23"/>
-    <tableColumn id="11" xr3:uid="{6829DF2F-21F4-45FB-AA73-F683252A3142}" name="Accuracy2" dataDxfId="22"/>
-    <tableColumn id="12" xr3:uid="{5F661F4D-678B-4020-A679-2664CA8B6202}" name="Loss3" dataDxfId="21"/>
-    <tableColumn id="13" xr3:uid="{C3FA50CB-D03F-46D8-8412-C9DB34573DBE}" name="Accuracy3" dataDxfId="20"/>
-    <tableColumn id="14" xr3:uid="{8A397EB8-90C6-4673-BA0C-2881AB360A11}" name="Average Loss" dataDxfId="19">
+    <tableColumn id="4" xr3:uid="{77EF4E9A-34E8-42B4-8650-6D0269E36D3D}" name="Epoch Set" dataDxfId="94" dataCellStyle="Percent"/>
+    <tableColumn id="5" xr3:uid="{3737EB52-8EE7-42AC-BCF5-DACF8AB4C666}" name="Epoch Undergo" dataDxfId="93" dataCellStyle="Percent"/>
+    <tableColumn id="6" xr3:uid="{DCEDF8C3-7222-4373-9998-716476D1DC64}" name="Epoch SetFT" dataDxfId="92" dataCellStyle="Percent"/>
+    <tableColumn id="7" xr3:uid="{74AAFDFC-BD4D-486D-AAA8-27D289481B92}" name="Epoch UndergoFT" dataDxfId="91" dataCellStyle="Percent"/>
+    <tableColumn id="9" xr3:uid="{43302B6C-0A80-40E6-B114-66E468306993}" name="Loss1" dataDxfId="90" dataCellStyle="Percent"/>
+    <tableColumn id="3" xr3:uid="{26356F77-460D-416A-99B3-BBF85C9DC69C}" name="Accuracy1" dataDxfId="89"/>
+    <tableColumn id="10" xr3:uid="{33DD8E20-21E9-42DB-A9ED-2EB6254B6694}" name="Loss2" dataDxfId="88"/>
+    <tableColumn id="11" xr3:uid="{6829DF2F-21F4-45FB-AA73-F683252A3142}" name="Accuracy2" dataDxfId="87"/>
+    <tableColumn id="12" xr3:uid="{5F661F4D-678B-4020-A679-2664CA8B6202}" name="Loss3" dataDxfId="86"/>
+    <tableColumn id="13" xr3:uid="{C3FA50CB-D03F-46D8-8412-C9DB34573DBE}" name="Accuracy3" dataDxfId="85"/>
+    <tableColumn id="14" xr3:uid="{8A397EB8-90C6-4673-BA0C-2881AB360A11}" name="Average Loss" dataDxfId="84">
       <calculatedColumnFormula>SUM(Table42[[#This Row],[Loss1]],Table42[[#This Row],[Loss2]],Table42[[#This Row],[Loss3]])/3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{38831F4B-7CB6-47D1-8189-BC480F70AD1C}" name="Average Accuracy" dataDxfId="18">
+    <tableColumn id="15" xr3:uid="{38831F4B-7CB6-47D1-8189-BC480F70AD1C}" name="Average Accuracy" dataDxfId="83">
       <calculatedColumnFormula>SUM(Table42[[#This Row],[Accuracy1]],Table42[[#This Row],[Accuracy2]],Table42[[#This Row],[Accuracy3]])/3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{2104EC55-481A-4232-AE55-D62BBCD49840}" name="Correct Predictions (Out of 59)" dataDxfId="17" dataCellStyle="Percent">
+    <tableColumn id="8" xr3:uid="{2104EC55-481A-4232-AE55-D62BBCD49840}" name="Correct Predictions (Out of 59)" dataDxfId="82" dataCellStyle="Percent">
       <calculatedColumnFormula>59*Table42[[#This Row],[Accuracy1]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2879,22 +3838,22 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{81E28367-2AA6-4DC8-ABBD-1124D9E224C3}" name="Table2" displayName="Table2" ref="B31:N58" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{81E28367-2AA6-4DC8-ABBD-1124D9E224C3}" name="Table2" displayName="Table2" ref="B31:N58" totalsRowShown="0" headerRowDxfId="81" dataDxfId="79" headerRowBorderDxfId="80" tableBorderDxfId="78">
   <autoFilter ref="B31:N58" xr:uid="{81E28367-2AA6-4DC8-ABBD-1124D9E224C3}"/>
   <tableColumns count="13">
-    <tableColumn id="18" xr3:uid="{15CAC9F2-A9AE-4DF9-9463-27879ABEF874}" name="S/N" dataDxfId="2"/>
-    <tableColumn id="20" xr3:uid="{8751364B-A1F1-4231-839D-41D6BB3744A9}" name="Learning Rate Category" dataDxfId="0"/>
-    <tableColumn id="17" xr3:uid="{88D66E1E-4B55-479B-8E01-B940A81D996D}" name="Group" dataDxfId="1"/>
-    <tableColumn id="19" xr3:uid="{C29B4EA7-872E-4985-985F-D1263991876A}" name="Attempt" dataDxfId="12"/>
-    <tableColumn id="1" xr3:uid="{74E818B4-0889-4479-B54B-2EB291E76806}" name="Feature Extraction" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{E88A4247-AE56-4CAC-ADE1-2DC704DFF04C}" name="Fine Tuning" dataDxfId="10" dataCellStyle="Percent"/>
-    <tableColumn id="3" xr3:uid="{2D1A8174-0CF5-49BA-A3D3-35867E5CEF7A}" name="Epoch Set" dataDxfId="9" dataCellStyle="Percent"/>
-    <tableColumn id="4" xr3:uid="{B2813A48-925E-4FF2-9D9E-34A17D47193E}" name="Epoch Undergo" dataDxfId="8" dataCellStyle="Percent"/>
-    <tableColumn id="5" xr3:uid="{2B60C0D8-8FA3-49FB-BBB4-167EEE24539A}" name="Epoch SetFT" dataDxfId="7" dataCellStyle="Percent"/>
-    <tableColumn id="6" xr3:uid="{E9B28B45-1179-4DAB-BC0E-B365B8833F0E}" name="Epoch UndergoFT" dataDxfId="6" dataCellStyle="Percent"/>
-    <tableColumn id="7" xr3:uid="{2754ABEE-B570-4C31-9C72-7C21A1F82BA4}" name="Loss" dataDxfId="5" dataCellStyle="Percent"/>
-    <tableColumn id="8" xr3:uid="{2913B544-8DB0-45C7-9420-367138A8248F}" name="Accuracy" dataDxfId="4"/>
-    <tableColumn id="15" xr3:uid="{F30FA38B-490A-4BE9-8DB2-AD16F3E68C1C}" name="Correct Predictions (Out of 59)" dataDxfId="3" dataCellStyle="Percent">
+    <tableColumn id="18" xr3:uid="{15CAC9F2-A9AE-4DF9-9463-27879ABEF874}" name="S/N" dataDxfId="77"/>
+    <tableColumn id="20" xr3:uid="{8751364B-A1F1-4231-839D-41D6BB3744A9}" name="Learning Rate Category" dataDxfId="76"/>
+    <tableColumn id="17" xr3:uid="{88D66E1E-4B55-479B-8E01-B940A81D996D}" name="Group" dataDxfId="75"/>
+    <tableColumn id="19" xr3:uid="{C29B4EA7-872E-4985-985F-D1263991876A}" name="Attempt" dataDxfId="74"/>
+    <tableColumn id="1" xr3:uid="{74E818B4-0889-4479-B54B-2EB291E76806}" name="Feature Extraction" dataDxfId="73"/>
+    <tableColumn id="2" xr3:uid="{E88A4247-AE56-4CAC-ADE1-2DC704DFF04C}" name="Fine Tuning" dataDxfId="72" dataCellStyle="Percent"/>
+    <tableColumn id="3" xr3:uid="{2D1A8174-0CF5-49BA-A3D3-35867E5CEF7A}" name="Epoch Set" dataDxfId="71" dataCellStyle="Percent"/>
+    <tableColumn id="4" xr3:uid="{B2813A48-925E-4FF2-9D9E-34A17D47193E}" name="Epoch Undergo" dataDxfId="70" dataCellStyle="Percent"/>
+    <tableColumn id="5" xr3:uid="{2B60C0D8-8FA3-49FB-BBB4-167EEE24539A}" name="Epoch SetFT" dataDxfId="69" dataCellStyle="Percent"/>
+    <tableColumn id="6" xr3:uid="{E9B28B45-1179-4DAB-BC0E-B365B8833F0E}" name="Epoch UndergoFT" dataDxfId="68" dataCellStyle="Percent"/>
+    <tableColumn id="7" xr3:uid="{2754ABEE-B570-4C31-9C72-7C21A1F82BA4}" name="Loss" dataDxfId="67" dataCellStyle="Percent"/>
+    <tableColumn id="8" xr3:uid="{2913B544-8DB0-45C7-9420-367138A8248F}" name="Accuracy" dataDxfId="66"/>
+    <tableColumn id="15" xr3:uid="{F30FA38B-490A-4BE9-8DB2-AD16F3E68C1C}" name="Correct Predictions (Out of 59)" dataDxfId="65" dataCellStyle="Percent">
       <calculatedColumnFormula>59*Table2[[#This Row],[Accuracy]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3202,21 +4161,16 @@
   <dimension ref="B2:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.77734375" customWidth="1"/>
     <col min="2" max="2" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="10.77734375" customWidth="1"/>
+    <col min="9" max="9" width="10.5546875" customWidth="1"/>
+    <col min="10" max="10" width="8" customWidth="1"/>
     <col min="11" max="11" width="7.33203125" customWidth="1"/>
     <col min="12" max="12" width="20.88671875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16.6640625" bestFit="1" customWidth="1"/>
@@ -3308,88 +4262,90 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C5" s="33">
+    <row r="5" spans="2:10" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="32">
         <v>1</v>
       </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="36">
+      <c r="D5" s="32"/>
+      <c r="E5" s="33">
         <v>2</v>
       </c>
-      <c r="F5" s="36"/>
-      <c r="G5" s="39">
+      <c r="F5" s="33"/>
+      <c r="G5" s="34">
         <v>3</v>
       </c>
-      <c r="H5" s="39"/>
-      <c r="I5" t="s">
+      <c r="H5" s="34"/>
+      <c r="I5" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="51" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="33" t="s">
+      <c r="D6" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="36" t="s">
+      <c r="E6" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="36" t="s">
+      <c r="F6" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="39" t="s">
+      <c r="G6" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="39" t="s">
+      <c r="H6" s="43" t="s">
         <v>29</v>
       </c>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="29">
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="30">
         <v>7.9999999999999996E-6</v>
       </c>
-      <c r="C8" s="35">
+      <c r="C8" s="48">
         <v>0.89829999999999999</v>
       </c>
-      <c r="D8" s="35">
+      <c r="D8" s="53">
         <v>0.35570000000000002</v>
       </c>
-      <c r="E8" s="38">
+      <c r="E8" s="49">
         <v>0.89829999999999999</v>
       </c>
-      <c r="F8" s="38">
+      <c r="F8" s="55">
         <v>0.2923</v>
       </c>
-      <c r="G8" s="41">
+      <c r="G8" s="50">
         <v>0.86439999999999995</v>
       </c>
-      <c r="H8" s="41">
+      <c r="H8" s="57">
         <v>0.32619999999999999</v>
       </c>
-      <c r="I8" s="31">
+      <c r="I8" s="47">
         <v>0.88700000000000001</v>
       </c>
-      <c r="J8" s="31">
+      <c r="J8" s="59">
         <v>0.32473333333333332</v>
       </c>
     </row>
@@ -3397,41 +4353,41 @@
       <c r="B9" s="29">
         <v>9.0000000000000006E-5</v>
       </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="59"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="30">
         <v>7.9999999999999996E-6</v>
       </c>
-      <c r="C10" s="35">
+      <c r="C10" s="48">
         <v>0.88139999999999996</v>
       </c>
-      <c r="D10" s="35">
+      <c r="D10" s="53">
         <v>0.31280000000000002</v>
       </c>
-      <c r="E10" s="38">
+      <c r="E10" s="49">
         <v>0.88139999999999996</v>
       </c>
-      <c r="F10" s="38">
+      <c r="F10" s="55">
         <v>0.32579999999999998</v>
       </c>
-      <c r="G10" s="41">
+      <c r="G10" s="50">
         <v>0.9153</v>
       </c>
-      <c r="H10" s="41">
+      <c r="H10" s="57">
         <v>0.34310000000000002</v>
       </c>
-      <c r="I10" s="31">
+      <c r="I10" s="47">
         <v>0.89269999999999994</v>
       </c>
-      <c r="J10" s="31">
+      <c r="J10" s="59">
         <v>0.32723333333333332</v>
       </c>
     </row>
@@ -3439,41 +4395,41 @@
       <c r="B11" s="29">
         <v>1E-4</v>
       </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="59"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="30">
         <v>7.9999999999999996E-6</v>
       </c>
-      <c r="C12" s="35">
+      <c r="C12" s="48">
         <v>0.88139999999999996</v>
       </c>
-      <c r="D12" s="35">
+      <c r="D12" s="53">
         <v>0.34820000000000001</v>
       </c>
-      <c r="E12" s="38">
+      <c r="E12" s="49">
         <v>0.88139999999999996</v>
       </c>
-      <c r="F12" s="38">
+      <c r="F12" s="55">
         <v>0.33729999999999999</v>
       </c>
-      <c r="G12" s="41">
+      <c r="G12" s="50">
         <v>0.88139999999999996</v>
       </c>
-      <c r="H12" s="41">
+      <c r="H12" s="57">
         <v>0.3115</v>
       </c>
-      <c r="I12" s="31">
+      <c r="I12" s="47">
         <v>0.88139999999999985</v>
       </c>
-      <c r="J12" s="31">
+      <c r="J12" s="59">
         <v>0.33233333333333331</v>
       </c>
     </row>
@@ -3481,28 +4437,28 @@
       <c r="B13" s="30">
         <v>9.0000000000000002E-6</v>
       </c>
-      <c r="C13" s="35">
+      <c r="C13" s="48">
         <v>0.84750000000000003</v>
       </c>
-      <c r="D13" s="35">
+      <c r="D13" s="53">
         <v>0.3276</v>
       </c>
-      <c r="E13" s="38">
+      <c r="E13" s="49">
         <v>0.89829999999999999</v>
       </c>
-      <c r="F13" s="38">
+      <c r="F13" s="55">
         <v>0.34</v>
       </c>
-      <c r="G13" s="41">
+      <c r="G13" s="50">
         <v>0.88139999999999996</v>
       </c>
-      <c r="H13" s="41">
+      <c r="H13" s="57">
         <v>0.28820000000000001</v>
       </c>
-      <c r="I13" s="31">
+      <c r="I13" s="47">
         <v>0.87573333333333336</v>
       </c>
-      <c r="J13" s="31">
+      <c r="J13" s="59">
         <v>0.31859999999999999</v>
       </c>
     </row>
@@ -3510,28 +4466,28 @@
       <c r="B14" s="30">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="C14" s="35">
+      <c r="C14" s="48">
         <v>0.83099999999999996</v>
       </c>
-      <c r="D14" s="35">
+      <c r="D14" s="53">
         <v>0.318</v>
       </c>
-      <c r="E14" s="38">
+      <c r="E14" s="49">
         <v>0.86439999999999995</v>
       </c>
-      <c r="F14" s="38">
+      <c r="F14" s="55">
         <v>0.36280000000000001</v>
       </c>
-      <c r="G14" s="41">
+      <c r="G14" s="50">
         <v>0.86439999999999995</v>
       </c>
-      <c r="H14" s="41">
+      <c r="H14" s="57">
         <v>0.29389999999999999</v>
       </c>
-      <c r="I14" s="31">
+      <c r="I14" s="47">
         <v>0.85326666666666651</v>
       </c>
-      <c r="J14" s="31">
+      <c r="J14" s="59">
         <v>0.32490000000000002</v>
       </c>
     </row>
@@ -3539,28 +4495,28 @@
       <c r="B15" s="30">
         <v>1.1E-5</v>
       </c>
-      <c r="C15" s="35">
+      <c r="C15" s="48">
         <v>0.81359999999999999</v>
       </c>
-      <c r="D15" s="35">
+      <c r="D15" s="53">
         <v>0.28499999999999998</v>
       </c>
-      <c r="E15" s="38">
+      <c r="E15" s="49">
         <v>0.86439999999999995</v>
       </c>
-      <c r="F15" s="38">
+      <c r="F15" s="55">
         <v>0.28220000000000001</v>
       </c>
-      <c r="G15" s="41">
+      <c r="G15" s="50">
         <v>0.89829999999999999</v>
       </c>
-      <c r="H15" s="41">
+      <c r="H15" s="57">
         <v>0.2928</v>
       </c>
-      <c r="I15" s="31">
+      <c r="I15" s="47">
         <v>0.85876666666666657</v>
       </c>
-      <c r="J15" s="31">
+      <c r="J15" s="59">
         <v>0.28666666666666663</v>
       </c>
     </row>
@@ -3568,28 +4524,28 @@
       <c r="B16" s="30">
         <v>1.2E-5</v>
       </c>
-      <c r="C16" s="35">
+      <c r="C16" s="48">
         <v>0.88139999999999996</v>
       </c>
-      <c r="D16" s="35">
+      <c r="D16" s="53">
         <v>0.27060000000000001</v>
       </c>
-      <c r="E16" s="38">
+      <c r="E16" s="49">
         <v>0.86439999999999995</v>
       </c>
-      <c r="F16" s="38">
+      <c r="F16" s="55">
         <v>0.33379999999999999</v>
       </c>
-      <c r="G16" s="41">
+      <c r="G16" s="50">
         <v>0.88139999999999996</v>
       </c>
-      <c r="H16" s="41">
+      <c r="H16" s="57">
         <v>0.31330000000000002</v>
       </c>
-      <c r="I16" s="31">
+      <c r="I16" s="47">
         <v>0.87573333333333336</v>
       </c>
-      <c r="J16" s="31">
+      <c r="J16" s="59">
         <v>0.30590000000000001</v>
       </c>
     </row>
@@ -3597,41 +4553,41 @@
       <c r="B17" s="29">
         <v>1.1E-4</v>
       </c>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="59"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" s="30">
         <v>7.9999999999999996E-6</v>
       </c>
-      <c r="C18" s="35">
+      <c r="C18" s="48">
         <v>0.81359999999999999</v>
       </c>
-      <c r="D18" s="35">
+      <c r="D18" s="53">
         <v>0.3266</v>
       </c>
-      <c r="E18" s="38">
+      <c r="E18" s="49">
         <v>0.83050000000000002</v>
       </c>
-      <c r="F18" s="38">
+      <c r="F18" s="55">
         <v>0.36230000000000001</v>
       </c>
-      <c r="G18" s="41">
+      <c r="G18" s="50">
         <v>0.83050000000000002</v>
       </c>
-      <c r="H18" s="41">
+      <c r="H18" s="57">
         <v>0.33050000000000002</v>
       </c>
-      <c r="I18" s="31">
+      <c r="I18" s="47">
         <v>0.82486666666666653</v>
       </c>
-      <c r="J18" s="31">
+      <c r="J18" s="59">
         <v>0.33980000000000005</v>
       </c>
     </row>
@@ -3639,46 +4595,47 @@
       <c r="B19" s="29">
         <v>1.2E-4</v>
       </c>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="59"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20" s="30">
         <v>7.9999999999999996E-6</v>
       </c>
-      <c r="C20" s="35">
+      <c r="C20" s="48">
         <v>0.89829999999999999</v>
       </c>
-      <c r="D20" s="35">
+      <c r="D20" s="53">
         <v>0.31469999999999998</v>
       </c>
-      <c r="E20" s="38">
+      <c r="E20" s="49">
         <v>0.9153</v>
       </c>
-      <c r="F20" s="38">
+      <c r="F20" s="55">
         <v>0.26700000000000002</v>
       </c>
-      <c r="G20" s="41">
+      <c r="G20" s="50">
         <v>0.88139999999999996</v>
       </c>
-      <c r="H20" s="41">
+      <c r="H20" s="57">
         <v>0.28820000000000001</v>
       </c>
-      <c r="I20" s="31">
+      <c r="I20" s="52">
         <v>0.89833333333333343</v>
       </c>
-      <c r="J20" s="31">
+      <c r="J20" s="60">
         <v>0.28996666666666665</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3708,31 +4665,31 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
     </row>
     <row r="3" spans="2:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="43" t="s">
+      <c r="C3" s="37"/>
+      <c r="D3" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="43"/>
-      <c r="F3" s="44" t="s">
+      <c r="E3" s="38"/>
+      <c r="F3" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="44"/>
+      <c r="G3" s="39"/>
     </row>
     <row r="4" spans="2:10" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B4" s="12" t="s">
@@ -4078,18 +5035,18 @@
       <c r="C15" s="1"/>
     </row>
     <row r="16" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="43" t="s">
+      <c r="C16" s="37"/>
+      <c r="D16" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="43"/>
-      <c r="F16" s="44" t="s">
+      <c r="E16" s="38"/>
+      <c r="F16" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="G16" s="44"/>
+      <c r="G16" s="39"/>
     </row>
     <row r="17" spans="2:16" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B17" s="12" t="s">
@@ -4593,16 +5550,16 @@
       </c>
     </row>
     <row r="32" spans="2:16" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="32">
+      <c r="B32" s="31">
         <v>1</v>
       </c>
-      <c r="C32" s="46" t="s">
+      <c r="C32" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="32">
+      <c r="D32" s="31">
         <v>1</v>
       </c>
-      <c r="E32" s="32">
+      <c r="E32" s="31">
         <v>1</v>
       </c>
       <c r="F32" s="18">
@@ -4635,16 +5592,16 @@
       </c>
     </row>
     <row r="33" spans="2:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="32">
+      <c r="B33" s="31">
         <v>2</v>
       </c>
-      <c r="C33" s="46" t="s">
+      <c r="C33" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="D33" s="32">
+      <c r="D33" s="31">
         <v>1</v>
       </c>
-      <c r="E33" s="32">
+      <c r="E33" s="31">
         <v>2</v>
       </c>
       <c r="F33" s="18">
@@ -4677,16 +5634,16 @@
       </c>
     </row>
     <row r="34" spans="2:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="32">
+      <c r="B34" s="31">
         <v>3</v>
       </c>
-      <c r="C34" s="46" t="s">
+      <c r="C34" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="D34" s="32">
+      <c r="D34" s="31">
         <v>1</v>
       </c>
-      <c r="E34" s="32">
+      <c r="E34" s="31">
         <v>3</v>
       </c>
       <c r="F34" s="18">
@@ -4719,16 +5676,16 @@
       </c>
     </row>
     <row r="35" spans="2:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="32">
+      <c r="B35" s="31">
         <v>4</v>
       </c>
-      <c r="C35" s="46" t="s">
+      <c r="C35" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="32">
+      <c r="D35" s="31">
         <v>2</v>
       </c>
-      <c r="E35" s="32">
+      <c r="E35" s="31">
         <v>1</v>
       </c>
       <c r="F35" s="18">
@@ -4761,16 +5718,16 @@
       </c>
     </row>
     <row r="36" spans="2:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="32">
+      <c r="B36" s="31">
         <v>5</v>
       </c>
-      <c r="C36" s="46" t="s">
+      <c r="C36" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="D36" s="32">
+      <c r="D36" s="31">
         <v>2</v>
       </c>
-      <c r="E36" s="32">
+      <c r="E36" s="31">
         <v>2</v>
       </c>
       <c r="F36" s="18">
@@ -4803,16 +5760,16 @@
       </c>
     </row>
     <row r="37" spans="2:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="32">
+      <c r="B37" s="31">
         <v>6</v>
       </c>
-      <c r="C37" s="46" t="s">
+      <c r="C37" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="D37" s="32">
+      <c r="D37" s="31">
         <v>2</v>
       </c>
-      <c r="E37" s="32">
+      <c r="E37" s="31">
         <v>3</v>
       </c>
       <c r="F37" s="18">
@@ -4845,16 +5802,16 @@
       </c>
     </row>
     <row r="38" spans="2:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="32">
+      <c r="B38" s="31">
         <v>7</v>
       </c>
-      <c r="C38" s="46" t="s">
+      <c r="C38" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D38" s="32">
+      <c r="D38" s="31">
         <v>3</v>
       </c>
-      <c r="E38" s="32">
+      <c r="E38" s="31">
         <v>1</v>
       </c>
       <c r="F38" s="18">
@@ -4887,16 +5844,16 @@
       </c>
     </row>
     <row r="39" spans="2:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="32">
+      <c r="B39" s="31">
         <v>8</v>
       </c>
-      <c r="C39" s="46" t="s">
+      <c r="C39" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D39" s="32">
+      <c r="D39" s="31">
         <v>3</v>
       </c>
-      <c r="E39" s="32">
+      <c r="E39" s="31">
         <v>2</v>
       </c>
       <c r="F39" s="18">
@@ -4929,16 +5886,16 @@
       </c>
     </row>
     <row r="40" spans="2:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="32">
+      <c r="B40" s="31">
         <v>9</v>
       </c>
-      <c r="C40" s="46" t="s">
+      <c r="C40" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D40" s="32">
+      <c r="D40" s="31">
         <v>3</v>
       </c>
-      <c r="E40" s="32">
+      <c r="E40" s="31">
         <v>3</v>
       </c>
       <c r="F40" s="18">
@@ -4971,16 +5928,16 @@
       </c>
     </row>
     <row r="41" spans="2:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="32">
+      <c r="B41" s="31">
         <v>10</v>
       </c>
-      <c r="C41" s="46" t="s">
+      <c r="C41" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D41" s="32">
+      <c r="D41" s="31">
         <v>4</v>
       </c>
-      <c r="E41" s="32">
+      <c r="E41" s="31">
         <v>1</v>
       </c>
       <c r="F41" s="18">
@@ -5013,16 +5970,16 @@
       </c>
     </row>
     <row r="42" spans="2:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="32">
+      <c r="B42" s="31">
         <v>11</v>
       </c>
-      <c r="C42" s="46" t="s">
+      <c r="C42" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D42" s="32">
+      <c r="D42" s="31">
         <v>4</v>
       </c>
-      <c r="E42" s="32">
+      <c r="E42" s="31">
         <v>2</v>
       </c>
       <c r="F42" s="18">
@@ -5055,16 +6012,16 @@
       </c>
     </row>
     <row r="43" spans="2:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="32">
+      <c r="B43" s="31">
         <v>12</v>
       </c>
-      <c r="C43" s="46" t="s">
+      <c r="C43" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="32">
+      <c r="D43" s="31">
         <v>4</v>
       </c>
-      <c r="E43" s="32">
+      <c r="E43" s="31">
         <v>3</v>
       </c>
       <c r="F43" s="18">
@@ -5097,16 +6054,16 @@
       </c>
     </row>
     <row r="44" spans="2:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="32">
+      <c r="B44" s="31">
         <v>13</v>
       </c>
-      <c r="C44" s="46" t="s">
+      <c r="C44" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D44" s="32">
+      <c r="D44" s="31">
         <v>5</v>
       </c>
-      <c r="E44" s="32">
+      <c r="E44" s="31">
         <v>1</v>
       </c>
       <c r="F44" s="18">
@@ -5140,16 +6097,16 @@
       </c>
     </row>
     <row r="45" spans="2:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="32">
+      <c r="B45" s="31">
         <v>14</v>
       </c>
-      <c r="C45" s="46" t="s">
+      <c r="C45" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D45" s="32">
+      <c r="D45" s="31">
         <v>5</v>
       </c>
-      <c r="E45" s="32">
+      <c r="E45" s="31">
         <v>2</v>
       </c>
       <c r="F45" s="18">
@@ -5183,16 +6140,16 @@
       </c>
     </row>
     <row r="46" spans="2:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="32">
+      <c r="B46" s="31">
         <v>15</v>
       </c>
-      <c r="C46" s="46" t="s">
+      <c r="C46" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D46" s="32">
+      <c r="D46" s="31">
         <v>5</v>
       </c>
-      <c r="E46" s="32">
+      <c r="E46" s="31">
         <v>3</v>
       </c>
       <c r="F46" s="18">
@@ -5226,16 +6183,16 @@
       </c>
     </row>
     <row r="47" spans="2:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="32">
+      <c r="B47" s="31">
         <v>16</v>
       </c>
-      <c r="C47" s="46" t="s">
+      <c r="C47" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D47" s="32">
+      <c r="D47" s="31">
         <v>6</v>
       </c>
-      <c r="E47" s="32">
+      <c r="E47" s="31">
         <v>1</v>
       </c>
       <c r="F47" s="18">
@@ -5268,16 +6225,16 @@
       </c>
     </row>
     <row r="48" spans="2:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="32">
+      <c r="B48" s="31">
         <v>17</v>
       </c>
-      <c r="C48" s="46" t="s">
+      <c r="C48" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D48" s="32">
+      <c r="D48" s="31">
         <v>6</v>
       </c>
-      <c r="E48" s="32">
+      <c r="E48" s="31">
         <v>2</v>
       </c>
       <c r="F48" s="18">
@@ -5310,16 +6267,16 @@
       </c>
     </row>
     <row r="49" spans="2:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="32">
+      <c r="B49" s="31">
         <v>18</v>
       </c>
-      <c r="C49" s="46" t="s">
+      <c r="C49" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D49" s="32">
+      <c r="D49" s="31">
         <v>6</v>
       </c>
-      <c r="E49" s="32">
+      <c r="E49" s="31">
         <v>3</v>
       </c>
       <c r="F49" s="18">
@@ -5352,16 +6309,16 @@
       </c>
     </row>
     <row r="50" spans="2:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="32">
+      <c r="B50" s="31">
         <v>19</v>
       </c>
-      <c r="C50" s="46" t="s">
+      <c r="C50" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D50" s="32">
+      <c r="D50" s="31">
         <v>7</v>
       </c>
-      <c r="E50" s="32">
+      <c r="E50" s="31">
         <v>1</v>
       </c>
       <c r="F50" s="18">
@@ -5394,16 +6351,16 @@
       </c>
     </row>
     <row r="51" spans="2:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="32">
+      <c r="B51" s="31">
         <v>20</v>
       </c>
-      <c r="C51" s="46" t="s">
+      <c r="C51" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D51" s="32">
+      <c r="D51" s="31">
         <v>7</v>
       </c>
-      <c r="E51" s="32">
+      <c r="E51" s="31">
         <v>2</v>
       </c>
       <c r="F51" s="18">
@@ -5436,16 +6393,16 @@
       </c>
     </row>
     <row r="52" spans="2:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="32">
+      <c r="B52" s="31">
         <v>21</v>
       </c>
-      <c r="C52" s="46" t="s">
+      <c r="C52" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D52" s="32">
+      <c r="D52" s="31">
         <v>7</v>
       </c>
-      <c r="E52" s="32">
+      <c r="E52" s="31">
         <v>3</v>
       </c>
       <c r="F52" s="18">
@@ -5478,16 +6435,16 @@
       </c>
     </row>
     <row r="53" spans="2:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="32">
+      <c r="B53" s="31">
         <v>22</v>
       </c>
-      <c r="C53" s="46" t="s">
+      <c r="C53" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="D53" s="32">
+      <c r="D53" s="31">
         <v>8</v>
       </c>
-      <c r="E53" s="32">
+      <c r="E53" s="31">
         <v>1</v>
       </c>
       <c r="F53" s="18">
@@ -5520,16 +6477,16 @@
       </c>
     </row>
     <row r="54" spans="2:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="32">
+      <c r="B54" s="31">
         <v>23</v>
       </c>
-      <c r="C54" s="46" t="s">
+      <c r="C54" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="D54" s="32">
+      <c r="D54" s="31">
         <v>8</v>
       </c>
-      <c r="E54" s="32">
+      <c r="E54" s="31">
         <v>2</v>
       </c>
       <c r="F54" s="18">
@@ -5562,16 +6519,16 @@
       </c>
     </row>
     <row r="55" spans="2:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="32">
+      <c r="B55" s="31">
         <v>24</v>
       </c>
-      <c r="C55" s="46" t="s">
+      <c r="C55" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="D55" s="32">
+      <c r="D55" s="31">
         <v>8</v>
       </c>
-      <c r="E55" s="32">
+      <c r="E55" s="31">
         <v>3</v>
       </c>
       <c r="F55" s="18">
@@ -5604,16 +6561,16 @@
       </c>
     </row>
     <row r="56" spans="2:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="32">
+      <c r="B56" s="31">
         <v>25</v>
       </c>
-      <c r="C56" s="46" t="s">
+      <c r="C56" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="D56" s="32">
+      <c r="D56" s="31">
         <v>9</v>
       </c>
-      <c r="E56" s="32">
+      <c r="E56" s="31">
         <v>1</v>
       </c>
       <c r="F56" s="18">
@@ -5646,16 +6603,16 @@
       </c>
     </row>
     <row r="57" spans="2:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="32">
+      <c r="B57" s="31">
         <v>26</v>
       </c>
-      <c r="C57" s="46" t="s">
+      <c r="C57" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="D57" s="32">
+      <c r="D57" s="31">
         <v>9</v>
       </c>
-      <c r="E57" s="32">
+      <c r="E57" s="31">
         <v>2</v>
       </c>
       <c r="F57" s="18">
@@ -5688,16 +6645,16 @@
       </c>
     </row>
     <row r="58" spans="2:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="32">
+      <c r="B58" s="31">
         <v>27</v>
       </c>
-      <c r="C58" s="46" t="s">
+      <c r="C58" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="D58" s="32">
+      <c r="D58" s="31">
         <v>9</v>
       </c>
-      <c r="E58" s="32">
+      <c r="E58" s="31">
         <v>3</v>
       </c>
       <c r="F58" s="18">

--- a/Learning Rates.xlsx
+++ b/Learning Rates.xlsx
@@ -8,19 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\65860\Desktop\SoftwareEngineering\Year2\ITP\Project\Traffic_ML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B145E1BE-4729-46BB-8EBD-70ECE1E63A3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACEA1FB2-7A16-44CE-96E0-BD1D8AA0CA0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F5510DF6-6AEA-43BD-A05A-616AF09602DE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{F5510DF6-6AEA-43BD-A05A-616AF09602DE}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="3" r:id="rId1"/>
-    <sheet name="Learning Rates Comparison" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId4"/>
+    <sheet name="Learning Rates Comparison" sheetId="1" r:id="rId1"/>
+    <sheet name="PivotTable" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -151,7 +149,7 @@
     <numFmt numFmtId="164" formatCode="0.000%"/>
     <numFmt numFmtId="165" formatCode="0.0000%"/>
     <numFmt numFmtId="166" formatCode="0.00000%"/>
-    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -256,7 +254,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -302,7 +300,6 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -352,18 +349,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -400,28 +385,40 @@
     <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -429,204 +426,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="139">
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
+  <dxfs count="122">
     <dxf>
       <font>
         <b val="0"/>
@@ -1440,6 +1240,152 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
       <font>
         <color auto="1"/>
       </font>
@@ -1605,451 +1551,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>320040</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>358140</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>59436</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA5EA7D5-26CD-122C-E32F-775C0095D195}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1280160" y="0"/>
-          <a:ext cx="3086100" cy="1522476"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>297181</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>121921</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>371675</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73C39BE0-3192-976F-1DD5-D6D6D6A7872B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1257301" y="1767841"/>
-          <a:ext cx="3122494" cy="1615439"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>327661</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>482627</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>83821</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85378D22-0AA5-396A-D2DC-B70E10B20E4B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1287781" y="3992881"/>
-          <a:ext cx="3202966" cy="1577340"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>320040</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>470088</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52F470D6-BB9C-DDC7-7CED-3CD57E77C1A4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1280160" y="5768340"/>
-          <a:ext cx="3198048" cy="1668780"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>83821</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>428687</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84938E6E-F48A-421F-4A75-206DF1535615}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1303020" y="7947661"/>
-          <a:ext cx="3133787" cy="1577339"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>335281</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>582545</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBF67014-A284-A83D-CF15-0BDF23BB8C4C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1295401" y="9707880"/>
-          <a:ext cx="3295264" cy="1729740"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>490050</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDB3701A-6D16-B8DB-E416-9DBA3569EFBE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1455420" y="11818621"/>
-          <a:ext cx="3042750" cy="1531620"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>574289</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{213FD017-0390-1A75-1363-CD9183CC5338}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1455420" y="13487400"/>
-          <a:ext cx="3126989" cy="1668780"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>510540</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>99060</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4ADEA2B0-4E09-7F1A-A7DE-1995D7E1B0D7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1470660" y="15521940"/>
-          <a:ext cx="3246120" cy="1623060"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>525781</xdr:colOff>
-      <xdr:row>95</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>89917</xdr:colOff>
-      <xdr:row>104</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Picture 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37067D26-52C0-83F9-CFEC-CE32CC716AB3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1485901" y="17457420"/>
-          <a:ext cx="3221736" cy="1706880"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2669,7 +2170,7 @@
     <dataField name="Loss Average" fld="10" subtotal="average" baseField="4" baseItem="0" numFmtId="10"/>
   </dataFields>
   <formats count="77">
-    <format dxfId="138">
+    <format dxfId="121">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4" count="1">
@@ -2678,7 +2179,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="137">
+    <format dxfId="120">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4" count="1">
@@ -2687,7 +2188,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="136">
+    <format dxfId="119">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -2696,7 +2197,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="135">
+    <format dxfId="118">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4" count="2">
@@ -2709,7 +2210,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="134">
+    <format dxfId="117">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4" count="1">
@@ -2721,7 +2222,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="133">
+    <format dxfId="116">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="1">
@@ -2730,7 +2231,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="132">
+    <format dxfId="115">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="1">
@@ -2739,7 +2240,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="131">
+    <format dxfId="114">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="1">
@@ -2748,7 +2249,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="130">
+    <format dxfId="113">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="1">
@@ -2757,7 +2258,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="129">
+    <format dxfId="112">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4" count="1">
@@ -2769,7 +2270,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="128">
+    <format dxfId="111">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4" count="1">
@@ -2781,7 +2282,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="127">
+    <format dxfId="110">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4" count="1">
@@ -2793,7 +2294,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="126">
+    <format dxfId="109">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="1">
@@ -2802,7 +2303,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="125">
+    <format dxfId="108">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -2811,7 +2312,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="124">
+    <format dxfId="107">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="2" selected="0">
@@ -2824,7 +2325,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="123">
+    <format dxfId="106">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="1">
@@ -2833,7 +2334,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="122">
+    <format dxfId="105">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="2">
@@ -2846,7 +2347,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="121">
+    <format dxfId="104">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="2" selected="0">
@@ -2859,7 +2360,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="120">
+    <format dxfId="103">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="1">
@@ -2868,7 +2369,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="119">
+    <format dxfId="102">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="2">
@@ -2881,7 +2382,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="118">
+    <format dxfId="101">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="3" count="1">
@@ -2890,7 +2391,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="117">
+    <format dxfId="100">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="2">
@@ -2903,7 +2404,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="116">
+    <format dxfId="99">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="4294967294" count="2" selected="0">
@@ -2917,7 +2418,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="115">
+    <format dxfId="98">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="4294967294" count="2" selected="0">
@@ -2931,7 +2432,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="114">
+    <format dxfId="97">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="4294967294" count="2" selected="0">
@@ -2945,7 +2446,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="113">
+    <format dxfId="96">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="4294967294" count="2" selected="0">
@@ -2959,7 +2460,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="112">
+    <format dxfId="95">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="4294967294" count="2" selected="0">
@@ -2973,7 +2474,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="111">
+    <format dxfId="94">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -2982,7 +2483,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="110">
+    <format dxfId="93">
       <pivotArea field="3" grandCol="1" outline="0" collapsedLevelsAreSubtotals="1" axis="axisCol" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2" selected="0">
@@ -2992,7 +2493,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="64">
+    <format dxfId="92">
       <pivotArea field="3" dataOnly="0" labelOnly="1" grandCol="1" outline="0" axis="axisCol" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -3001,7 +2502,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="62">
+    <format dxfId="91">
       <pivotArea field="3" dataOnly="0" labelOnly="1" grandCol="1" outline="0" axis="axisCol" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -3010,7 +2511,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="60">
+    <format dxfId="90">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="2">
@@ -3023,7 +2524,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="59">
+    <format dxfId="89">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="2">
@@ -3036,7 +2537,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="58">
+    <format dxfId="88">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="2">
@@ -3049,10 +2550,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="57">
+    <format dxfId="87">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="54">
+    <format dxfId="86">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="2">
@@ -3065,7 +2566,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="53">
+    <format dxfId="85">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="2">
@@ -3078,7 +2579,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="52">
+    <format dxfId="84">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="2">
@@ -3091,7 +2592,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="49">
+    <format dxfId="83">
       <pivotArea field="3" dataOnly="0" labelOnly="1" grandCol="1" outline="0" axis="axisCol" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -3100,7 +2601,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="47">
+    <format dxfId="82">
       <pivotArea field="3" dataOnly="0" labelOnly="1" grandCol="1" outline="0" axis="axisCol" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -3109,7 +2610,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="45">
+    <format dxfId="81">
       <pivotArea field="5" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="1">
         <references count="3">
           <reference field="4294967294" count="2" selected="0">
@@ -3125,7 +2626,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="44">
+    <format dxfId="80">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="4">
           <reference field="4294967294" count="1" selected="0">
@@ -3143,7 +2644,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="42">
+    <format dxfId="79">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="4294967294" count="1" selected="0">
@@ -3158,7 +2659,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="40">
+    <format dxfId="78">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="4">
           <reference field="4294967294" count="1" selected="0">
@@ -3176,7 +2677,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="38">
+    <format dxfId="77">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="4294967294" count="1" selected="0">
@@ -3191,7 +2692,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="36">
+    <format dxfId="76">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="4">
           <reference field="4294967294" count="1" selected="0">
@@ -3207,7 +2708,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="34">
+    <format dxfId="75">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="4294967294" count="1" selected="0">
@@ -3222,7 +2723,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="32">
+    <format dxfId="74">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="4">
           <reference field="4294967294" count="1" selected="0">
@@ -3240,7 +2741,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="30">
+    <format dxfId="73">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="4294967294" count="1" selected="0">
@@ -3255,7 +2756,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="28">
+    <format dxfId="72">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="4">
           <reference field="4294967294" count="1" selected="0">
@@ -3273,7 +2774,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="26">
+    <format dxfId="71">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="4">
           <reference field="4294967294" count="1" selected="0">
@@ -3291,7 +2792,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="25">
+    <format dxfId="70">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="4294967294" count="1" selected="0">
@@ -3306,7 +2807,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="24">
+    <format dxfId="69">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="4">
           <reference field="4294967294" count="1" selected="0">
@@ -3324,7 +2825,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="23">
+    <format dxfId="68">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="4294967294" count="1" selected="0">
@@ -3339,7 +2840,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="22">
+    <format dxfId="67">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="4">
           <reference field="4294967294" count="1" selected="0">
@@ -3355,7 +2856,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="21">
+    <format dxfId="66">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="4294967294" count="1" selected="0">
@@ -3370,7 +2871,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="20">
+    <format dxfId="65">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="4">
           <reference field="4294967294" count="1" selected="0">
@@ -3388,7 +2889,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="19">
+    <format dxfId="64">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="4294967294" count="1" selected="0">
@@ -3403,7 +2904,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="18">
+    <format dxfId="63">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="4">
           <reference field="4294967294" count="1" selected="0">
@@ -3421,7 +2922,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="17">
+    <format dxfId="62">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="4">
           <reference field="4294967294" count="1" selected="0">
@@ -3439,7 +2940,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="16">
+    <format dxfId="61">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="4294967294" count="1" selected="0">
@@ -3454,7 +2955,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="15">
+    <format dxfId="60">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="4">
           <reference field="4294967294" count="1" selected="0">
@@ -3472,7 +2973,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="14">
+    <format dxfId="59">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="4294967294" count="1" selected="0">
@@ -3487,7 +2988,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="13">
+    <format dxfId="58">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="4">
           <reference field="4294967294" count="1" selected="0">
@@ -3503,7 +3004,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="12">
+    <format dxfId="57">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="4294967294" count="1" selected="0">
@@ -3518,7 +3019,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="11">
+    <format dxfId="56">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="4">
           <reference field="4294967294" count="1" selected="0">
@@ -3536,7 +3037,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="10">
+    <format dxfId="55">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="4294967294" count="1" selected="0">
@@ -3551,7 +3052,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="9">
+    <format dxfId="54">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="4">
           <reference field="4294967294" count="1" selected="0">
@@ -3569,7 +3070,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="8">
+    <format dxfId="53">
       <pivotArea field="5" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="1">
         <references count="3">
           <reference field="4294967294" count="1" selected="0">
@@ -3584,7 +3085,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="7">
+    <format dxfId="52">
       <pivotArea field="4" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -3596,7 +3097,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="6">
+    <format dxfId="51">
       <pivotArea field="5" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="1">
         <references count="3">
           <reference field="4294967294" count="1" selected="0">
@@ -3611,7 +3112,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="5">
+    <format dxfId="50">
       <pivotArea field="4" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -3623,7 +3124,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="4">
+    <format dxfId="49">
       <pivotArea field="5" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="1">
         <references count="3">
           <reference field="4294967294" count="1" selected="0">
@@ -3636,7 +3137,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="3">
+    <format dxfId="48">
       <pivotArea field="4" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -3648,7 +3149,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2">
+    <format dxfId="47">
       <pivotArea field="5" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="1">
         <references count="3">
           <reference field="4294967294" count="1" selected="0">
@@ -3663,7 +3164,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1">
+    <format dxfId="46">
       <pivotArea field="4" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -3675,7 +3176,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="0">
+    <format dxfId="45">
       <pivotArea field="5" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="1">
         <references count="3">
           <reference field="4294967294" count="1" selected="0">
@@ -3778,23 +3279,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{716538A6-ED17-40C4-B673-F6A22A5DF3AB}" name="Table4" displayName="Table4" ref="B4:J14" totalsRowShown="0" headerRowDxfId="109" dataDxfId="108">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{716538A6-ED17-40C4-B673-F6A22A5DF3AB}" name="Table4" displayName="Table4" ref="B4:J14" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
   <autoFilter ref="B4:J14" xr:uid="{716538A6-ED17-40C4-B673-F6A22A5DF3AB}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:J14">
     <sortCondition ref="B4:B14"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{6EA67E11-5EF1-4F64-8BF9-939BD93D1040}" name="Feature Extraction" dataDxfId="107"/>
-    <tableColumn id="2" xr3:uid="{22CDFD67-B970-45A7-87A1-66E85E671FF3}" name="Fine Tuning" dataDxfId="106" dataCellStyle="Percent">
+    <tableColumn id="1" xr3:uid="{6EA67E11-5EF1-4F64-8BF9-939BD93D1040}" name="Feature Extraction" dataDxfId="42"/>
+    <tableColumn id="2" xr3:uid="{22CDFD67-B970-45A7-87A1-66E85E671FF3}" name="Fine Tuning" dataDxfId="41" dataCellStyle="Percent">
       <calculatedColumnFormula>B5/10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{C25C17D1-21B9-4655-B69D-96CD06F9BA58}" name="Epoch Set" dataDxfId="105" dataCellStyle="Percent"/>
-    <tableColumn id="5" xr3:uid="{466B42DB-1E9E-4715-8191-AC1258ABD07E}" name="Epoch Undergo" dataDxfId="104" dataCellStyle="Percent"/>
-    <tableColumn id="6" xr3:uid="{78B26499-9791-444B-82E2-CC6BB1F58B87}" name="Epoch SetFT" dataDxfId="103" dataCellStyle="Percent"/>
-    <tableColumn id="7" xr3:uid="{6065AA55-BC9E-4401-BE42-91F91100B40D}" name="Epoch UndergoFT" dataDxfId="102" dataCellStyle="Percent"/>
-    <tableColumn id="9" xr3:uid="{0D9DEFB1-5291-4E76-8E60-33993FC8A74A}" name="Test Dataset Loss" dataDxfId="101" dataCellStyle="Percent"/>
-    <tableColumn id="3" xr3:uid="{A5FE943B-77B2-48AD-80B3-6ACCA0283617}" name="Test Dataset Accuracy" dataDxfId="100"/>
-    <tableColumn id="8" xr3:uid="{8585E09E-BE35-48A6-989E-910542286FC9}" name="Correct Predictions (Out of 59)" dataDxfId="99" dataCellStyle="Percent">
+    <tableColumn id="4" xr3:uid="{C25C17D1-21B9-4655-B69D-96CD06F9BA58}" name="Epoch Set" dataDxfId="40" dataCellStyle="Percent"/>
+    <tableColumn id="5" xr3:uid="{466B42DB-1E9E-4715-8191-AC1258ABD07E}" name="Epoch Undergo" dataDxfId="39" dataCellStyle="Percent"/>
+    <tableColumn id="6" xr3:uid="{78B26499-9791-444B-82E2-CC6BB1F58B87}" name="Epoch SetFT" dataDxfId="38" dataCellStyle="Percent"/>
+    <tableColumn id="7" xr3:uid="{6065AA55-BC9E-4401-BE42-91F91100B40D}" name="Epoch UndergoFT" dataDxfId="37" dataCellStyle="Percent"/>
+    <tableColumn id="9" xr3:uid="{0D9DEFB1-5291-4E76-8E60-33993FC8A74A}" name="Test Dataset Loss" dataDxfId="36" dataCellStyle="Percent"/>
+    <tableColumn id="3" xr3:uid="{A5FE943B-77B2-48AD-80B3-6ACCA0283617}" name="Test Dataset Accuracy" dataDxfId="35"/>
+    <tableColumn id="8" xr3:uid="{8585E09E-BE35-48A6-989E-910542286FC9}" name="Correct Predictions (Out of 59)" dataDxfId="34" dataCellStyle="Percent">
       <calculatedColumnFormula>59*Table4[[#This Row],[Test Dataset Accuracy]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3803,33 +3304,33 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7F2F301C-5A38-4540-B768-F8EE0DF5A255}" name="Table42" displayName="Table42" ref="B17:P27" totalsRowShown="0" headerRowDxfId="98" dataDxfId="97">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7F2F301C-5A38-4540-B768-F8EE0DF5A255}" name="Table42" displayName="Table42" ref="B17:P27" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
   <autoFilter ref="B17:P27" xr:uid="{7F2F301C-5A38-4540-B768-F8EE0DF5A255}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B18:P27">
     <sortCondition ref="B17:B27"/>
   </sortState>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{485E10B5-49B3-4B34-B2A8-8DB25F38CDCA}" name="Feature Extraction" dataDxfId="96"/>
-    <tableColumn id="2" xr3:uid="{4F0EFF3C-EFBD-4D81-AF1E-B70D89FE1140}" name="Fine Tuning" dataDxfId="95" dataCellStyle="Percent">
+    <tableColumn id="1" xr3:uid="{485E10B5-49B3-4B34-B2A8-8DB25F38CDCA}" name="Feature Extraction" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{4F0EFF3C-EFBD-4D81-AF1E-B70D89FE1140}" name="Fine Tuning" dataDxfId="30" dataCellStyle="Percent">
       <calculatedColumnFormula>B18/10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{77EF4E9A-34E8-42B4-8650-6D0269E36D3D}" name="Epoch Set" dataDxfId="94" dataCellStyle="Percent"/>
-    <tableColumn id="5" xr3:uid="{3737EB52-8EE7-42AC-BCF5-DACF8AB4C666}" name="Epoch Undergo" dataDxfId="93" dataCellStyle="Percent"/>
-    <tableColumn id="6" xr3:uid="{DCEDF8C3-7222-4373-9998-716476D1DC64}" name="Epoch SetFT" dataDxfId="92" dataCellStyle="Percent"/>
-    <tableColumn id="7" xr3:uid="{74AAFDFC-BD4D-486D-AAA8-27D289481B92}" name="Epoch UndergoFT" dataDxfId="91" dataCellStyle="Percent"/>
-    <tableColumn id="9" xr3:uid="{43302B6C-0A80-40E6-B114-66E468306993}" name="Loss1" dataDxfId="90" dataCellStyle="Percent"/>
-    <tableColumn id="3" xr3:uid="{26356F77-460D-416A-99B3-BBF85C9DC69C}" name="Accuracy1" dataDxfId="89"/>
-    <tableColumn id="10" xr3:uid="{33DD8E20-21E9-42DB-A9ED-2EB6254B6694}" name="Loss2" dataDxfId="88"/>
-    <tableColumn id="11" xr3:uid="{6829DF2F-21F4-45FB-AA73-F683252A3142}" name="Accuracy2" dataDxfId="87"/>
-    <tableColumn id="12" xr3:uid="{5F661F4D-678B-4020-A679-2664CA8B6202}" name="Loss3" dataDxfId="86"/>
-    <tableColumn id="13" xr3:uid="{C3FA50CB-D03F-46D8-8412-C9DB34573DBE}" name="Accuracy3" dataDxfId="85"/>
-    <tableColumn id="14" xr3:uid="{8A397EB8-90C6-4673-BA0C-2881AB360A11}" name="Average Loss" dataDxfId="84">
+    <tableColumn id="4" xr3:uid="{77EF4E9A-34E8-42B4-8650-6D0269E36D3D}" name="Epoch Set" dataDxfId="29" dataCellStyle="Percent"/>
+    <tableColumn id="5" xr3:uid="{3737EB52-8EE7-42AC-BCF5-DACF8AB4C666}" name="Epoch Undergo" dataDxfId="28" dataCellStyle="Percent"/>
+    <tableColumn id="6" xr3:uid="{DCEDF8C3-7222-4373-9998-716476D1DC64}" name="Epoch SetFT" dataDxfId="27" dataCellStyle="Percent"/>
+    <tableColumn id="7" xr3:uid="{74AAFDFC-BD4D-486D-AAA8-27D289481B92}" name="Epoch UndergoFT" dataDxfId="26" dataCellStyle="Percent"/>
+    <tableColumn id="9" xr3:uid="{43302B6C-0A80-40E6-B114-66E468306993}" name="Loss1" dataDxfId="25" dataCellStyle="Percent"/>
+    <tableColumn id="3" xr3:uid="{26356F77-460D-416A-99B3-BBF85C9DC69C}" name="Accuracy1" dataDxfId="24"/>
+    <tableColumn id="10" xr3:uid="{33DD8E20-21E9-42DB-A9ED-2EB6254B6694}" name="Loss2" dataDxfId="23"/>
+    <tableColumn id="11" xr3:uid="{6829DF2F-21F4-45FB-AA73-F683252A3142}" name="Accuracy2" dataDxfId="22"/>
+    <tableColumn id="12" xr3:uid="{5F661F4D-678B-4020-A679-2664CA8B6202}" name="Loss3" dataDxfId="21"/>
+    <tableColumn id="13" xr3:uid="{C3FA50CB-D03F-46D8-8412-C9DB34573DBE}" name="Accuracy3" dataDxfId="20"/>
+    <tableColumn id="14" xr3:uid="{8A397EB8-90C6-4673-BA0C-2881AB360A11}" name="Average Loss" dataDxfId="19">
       <calculatedColumnFormula>SUM(Table42[[#This Row],[Loss1]],Table42[[#This Row],[Loss2]],Table42[[#This Row],[Loss3]])/3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{38831F4B-7CB6-47D1-8189-BC480F70AD1C}" name="Average Accuracy" dataDxfId="83">
+    <tableColumn id="15" xr3:uid="{38831F4B-7CB6-47D1-8189-BC480F70AD1C}" name="Average Accuracy" dataDxfId="18">
       <calculatedColumnFormula>SUM(Table42[[#This Row],[Accuracy1]],Table42[[#This Row],[Accuracy2]],Table42[[#This Row],[Accuracy3]])/3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{2104EC55-481A-4232-AE55-D62BBCD49840}" name="Correct Predictions (Out of 59)" dataDxfId="82" dataCellStyle="Percent">
+    <tableColumn id="8" xr3:uid="{2104EC55-481A-4232-AE55-D62BBCD49840}" name="Correct Predictions (Out of 59)" dataDxfId="17" dataCellStyle="Percent">
       <calculatedColumnFormula>59*Table42[[#This Row],[Accuracy1]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3838,22 +3339,22 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{81E28367-2AA6-4DC8-ABBD-1124D9E224C3}" name="Table2" displayName="Table2" ref="B31:N58" totalsRowShown="0" headerRowDxfId="81" dataDxfId="79" headerRowBorderDxfId="80" tableBorderDxfId="78">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{81E28367-2AA6-4DC8-ABBD-1124D9E224C3}" name="Table2" displayName="Table2" ref="B31:N58" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="13">
   <autoFilter ref="B31:N58" xr:uid="{81E28367-2AA6-4DC8-ABBD-1124D9E224C3}"/>
   <tableColumns count="13">
-    <tableColumn id="18" xr3:uid="{15CAC9F2-A9AE-4DF9-9463-27879ABEF874}" name="S/N" dataDxfId="77"/>
-    <tableColumn id="20" xr3:uid="{8751364B-A1F1-4231-839D-41D6BB3744A9}" name="Learning Rate Category" dataDxfId="76"/>
-    <tableColumn id="17" xr3:uid="{88D66E1E-4B55-479B-8E01-B940A81D996D}" name="Group" dataDxfId="75"/>
-    <tableColumn id="19" xr3:uid="{C29B4EA7-872E-4985-985F-D1263991876A}" name="Attempt" dataDxfId="74"/>
-    <tableColumn id="1" xr3:uid="{74E818B4-0889-4479-B54B-2EB291E76806}" name="Feature Extraction" dataDxfId="73"/>
-    <tableColumn id="2" xr3:uid="{E88A4247-AE56-4CAC-ADE1-2DC704DFF04C}" name="Fine Tuning" dataDxfId="72" dataCellStyle="Percent"/>
-    <tableColumn id="3" xr3:uid="{2D1A8174-0CF5-49BA-A3D3-35867E5CEF7A}" name="Epoch Set" dataDxfId="71" dataCellStyle="Percent"/>
-    <tableColumn id="4" xr3:uid="{B2813A48-925E-4FF2-9D9E-34A17D47193E}" name="Epoch Undergo" dataDxfId="70" dataCellStyle="Percent"/>
-    <tableColumn id="5" xr3:uid="{2B60C0D8-8FA3-49FB-BBB4-167EEE24539A}" name="Epoch SetFT" dataDxfId="69" dataCellStyle="Percent"/>
-    <tableColumn id="6" xr3:uid="{E9B28B45-1179-4DAB-BC0E-B365B8833F0E}" name="Epoch UndergoFT" dataDxfId="68" dataCellStyle="Percent"/>
-    <tableColumn id="7" xr3:uid="{2754ABEE-B570-4C31-9C72-7C21A1F82BA4}" name="Loss" dataDxfId="67" dataCellStyle="Percent"/>
-    <tableColumn id="8" xr3:uid="{2913B544-8DB0-45C7-9420-367138A8248F}" name="Accuracy" dataDxfId="66"/>
-    <tableColumn id="15" xr3:uid="{F30FA38B-490A-4BE9-8DB2-AD16F3E68C1C}" name="Correct Predictions (Out of 59)" dataDxfId="65" dataCellStyle="Percent">
+    <tableColumn id="18" xr3:uid="{15CAC9F2-A9AE-4DF9-9463-27879ABEF874}" name="S/N" dataDxfId="12"/>
+    <tableColumn id="20" xr3:uid="{8751364B-A1F1-4231-839D-41D6BB3744A9}" name="Learning Rate Category" dataDxfId="11"/>
+    <tableColumn id="17" xr3:uid="{88D66E1E-4B55-479B-8E01-B940A81D996D}" name="Group" dataDxfId="10"/>
+    <tableColumn id="19" xr3:uid="{C29B4EA7-872E-4985-985F-D1263991876A}" name="Attempt" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{74E818B4-0889-4479-B54B-2EB291E76806}" name="Feature Extraction" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{E88A4247-AE56-4CAC-ADE1-2DC704DFF04C}" name="Fine Tuning" dataDxfId="7" dataCellStyle="Percent"/>
+    <tableColumn id="3" xr3:uid="{2D1A8174-0CF5-49BA-A3D3-35867E5CEF7A}" name="Epoch Set" dataDxfId="6" dataCellStyle="Percent"/>
+    <tableColumn id="4" xr3:uid="{B2813A48-925E-4FF2-9D9E-34A17D47193E}" name="Epoch Undergo" dataDxfId="5" dataCellStyle="Percent"/>
+    <tableColumn id="5" xr3:uid="{2B60C0D8-8FA3-49FB-BBB4-167EEE24539A}" name="Epoch SetFT" dataDxfId="4" dataCellStyle="Percent"/>
+    <tableColumn id="6" xr3:uid="{E9B28B45-1179-4DAB-BC0E-B365B8833F0E}" name="Epoch UndergoFT" dataDxfId="3" dataCellStyle="Percent"/>
+    <tableColumn id="7" xr3:uid="{2754ABEE-B570-4C31-9C72-7C21A1F82BA4}" name="Loss" dataDxfId="2" dataCellStyle="Percent"/>
+    <tableColumn id="8" xr3:uid="{2913B544-8DB0-45C7-9420-367138A8248F}" name="Accuracy" dataDxfId="1"/>
+    <tableColumn id="15" xr3:uid="{F30FA38B-490A-4BE9-8DB2-AD16F3E68C1C}" name="Correct Predictions (Out of 59)" dataDxfId="0" dataCellStyle="Percent">
       <calculatedColumnFormula>59*Table2[[#This Row],[Accuracy]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4157,6 +3658,2074 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54A7B53C-1470-498D-AE06-6C9C8BBDE7A1}">
+  <dimension ref="B2:P58"/>
+  <sheetViews>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="N48" sqref="N48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" customWidth="1"/>
+    <col min="7" max="7" width="17.21875" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" customWidth="1"/>
+    <col min="11" max="11" width="10.88671875" customWidth="1"/>
+    <col min="13" max="13" width="10.88671875" customWidth="1"/>
+    <col min="14" max="14" width="13.33203125" customWidth="1"/>
+    <col min="15" max="15" width="17.33203125" customWidth="1"/>
+    <col min="16" max="16" width="28.109375" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B2" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+    </row>
+    <row r="3" spans="2:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="56"/>
+      <c r="D3" s="57" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="57"/>
+      <c r="F3" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="58"/>
+    </row>
+    <row r="4" spans="2:10" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="13">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="C5" s="14">
+        <f t="shared" ref="C5:C14" si="0">B5/10</f>
+        <v>1.0000000000000002E-6</v>
+      </c>
+      <c r="D5" s="10">
+        <v>50</v>
+      </c>
+      <c r="E5" s="10">
+        <v>33</v>
+      </c>
+      <c r="F5" s="8">
+        <v>50</v>
+      </c>
+      <c r="G5" s="8">
+        <v>47</v>
+      </c>
+      <c r="H5" s="16">
+        <v>0.3407</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0.84750000000000003</v>
+      </c>
+      <c r="J5" s="6">
+        <f>59*Table4[[#This Row],[Test Dataset Accuracy]]</f>
+        <v>50.002500000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="13">
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="C6" s="14">
+        <f t="shared" si="0"/>
+        <v>2.5000000000000002E-6</v>
+      </c>
+      <c r="D6" s="10">
+        <v>50</v>
+      </c>
+      <c r="E6" s="10">
+        <v>50</v>
+      </c>
+      <c r="F6" s="8">
+        <v>50</v>
+      </c>
+      <c r="G6" s="8">
+        <v>29</v>
+      </c>
+      <c r="H6" s="16">
+        <v>0.31769999999999998</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0.88139999999999996</v>
+      </c>
+      <c r="J6" s="6">
+        <f>59*Table4[[#This Row],[Test Dataset Accuracy]]</f>
+        <v>52.002600000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="13">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="C7" s="14">
+        <f t="shared" si="0"/>
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="D7" s="10">
+        <v>50</v>
+      </c>
+      <c r="E7" s="10">
+        <v>50</v>
+      </c>
+      <c r="F7" s="8">
+        <v>50</v>
+      </c>
+      <c r="G7" s="8">
+        <v>29</v>
+      </c>
+      <c r="H7" s="16">
+        <v>0.37159999999999999</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0.81359999999999999</v>
+      </c>
+      <c r="J7" s="6">
+        <f>59*Table4[[#This Row],[Test Dataset Accuracy]]</f>
+        <v>48.002400000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="13">
+        <v>7.4999999999999993E-5</v>
+      </c>
+      <c r="C8" s="14">
+        <f t="shared" si="0"/>
+        <v>7.4999999999999993E-6</v>
+      </c>
+      <c r="D8" s="10">
+        <v>50</v>
+      </c>
+      <c r="E8" s="10">
+        <v>50</v>
+      </c>
+      <c r="F8" s="8">
+        <v>50</v>
+      </c>
+      <c r="G8" s="8">
+        <v>37</v>
+      </c>
+      <c r="H8" s="16">
+        <v>0.3518</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0.84750000000000003</v>
+      </c>
+      <c r="J8" s="6">
+        <f>59*Table4[[#This Row],[Test Dataset Accuracy]]</f>
+        <v>50.002500000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="13">
+        <v>1E-4</v>
+      </c>
+      <c r="C9" s="14">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D9" s="10">
+        <v>50</v>
+      </c>
+      <c r="E9" s="10">
+        <v>50</v>
+      </c>
+      <c r="F9" s="8">
+        <v>50</v>
+      </c>
+      <c r="G9" s="8">
+        <v>12</v>
+      </c>
+      <c r="H9" s="16">
+        <v>0.29520000000000002</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0.89829999999999999</v>
+      </c>
+      <c r="J9" s="6">
+        <f>59*Table4[[#This Row],[Test Dataset Accuracy]]</f>
+        <v>52.999699999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="13">
+        <v>1.25E-4</v>
+      </c>
+      <c r="C10" s="14">
+        <f t="shared" si="0"/>
+        <v>1.2500000000000001E-5</v>
+      </c>
+      <c r="D10" s="10">
+        <v>50</v>
+      </c>
+      <c r="E10" s="10">
+        <v>50</v>
+      </c>
+      <c r="F10" s="8">
+        <v>50</v>
+      </c>
+      <c r="G10" s="8">
+        <v>12</v>
+      </c>
+      <c r="H10" s="16">
+        <v>0.33810000000000001</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0.86439999999999995</v>
+      </c>
+      <c r="J10" s="6">
+        <f>59*Table4[[#This Row],[Test Dataset Accuracy]]</f>
+        <v>50.999599999999994</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="13">
+        <v>1.4999999999999999E-4</v>
+      </c>
+      <c r="C11" s="14">
+        <f t="shared" si="0"/>
+        <v>1.4999999999999999E-5</v>
+      </c>
+      <c r="D11" s="10">
+        <v>50</v>
+      </c>
+      <c r="E11" s="10">
+        <v>47</v>
+      </c>
+      <c r="F11" s="8">
+        <v>50</v>
+      </c>
+      <c r="G11" s="8">
+        <v>16</v>
+      </c>
+      <c r="H11" s="16">
+        <v>0.32369999999999999</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0.86439999999999995</v>
+      </c>
+      <c r="J11" s="6">
+        <f>59*Table4[[#This Row],[Test Dataset Accuracy]]</f>
+        <v>50.999599999999994</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="13">
+        <v>1.75E-4</v>
+      </c>
+      <c r="C12" s="14">
+        <f t="shared" si="0"/>
+        <v>1.7499999999999998E-5</v>
+      </c>
+      <c r="D12" s="10">
+        <v>50</v>
+      </c>
+      <c r="E12" s="10">
+        <v>50</v>
+      </c>
+      <c r="F12" s="8">
+        <v>50</v>
+      </c>
+      <c r="G12" s="8">
+        <v>11</v>
+      </c>
+      <c r="H12" s="16">
+        <v>0.35730000000000001</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0.84750000000000003</v>
+      </c>
+      <c r="J12" s="6">
+        <f>59*Table4[[#This Row],[Test Dataset Accuracy]]</f>
+        <v>50.002500000000005</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="13">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="C13" s="14">
+        <f t="shared" si="0"/>
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="D13" s="10">
+        <v>50</v>
+      </c>
+      <c r="E13" s="10">
+        <v>50</v>
+      </c>
+      <c r="F13" s="8">
+        <v>50</v>
+      </c>
+      <c r="G13" s="8">
+        <v>22</v>
+      </c>
+      <c r="H13" s="16">
+        <v>0.37690000000000001</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0.86439999999999995</v>
+      </c>
+      <c r="J13" s="6">
+        <f>59*Table4[[#This Row],[Test Dataset Accuracy]]</f>
+        <v>50.999599999999994</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="13">
+        <v>1E-3</v>
+      </c>
+      <c r="C14" s="14">
+        <f t="shared" si="0"/>
+        <v>1E-4</v>
+      </c>
+      <c r="D14" s="10">
+        <v>50</v>
+      </c>
+      <c r="E14" s="10">
+        <v>35</v>
+      </c>
+      <c r="F14" s="8">
+        <v>50</v>
+      </c>
+      <c r="G14" s="8">
+        <v>18</v>
+      </c>
+      <c r="H14" s="16">
+        <v>0.43680000000000002</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0.746</v>
+      </c>
+      <c r="J14" s="6">
+        <f>59*Table4[[#This Row],[Test Dataset Accuracy]]</f>
+        <v>44.014000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="2"/>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="56"/>
+      <c r="D16" s="57" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="57"/>
+      <c r="F16" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="58"/>
+    </row>
+    <row r="17" spans="2:16" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="13">
+        <v>8.0000000000000007E-5</v>
+      </c>
+      <c r="C18" s="14">
+        <v>7.9999999999999996E-6</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="16">
+        <v>0.35570000000000002</v>
+      </c>
+      <c r="I18" s="4">
+        <v>0.89829999999999999</v>
+      </c>
+      <c r="J18" s="4">
+        <v>0.2923</v>
+      </c>
+      <c r="K18" s="4">
+        <v>0.89829999999999999</v>
+      </c>
+      <c r="L18" s="4">
+        <v>0.32619999999999999</v>
+      </c>
+      <c r="M18" s="4">
+        <v>0.86439999999999995</v>
+      </c>
+      <c r="N18" s="4">
+        <f>SUM(Table42[[#This Row],[Loss1]],Table42[[#This Row],[Loss2]],Table42[[#This Row],[Loss3]])/3</f>
+        <v>0.32473333333333332</v>
+      </c>
+      <c r="O18" s="4">
+        <f>SUM(Table42[[#This Row],[Accuracy1]],Table42[[#This Row],[Accuracy2]],Table42[[#This Row],[Accuracy3]])/3</f>
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="P18" s="6"/>
+    </row>
+    <row r="19" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="13">
+        <v>9.0000000000000006E-5</v>
+      </c>
+      <c r="C19" s="14">
+        <v>7.9999999999999996E-6</v>
+      </c>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="16">
+        <v>0.31280000000000002</v>
+      </c>
+      <c r="I19" s="4">
+        <v>0.88139999999999996</v>
+      </c>
+      <c r="J19" s="4">
+        <v>0.32579999999999998</v>
+      </c>
+      <c r="K19" s="4">
+        <v>0.88139999999999996</v>
+      </c>
+      <c r="L19" s="4">
+        <v>0.34310000000000002</v>
+      </c>
+      <c r="M19" s="4">
+        <v>0.9153</v>
+      </c>
+      <c r="N19" s="4">
+        <f>SUM(Table42[[#This Row],[Loss1]],Table42[[#This Row],[Loss2]],Table42[[#This Row],[Loss3]])/3</f>
+        <v>0.32723333333333332</v>
+      </c>
+      <c r="O19" s="4">
+        <f>SUM(Table42[[#This Row],[Accuracy1]],Table42[[#This Row],[Accuracy2]],Table42[[#This Row],[Accuracy3]])/3</f>
+        <v>0.89269999999999994</v>
+      </c>
+      <c r="P19" s="6"/>
+    </row>
+    <row r="20" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="13">
+        <v>1E-4</v>
+      </c>
+      <c r="C20" s="14">
+        <v>7.9999999999999996E-6</v>
+      </c>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="16">
+        <v>0.34820000000000001</v>
+      </c>
+      <c r="I20" s="4">
+        <v>0.88139999999999996</v>
+      </c>
+      <c r="J20" s="4">
+        <v>0.33729999999999999</v>
+      </c>
+      <c r="K20" s="4">
+        <v>0.88139999999999996</v>
+      </c>
+      <c r="L20" s="4">
+        <v>0.3115</v>
+      </c>
+      <c r="M20" s="4">
+        <v>0.88139999999999996</v>
+      </c>
+      <c r="N20" s="4">
+        <f>SUM(Table42[[#This Row],[Loss1]],Table42[[#This Row],[Loss2]],Table42[[#This Row],[Loss3]])/3</f>
+        <v>0.33233333333333331</v>
+      </c>
+      <c r="O20" s="4">
+        <f>SUM(Table42[[#This Row],[Accuracy1]],Table42[[#This Row],[Accuracy2]],Table42[[#This Row],[Accuracy3]])/3</f>
+        <v>0.88139999999999985</v>
+      </c>
+      <c r="P20" s="6">
+        <f>59*Table42[[#This Row],[Average Accuracy]]</f>
+        <v>52.002599999999994</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="13">
+        <v>1E-4</v>
+      </c>
+      <c r="C21" s="14">
+        <v>9.0000000000000002E-6</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="16">
+        <v>0.3276</v>
+      </c>
+      <c r="I21" s="4">
+        <v>0.84750000000000003</v>
+      </c>
+      <c r="J21" s="4">
+        <v>0.34</v>
+      </c>
+      <c r="K21" s="4">
+        <v>0.89829999999999999</v>
+      </c>
+      <c r="L21" s="4">
+        <v>0.28820000000000001</v>
+      </c>
+      <c r="M21" s="4">
+        <v>0.88139999999999996</v>
+      </c>
+      <c r="N21" s="4">
+        <f>SUM(Table42[[#This Row],[Loss1]],Table42[[#This Row],[Loss2]],Table42[[#This Row],[Loss3]])/3</f>
+        <v>0.31859999999999999</v>
+      </c>
+      <c r="O21" s="4">
+        <f>SUM(Table42[[#This Row],[Accuracy1]],Table42[[#This Row],[Accuracy2]],Table42[[#This Row],[Accuracy3]])/3</f>
+        <v>0.87573333333333336</v>
+      </c>
+      <c r="P21" s="6">
+        <f>59*Table42[[#This Row],[Average Accuracy]]</f>
+        <v>51.668266666666668</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="13">
+        <v>1E-4</v>
+      </c>
+      <c r="C22" s="14">
+        <f>B22/10</f>
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D22" s="10">
+        <v>50</v>
+      </c>
+      <c r="E22" s="10">
+        <v>50</v>
+      </c>
+      <c r="F22" s="8">
+        <v>50</v>
+      </c>
+      <c r="G22" s="8"/>
+      <c r="H22" s="16">
+        <v>0.318</v>
+      </c>
+      <c r="I22" s="4">
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="J22" s="4">
+        <v>0.36280000000000001</v>
+      </c>
+      <c r="K22" s="4">
+        <v>0.86439999999999995</v>
+      </c>
+      <c r="L22" s="4">
+        <v>0.29389999999999999</v>
+      </c>
+      <c r="M22" s="4">
+        <v>0.86439999999999995</v>
+      </c>
+      <c r="N22" s="4">
+        <f>SUM(Table42[[#This Row],[Loss1]],Table42[[#This Row],[Loss2]],Table42[[#This Row],[Loss3]])/3</f>
+        <v>0.32490000000000002</v>
+      </c>
+      <c r="O22" s="4">
+        <f>SUM(Table42[[#This Row],[Accuracy1]],Table42[[#This Row],[Accuracy2]],Table42[[#This Row],[Accuracy3]])/3</f>
+        <v>0.85326666666666651</v>
+      </c>
+      <c r="P22" s="6">
+        <f>59*Table42[[#This Row],[Average Accuracy]]</f>
+        <v>50.342733333333321</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="13">
+        <v>1E-4</v>
+      </c>
+      <c r="C23" s="14">
+        <v>1.1E-5</v>
+      </c>
+      <c r="D23" s="10">
+        <v>50</v>
+      </c>
+      <c r="E23" s="10">
+        <v>50</v>
+      </c>
+      <c r="F23" s="8">
+        <v>50</v>
+      </c>
+      <c r="G23" s="8">
+        <v>20</v>
+      </c>
+      <c r="H23" s="16">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="I23" s="4">
+        <v>0.81359999999999999</v>
+      </c>
+      <c r="J23" s="16">
+        <v>0.28220000000000001</v>
+      </c>
+      <c r="K23" s="4">
+        <v>0.86439999999999995</v>
+      </c>
+      <c r="L23" s="16">
+        <v>0.2928</v>
+      </c>
+      <c r="M23" s="4">
+        <v>0.89829999999999999</v>
+      </c>
+      <c r="N23" s="4">
+        <f>SUM(Table42[[#This Row],[Loss1]],Table42[[#This Row],[Loss2]],Table42[[#This Row],[Loss3]])/3</f>
+        <v>0.28666666666666663</v>
+      </c>
+      <c r="O23" s="4">
+        <f>SUM(Table42[[#This Row],[Accuracy1]],Table42[[#This Row],[Accuracy2]],Table42[[#This Row],[Accuracy3]])/3</f>
+        <v>0.85876666666666657</v>
+      </c>
+      <c r="P23" s="6">
+        <f>59*Table42[[#This Row],[Average Accuracy]]</f>
+        <v>50.667233333333328</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="13">
+        <v>1E-4</v>
+      </c>
+      <c r="C24" s="14">
+        <v>1.2E-5</v>
+      </c>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="16">
+        <v>0.27060000000000001</v>
+      </c>
+      <c r="I24" s="4">
+        <v>0.88139999999999996</v>
+      </c>
+      <c r="J24" s="4">
+        <v>0.33379999999999999</v>
+      </c>
+      <c r="K24" s="4">
+        <v>0.86439999999999995</v>
+      </c>
+      <c r="L24" s="4">
+        <v>0.31330000000000002</v>
+      </c>
+      <c r="M24" s="4">
+        <v>0.88139999999999996</v>
+      </c>
+      <c r="N24" s="4">
+        <f>SUM(Table42[[#This Row],[Loss1]],Table42[[#This Row],[Loss2]],Table42[[#This Row],[Loss3]])/3</f>
+        <v>0.30590000000000001</v>
+      </c>
+      <c r="O24" s="4">
+        <f>SUM(Table42[[#This Row],[Accuracy1]],Table42[[#This Row],[Accuracy2]],Table42[[#This Row],[Accuracy3]])/3</f>
+        <v>0.87573333333333336</v>
+      </c>
+      <c r="P24" s="6">
+        <f>59*Table42[[#This Row],[Average Accuracy]]</f>
+        <v>51.668266666666668</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="13">
+        <v>1.1E-4</v>
+      </c>
+      <c r="C25" s="14">
+        <v>7.9999999999999996E-6</v>
+      </c>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="16">
+        <v>0.3266</v>
+      </c>
+      <c r="I25" s="4">
+        <v>0.81359999999999999</v>
+      </c>
+      <c r="J25" s="4">
+        <v>0.36230000000000001</v>
+      </c>
+      <c r="K25" s="4">
+        <v>0.83050000000000002</v>
+      </c>
+      <c r="L25" s="4">
+        <v>0.33050000000000002</v>
+      </c>
+      <c r="M25" s="4">
+        <v>0.83050000000000002</v>
+      </c>
+      <c r="N25" s="4">
+        <f>SUM(Table42[[#This Row],[Loss1]],Table42[[#This Row],[Loss2]],Table42[[#This Row],[Loss3]])/3</f>
+        <v>0.33980000000000005</v>
+      </c>
+      <c r="O25" s="4">
+        <f>SUM(Table42[[#This Row],[Accuracy1]],Table42[[#This Row],[Accuracy2]],Table42[[#This Row],[Accuracy3]])/3</f>
+        <v>0.82486666666666653</v>
+      </c>
+      <c r="P25" s="6">
+        <f>59*Table42[[#This Row],[Average Accuracy]]</f>
+        <v>48.667133333333325</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="13">
+        <v>1.2E-4</v>
+      </c>
+      <c r="C26" s="14">
+        <v>7.9999999999999996E-6</v>
+      </c>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="16">
+        <v>0.31469999999999998</v>
+      </c>
+      <c r="I26" s="4">
+        <v>0.89829999999999999</v>
+      </c>
+      <c r="J26" s="4">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="K26" s="4">
+        <v>0.9153</v>
+      </c>
+      <c r="L26" s="4">
+        <v>0.28820000000000001</v>
+      </c>
+      <c r="M26" s="4">
+        <v>0.88139999999999996</v>
+      </c>
+      <c r="N26" s="4">
+        <f>SUM(Table42[[#This Row],[Loss1]],Table42[[#This Row],[Loss2]],Table42[[#This Row],[Loss3]])/3</f>
+        <v>0.28996666666666665</v>
+      </c>
+      <c r="O26" s="4">
+        <f>SUM(Table42[[#This Row],[Accuracy1]],Table42[[#This Row],[Accuracy2]],Table42[[#This Row],[Accuracy3]])/3</f>
+        <v>0.89833333333333343</v>
+      </c>
+      <c r="P26" s="6">
+        <f>59*Table42[[#This Row],[Average Accuracy]]</f>
+        <v>53.001666666666672</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="13"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4">
+        <f>SUM(Table42[[#This Row],[Loss1]],Table42[[#This Row],[Loss2]],Table42[[#This Row],[Loss3]])/3</f>
+        <v>0</v>
+      </c>
+      <c r="O27" s="4">
+        <f>SUM(Table42[[#This Row],[Accuracy1]],Table42[[#This Row],[Accuracy2]],Table42[[#This Row],[Accuracy3]])/3</f>
+        <v>0</v>
+      </c>
+      <c r="P27" s="6"/>
+    </row>
+    <row r="28" spans="2:16" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="2:16" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="2:16" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="2:16" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B31" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F31" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="G31" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="H31" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I31" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="J31" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="K31" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="L31" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="M31" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="N31" s="22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="30">
+        <v>1</v>
+      </c>
+      <c r="C32" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" s="30">
+        <v>1</v>
+      </c>
+      <c r="E32" s="30">
+        <v>1</v>
+      </c>
+      <c r="F32" s="17">
+        <v>8.0000000000000007E-5</v>
+      </c>
+      <c r="G32" s="14">
+        <v>7.9999999999999996E-6</v>
+      </c>
+      <c r="H32" s="23">
+        <v>50</v>
+      </c>
+      <c r="I32" s="23">
+        <v>50</v>
+      </c>
+      <c r="J32" s="24">
+        <v>50</v>
+      </c>
+      <c r="K32" s="24">
+        <v>19</v>
+      </c>
+      <c r="L32" s="16">
+        <v>0.35570000000000002</v>
+      </c>
+      <c r="M32" s="25">
+        <v>0.89829999999999999</v>
+      </c>
+      <c r="N32" s="26">
+        <f>59*Table2[[#This Row],[Accuracy]]</f>
+        <v>52.999699999999997</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="30">
+        <v>2</v>
+      </c>
+      <c r="C33" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="30">
+        <v>1</v>
+      </c>
+      <c r="E33" s="30">
+        <v>2</v>
+      </c>
+      <c r="F33" s="17">
+        <v>8.0000000000000007E-5</v>
+      </c>
+      <c r="G33" s="14">
+        <v>7.9999999999999996E-6</v>
+      </c>
+      <c r="H33" s="23">
+        <v>50</v>
+      </c>
+      <c r="I33" s="23">
+        <v>50</v>
+      </c>
+      <c r="J33" s="24">
+        <v>50</v>
+      </c>
+      <c r="K33" s="24">
+        <v>19</v>
+      </c>
+      <c r="L33" s="25">
+        <v>0.2923</v>
+      </c>
+      <c r="M33" s="25">
+        <v>0.89829999999999999</v>
+      </c>
+      <c r="N33" s="26">
+        <f>59*Table2[[#This Row],[Accuracy]]</f>
+        <v>52.999699999999997</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="30">
+        <v>3</v>
+      </c>
+      <c r="C34" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34" s="30">
+        <v>1</v>
+      </c>
+      <c r="E34" s="30">
+        <v>3</v>
+      </c>
+      <c r="F34" s="17">
+        <v>8.0000000000000007E-5</v>
+      </c>
+      <c r="G34" s="14">
+        <v>7.9999999999999996E-6</v>
+      </c>
+      <c r="H34" s="23">
+        <v>50</v>
+      </c>
+      <c r="I34" s="10">
+        <v>50</v>
+      </c>
+      <c r="J34" s="24">
+        <v>50</v>
+      </c>
+      <c r="K34" s="8">
+        <v>21</v>
+      </c>
+      <c r="L34" s="25">
+        <v>0.32619999999999999</v>
+      </c>
+      <c r="M34" s="25">
+        <v>0.86439999999999995</v>
+      </c>
+      <c r="N34" s="26">
+        <f>59*Table2[[#This Row],[Accuracy]]</f>
+        <v>50.999599999999994</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="30">
+        <v>4</v>
+      </c>
+      <c r="C35" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="D35" s="30">
+        <v>2</v>
+      </c>
+      <c r="E35" s="30">
+        <v>1</v>
+      </c>
+      <c r="F35" s="17">
+        <v>9.0000000000000006E-5</v>
+      </c>
+      <c r="G35" s="14">
+        <v>7.9999999999999996E-6</v>
+      </c>
+      <c r="H35" s="23">
+        <v>50</v>
+      </c>
+      <c r="I35" s="10">
+        <v>50</v>
+      </c>
+      <c r="J35" s="24">
+        <v>50</v>
+      </c>
+      <c r="K35" s="8">
+        <v>11</v>
+      </c>
+      <c r="L35" s="16">
+        <v>0.31280000000000002</v>
+      </c>
+      <c r="M35" s="16">
+        <v>0.88139999999999996</v>
+      </c>
+      <c r="N35" s="26">
+        <f>59*Table2[[#This Row],[Accuracy]]</f>
+        <v>52.002600000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="30">
+        <v>5</v>
+      </c>
+      <c r="C36" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36" s="30">
+        <v>2</v>
+      </c>
+      <c r="E36" s="30">
+        <v>2</v>
+      </c>
+      <c r="F36" s="17">
+        <v>9.0000000000000006E-5</v>
+      </c>
+      <c r="G36" s="14">
+        <v>7.9999999999999996E-6</v>
+      </c>
+      <c r="H36" s="23">
+        <v>50</v>
+      </c>
+      <c r="I36" s="10">
+        <v>50</v>
+      </c>
+      <c r="J36" s="24">
+        <v>50</v>
+      </c>
+      <c r="K36" s="8">
+        <v>20</v>
+      </c>
+      <c r="L36" s="25">
+        <v>0.32579999999999998</v>
+      </c>
+      <c r="M36" s="25">
+        <v>0.88139999999999996</v>
+      </c>
+      <c r="N36" s="26">
+        <f>59*Table2[[#This Row],[Accuracy]]</f>
+        <v>52.002600000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="30">
+        <v>6</v>
+      </c>
+      <c r="C37" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" s="30">
+        <v>2</v>
+      </c>
+      <c r="E37" s="30">
+        <v>3</v>
+      </c>
+      <c r="F37" s="17">
+        <v>9.0000000000000006E-5</v>
+      </c>
+      <c r="G37" s="14">
+        <v>7.9999999999999996E-6</v>
+      </c>
+      <c r="H37" s="23">
+        <v>50</v>
+      </c>
+      <c r="I37" s="10">
+        <v>50</v>
+      </c>
+      <c r="J37" s="24">
+        <v>50</v>
+      </c>
+      <c r="K37" s="8">
+        <v>20</v>
+      </c>
+      <c r="L37" s="16">
+        <v>0.34310000000000002</v>
+      </c>
+      <c r="M37" s="16">
+        <v>0.9153</v>
+      </c>
+      <c r="N37" s="26">
+        <f>59*Table2[[#This Row],[Accuracy]]</f>
+        <v>54.002699999999997</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="30">
+        <v>7</v>
+      </c>
+      <c r="C38" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="D38" s="30">
+        <v>3</v>
+      </c>
+      <c r="E38" s="30">
+        <v>1</v>
+      </c>
+      <c r="F38" s="17">
+        <v>1E-4</v>
+      </c>
+      <c r="G38" s="14">
+        <v>7.9999999999999996E-6</v>
+      </c>
+      <c r="H38" s="23">
+        <v>50</v>
+      </c>
+      <c r="I38" s="10">
+        <v>50</v>
+      </c>
+      <c r="J38" s="24">
+        <v>50</v>
+      </c>
+      <c r="K38" s="8">
+        <v>11</v>
+      </c>
+      <c r="L38" s="16">
+        <v>0.34820000000000001</v>
+      </c>
+      <c r="M38" s="25">
+        <v>0.88139999999999996</v>
+      </c>
+      <c r="N38" s="26">
+        <f>59*Table2[[#This Row],[Accuracy]]</f>
+        <v>52.002600000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="30">
+        <v>8</v>
+      </c>
+      <c r="C39" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="D39" s="30">
+        <v>3</v>
+      </c>
+      <c r="E39" s="30">
+        <v>2</v>
+      </c>
+      <c r="F39" s="17">
+        <v>1E-4</v>
+      </c>
+      <c r="G39" s="14">
+        <v>7.9999999999999996E-6</v>
+      </c>
+      <c r="H39" s="23">
+        <v>50</v>
+      </c>
+      <c r="I39" s="10">
+        <v>50</v>
+      </c>
+      <c r="J39" s="24">
+        <v>50</v>
+      </c>
+      <c r="K39" s="8">
+        <v>12</v>
+      </c>
+      <c r="L39" s="25">
+        <v>0.33729999999999999</v>
+      </c>
+      <c r="M39" s="25">
+        <v>0.88139999999999996</v>
+      </c>
+      <c r="N39" s="26">
+        <f>59*Table2[[#This Row],[Accuracy]]</f>
+        <v>52.002600000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="30">
+        <v>9</v>
+      </c>
+      <c r="C40" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="D40" s="30">
+        <v>3</v>
+      </c>
+      <c r="E40" s="30">
+        <v>3</v>
+      </c>
+      <c r="F40" s="17">
+        <v>1E-4</v>
+      </c>
+      <c r="G40" s="14">
+        <v>7.9999999999999996E-6</v>
+      </c>
+      <c r="H40" s="23">
+        <v>50</v>
+      </c>
+      <c r="I40" s="10">
+        <v>50</v>
+      </c>
+      <c r="J40" s="24">
+        <v>50</v>
+      </c>
+      <c r="K40" s="8">
+        <v>22</v>
+      </c>
+      <c r="L40" s="25">
+        <v>0.3115</v>
+      </c>
+      <c r="M40" s="25">
+        <v>0.88139999999999996</v>
+      </c>
+      <c r="N40" s="26">
+        <f>59*Table2[[#This Row],[Accuracy]]</f>
+        <v>52.002600000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="30">
+        <v>10</v>
+      </c>
+      <c r="C41" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="D41" s="30">
+        <v>4</v>
+      </c>
+      <c r="E41" s="30">
+        <v>1</v>
+      </c>
+      <c r="F41" s="17">
+        <v>1E-4</v>
+      </c>
+      <c r="G41" s="14">
+        <v>9.0000000000000002E-6</v>
+      </c>
+      <c r="H41" s="23">
+        <v>50</v>
+      </c>
+      <c r="I41" s="10">
+        <v>50</v>
+      </c>
+      <c r="J41" s="24">
+        <v>50</v>
+      </c>
+      <c r="K41" s="8">
+        <v>33</v>
+      </c>
+      <c r="L41" s="25">
+        <v>0.3276</v>
+      </c>
+      <c r="M41" s="25">
+        <v>0.84750000000000003</v>
+      </c>
+      <c r="N41" s="26">
+        <f>59*Table2[[#This Row],[Accuracy]]</f>
+        <v>50.002500000000005</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="30">
+        <v>11</v>
+      </c>
+      <c r="C42" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="D42" s="30">
+        <v>4</v>
+      </c>
+      <c r="E42" s="30">
+        <v>2</v>
+      </c>
+      <c r="F42" s="17">
+        <v>1E-4</v>
+      </c>
+      <c r="G42" s="14">
+        <v>9.0000000000000002E-6</v>
+      </c>
+      <c r="H42" s="23">
+        <v>50</v>
+      </c>
+      <c r="I42" s="10">
+        <v>50</v>
+      </c>
+      <c r="J42" s="24">
+        <v>50</v>
+      </c>
+      <c r="K42" s="8">
+        <v>29</v>
+      </c>
+      <c r="L42" s="25">
+        <v>0.34</v>
+      </c>
+      <c r="M42" s="25">
+        <v>0.89829999999999999</v>
+      </c>
+      <c r="N42" s="26">
+        <f>59*Table2[[#This Row],[Accuracy]]</f>
+        <v>52.999699999999997</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="30">
+        <v>12</v>
+      </c>
+      <c r="C43" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="D43" s="30">
+        <v>4</v>
+      </c>
+      <c r="E43" s="30">
+        <v>3</v>
+      </c>
+      <c r="F43" s="17">
+        <v>1E-4</v>
+      </c>
+      <c r="G43" s="14">
+        <v>9.0000000000000002E-6</v>
+      </c>
+      <c r="H43" s="23">
+        <v>50</v>
+      </c>
+      <c r="I43" s="10">
+        <v>50</v>
+      </c>
+      <c r="J43" s="24">
+        <v>50</v>
+      </c>
+      <c r="K43" s="8">
+        <v>12</v>
+      </c>
+      <c r="L43" s="25">
+        <v>0.28820000000000001</v>
+      </c>
+      <c r="M43" s="25">
+        <v>0.88139999999999996</v>
+      </c>
+      <c r="N43" s="26">
+        <f>59*Table2[[#This Row],[Accuracy]]</f>
+        <v>52.002600000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="30">
+        <v>13</v>
+      </c>
+      <c r="C44" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="D44" s="30">
+        <v>5</v>
+      </c>
+      <c r="E44" s="30">
+        <v>1</v>
+      </c>
+      <c r="F44" s="17">
+        <v>1E-4</v>
+      </c>
+      <c r="G44" s="14">
+        <f>F44/10</f>
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="H44" s="23">
+        <v>50</v>
+      </c>
+      <c r="I44" s="10">
+        <v>50</v>
+      </c>
+      <c r="J44" s="24">
+        <v>50</v>
+      </c>
+      <c r="K44" s="8">
+        <v>15</v>
+      </c>
+      <c r="L44" s="16">
+        <v>0.318</v>
+      </c>
+      <c r="M44" s="25">
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="N44" s="26">
+        <f>59*Table2[[#This Row],[Accuracy]]</f>
+        <v>49.028999999999996</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="30">
+        <v>14</v>
+      </c>
+      <c r="C45" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="D45" s="30">
+        <v>5</v>
+      </c>
+      <c r="E45" s="30">
+        <v>2</v>
+      </c>
+      <c r="F45" s="17">
+        <v>1E-4</v>
+      </c>
+      <c r="G45" s="14">
+        <f>F45/10</f>
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="H45" s="23">
+        <v>50</v>
+      </c>
+      <c r="I45" s="10">
+        <v>50</v>
+      </c>
+      <c r="J45" s="24">
+        <v>50</v>
+      </c>
+      <c r="K45" s="8">
+        <v>10</v>
+      </c>
+      <c r="L45" s="25">
+        <v>0.36280000000000001</v>
+      </c>
+      <c r="M45" s="25">
+        <v>0.86439999999999995</v>
+      </c>
+      <c r="N45" s="26">
+        <f>59*Table2[[#This Row],[Accuracy]]</f>
+        <v>50.999599999999994</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="30">
+        <v>15</v>
+      </c>
+      <c r="C46" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="D46" s="30">
+        <v>5</v>
+      </c>
+      <c r="E46" s="30">
+        <v>3</v>
+      </c>
+      <c r="F46" s="17">
+        <v>1E-4</v>
+      </c>
+      <c r="G46" s="14">
+        <f>F46/10</f>
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="H46" s="23">
+        <v>50</v>
+      </c>
+      <c r="I46" s="10">
+        <v>50</v>
+      </c>
+      <c r="J46" s="24">
+        <v>50</v>
+      </c>
+      <c r="K46" s="8">
+        <v>12</v>
+      </c>
+      <c r="L46" s="25">
+        <v>0.29389999999999999</v>
+      </c>
+      <c r="M46" s="25">
+        <v>0.86439999999999995</v>
+      </c>
+      <c r="N46" s="26">
+        <f>59*Table2[[#This Row],[Accuracy]]</f>
+        <v>50.999599999999994</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="30">
+        <v>16</v>
+      </c>
+      <c r="C47" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="D47" s="30">
+        <v>6</v>
+      </c>
+      <c r="E47" s="30">
+        <v>1</v>
+      </c>
+      <c r="F47" s="17">
+        <v>1E-4</v>
+      </c>
+      <c r="G47" s="14">
+        <v>1.1E-5</v>
+      </c>
+      <c r="H47" s="23">
+        <v>50</v>
+      </c>
+      <c r="I47" s="10">
+        <v>50</v>
+      </c>
+      <c r="J47" s="24">
+        <v>50</v>
+      </c>
+      <c r="K47" s="8">
+        <v>20</v>
+      </c>
+      <c r="L47" s="16">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="M47" s="25">
+        <v>0.81359999999999999</v>
+      </c>
+      <c r="N47" s="26">
+        <f>59*Table2[[#This Row],[Accuracy]]</f>
+        <v>48.002400000000002</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="30">
+        <v>17</v>
+      </c>
+      <c r="C48" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="D48" s="30">
+        <v>6</v>
+      </c>
+      <c r="E48" s="30">
+        <v>2</v>
+      </c>
+      <c r="F48" s="17">
+        <v>1E-4</v>
+      </c>
+      <c r="G48" s="14">
+        <v>1.1E-5</v>
+      </c>
+      <c r="H48" s="23">
+        <v>50</v>
+      </c>
+      <c r="I48" s="10">
+        <v>50</v>
+      </c>
+      <c r="J48" s="24">
+        <v>50</v>
+      </c>
+      <c r="K48" s="8">
+        <v>12</v>
+      </c>
+      <c r="L48" s="16">
+        <v>0.28220000000000001</v>
+      </c>
+      <c r="M48" s="25">
+        <v>0.86439999999999995</v>
+      </c>
+      <c r="N48" s="26">
+        <f>59*Table2[[#This Row],[Accuracy]]</f>
+        <v>50.999599999999994</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="30">
+        <v>18</v>
+      </c>
+      <c r="C49" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="D49" s="30">
+        <v>6</v>
+      </c>
+      <c r="E49" s="30">
+        <v>3</v>
+      </c>
+      <c r="F49" s="17">
+        <v>1E-4</v>
+      </c>
+      <c r="G49" s="14">
+        <v>1.1E-5</v>
+      </c>
+      <c r="H49" s="23">
+        <v>50</v>
+      </c>
+      <c r="I49" s="10">
+        <v>50</v>
+      </c>
+      <c r="J49" s="24">
+        <v>50</v>
+      </c>
+      <c r="K49" s="8">
+        <v>21</v>
+      </c>
+      <c r="L49" s="16">
+        <v>0.2928</v>
+      </c>
+      <c r="M49" s="25">
+        <v>0.89829999999999999</v>
+      </c>
+      <c r="N49" s="26">
+        <f>59*Table2[[#This Row],[Accuracy]]</f>
+        <v>52.999699999999997</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="30">
+        <v>19</v>
+      </c>
+      <c r="C50" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="D50" s="30">
+        <v>7</v>
+      </c>
+      <c r="E50" s="30">
+        <v>1</v>
+      </c>
+      <c r="F50" s="17">
+        <v>1E-4</v>
+      </c>
+      <c r="G50" s="14">
+        <v>1.2E-5</v>
+      </c>
+      <c r="H50" s="23">
+        <v>50</v>
+      </c>
+      <c r="I50" s="10">
+        <v>50</v>
+      </c>
+      <c r="J50" s="24">
+        <v>50</v>
+      </c>
+      <c r="K50" s="8">
+        <v>11</v>
+      </c>
+      <c r="L50" s="16">
+        <v>0.27060000000000001</v>
+      </c>
+      <c r="M50" s="25">
+        <v>0.88139999999999996</v>
+      </c>
+      <c r="N50" s="26">
+        <f>59*Table2[[#This Row],[Accuracy]]</f>
+        <v>52.002600000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="30">
+        <v>20</v>
+      </c>
+      <c r="C51" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="D51" s="30">
+        <v>7</v>
+      </c>
+      <c r="E51" s="30">
+        <v>2</v>
+      </c>
+      <c r="F51" s="17">
+        <v>1E-4</v>
+      </c>
+      <c r="G51" s="14">
+        <v>1.2E-5</v>
+      </c>
+      <c r="H51" s="23">
+        <v>50</v>
+      </c>
+      <c r="I51" s="10">
+        <v>50</v>
+      </c>
+      <c r="J51" s="24">
+        <v>50</v>
+      </c>
+      <c r="K51" s="8">
+        <v>19</v>
+      </c>
+      <c r="L51" s="25">
+        <v>0.33379999999999999</v>
+      </c>
+      <c r="M51" s="25">
+        <v>0.86439999999999995</v>
+      </c>
+      <c r="N51" s="26">
+        <f>59*Table2[[#This Row],[Accuracy]]</f>
+        <v>50.999599999999994</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="30">
+        <v>21</v>
+      </c>
+      <c r="C52" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="D52" s="30">
+        <v>7</v>
+      </c>
+      <c r="E52" s="30">
+        <v>3</v>
+      </c>
+      <c r="F52" s="17">
+        <v>1E-4</v>
+      </c>
+      <c r="G52" s="14">
+        <v>1.2E-5</v>
+      </c>
+      <c r="H52" s="23">
+        <v>50</v>
+      </c>
+      <c r="I52" s="10">
+        <v>50</v>
+      </c>
+      <c r="J52" s="24">
+        <v>50</v>
+      </c>
+      <c r="K52" s="8">
+        <v>19</v>
+      </c>
+      <c r="L52" s="25">
+        <v>0.31330000000000002</v>
+      </c>
+      <c r="M52" s="25">
+        <v>0.88139999999999996</v>
+      </c>
+      <c r="N52" s="26">
+        <f>59*Table2[[#This Row],[Accuracy]]</f>
+        <v>52.002600000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="30">
+        <v>22</v>
+      </c>
+      <c r="C53" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="D53" s="30">
+        <v>8</v>
+      </c>
+      <c r="E53" s="30">
+        <v>1</v>
+      </c>
+      <c r="F53" s="17">
+        <v>1.1E-4</v>
+      </c>
+      <c r="G53" s="14">
+        <v>7.9999999999999996E-6</v>
+      </c>
+      <c r="H53" s="23">
+        <v>50</v>
+      </c>
+      <c r="I53" s="10">
+        <v>39</v>
+      </c>
+      <c r="J53" s="24">
+        <v>50</v>
+      </c>
+      <c r="K53" s="8">
+        <v>17</v>
+      </c>
+      <c r="L53" s="16">
+        <v>0.3266</v>
+      </c>
+      <c r="M53" s="25">
+        <v>0.81359999999999999</v>
+      </c>
+      <c r="N53" s="26">
+        <f>59*Table2[[#This Row],[Accuracy]]</f>
+        <v>48.002400000000002</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="30">
+        <v>23</v>
+      </c>
+      <c r="C54" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="D54" s="30">
+        <v>8</v>
+      </c>
+      <c r="E54" s="30">
+        <v>2</v>
+      </c>
+      <c r="F54" s="17">
+        <v>1.1E-4</v>
+      </c>
+      <c r="G54" s="14">
+        <v>7.9999999999999996E-6</v>
+      </c>
+      <c r="H54" s="23">
+        <v>50</v>
+      </c>
+      <c r="I54" s="10">
+        <v>50</v>
+      </c>
+      <c r="J54" s="24">
+        <v>50</v>
+      </c>
+      <c r="K54" s="8">
+        <v>22</v>
+      </c>
+      <c r="L54" s="25">
+        <v>0.36230000000000001</v>
+      </c>
+      <c r="M54" s="25">
+        <v>0.83050000000000002</v>
+      </c>
+      <c r="N54" s="26">
+        <f>59*Table2[[#This Row],[Accuracy]]</f>
+        <v>48.999499999999998</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="30">
+        <v>24</v>
+      </c>
+      <c r="C55" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="D55" s="30">
+        <v>8</v>
+      </c>
+      <c r="E55" s="30">
+        <v>3</v>
+      </c>
+      <c r="F55" s="17">
+        <v>1.1E-4</v>
+      </c>
+      <c r="G55" s="14">
+        <v>7.9999999999999996E-6</v>
+      </c>
+      <c r="H55" s="23">
+        <v>50</v>
+      </c>
+      <c r="I55" s="10">
+        <v>50</v>
+      </c>
+      <c r="J55" s="24">
+        <v>50</v>
+      </c>
+      <c r="K55" s="8">
+        <v>12</v>
+      </c>
+      <c r="L55" s="25">
+        <v>0.33050000000000002</v>
+      </c>
+      <c r="M55" s="25">
+        <v>0.83050000000000002</v>
+      </c>
+      <c r="N55" s="26">
+        <f>59*Table2[[#This Row],[Accuracy]]</f>
+        <v>48.999499999999998</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="30">
+        <v>25</v>
+      </c>
+      <c r="C56" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="D56" s="30">
+        <v>9</v>
+      </c>
+      <c r="E56" s="30">
+        <v>1</v>
+      </c>
+      <c r="F56" s="17">
+        <v>1.2E-4</v>
+      </c>
+      <c r="G56" s="14">
+        <v>7.9999999999999996E-6</v>
+      </c>
+      <c r="H56" s="23">
+        <v>50</v>
+      </c>
+      <c r="I56" s="10">
+        <v>50</v>
+      </c>
+      <c r="J56" s="24">
+        <v>50</v>
+      </c>
+      <c r="K56" s="8">
+        <v>19</v>
+      </c>
+      <c r="L56" s="16">
+        <v>0.31469999999999998</v>
+      </c>
+      <c r="M56" s="25">
+        <v>0.89829999999999999</v>
+      </c>
+      <c r="N56" s="26">
+        <f>59*Table2[[#This Row],[Accuracy]]</f>
+        <v>52.999699999999997</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="30">
+        <v>26</v>
+      </c>
+      <c r="C57" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="D57" s="30">
+        <v>9</v>
+      </c>
+      <c r="E57" s="30">
+        <v>2</v>
+      </c>
+      <c r="F57" s="17">
+        <v>1.2E-4</v>
+      </c>
+      <c r="G57" s="14">
+        <v>7.9999999999999996E-6</v>
+      </c>
+      <c r="H57" s="23">
+        <v>50</v>
+      </c>
+      <c r="I57" s="10">
+        <v>50</v>
+      </c>
+      <c r="J57" s="24">
+        <v>50</v>
+      </c>
+      <c r="K57" s="8">
+        <v>13</v>
+      </c>
+      <c r="L57" s="25">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="M57" s="25">
+        <v>0.9153</v>
+      </c>
+      <c r="N57" s="26">
+        <f>59*Table2[[#This Row],[Accuracy]]</f>
+        <v>54.002699999999997</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="30">
+        <v>27</v>
+      </c>
+      <c r="C58" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="D58" s="30">
+        <v>9</v>
+      </c>
+      <c r="E58" s="30">
+        <v>3</v>
+      </c>
+      <c r="F58" s="17">
+        <v>1.2E-4</v>
+      </c>
+      <c r="G58" s="14">
+        <v>7.9999999999999996E-6</v>
+      </c>
+      <c r="H58" s="23">
+        <v>50</v>
+      </c>
+      <c r="I58" s="10">
+        <v>50</v>
+      </c>
+      <c r="J58" s="24">
+        <v>50</v>
+      </c>
+      <c r="K58" s="8">
+        <v>12</v>
+      </c>
+      <c r="L58" s="25">
+        <v>0.28820000000000001</v>
+      </c>
+      <c r="M58" s="25">
+        <v>0.88139999999999996</v>
+      </c>
+      <c r="N58" s="26">
+        <f>59*Table2[[#This Row],[Accuracy]]</f>
+        <v>52.002600000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="3">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C346F59A-573B-4DDB-BDC9-8AEA89CF662B}">
   <dimension ref="B2:J20"/>
   <sheetViews>
@@ -4250,7 +5819,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="27" t="s">
         <v>33</v>
       </c>
       <c r="C2" t="s">
@@ -4258,378 +5827,378 @@
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="27" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="32">
+      <c r="C5" s="31">
         <v>1</v>
       </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="33">
+      <c r="D5" s="31"/>
+      <c r="E5" s="32">
         <v>2</v>
       </c>
-      <c r="F5" s="33"/>
-      <c r="G5" s="34">
+      <c r="F5" s="32"/>
+      <c r="G5" s="33">
         <v>3</v>
       </c>
-      <c r="H5" s="34"/>
-      <c r="I5" s="51" t="s">
+      <c r="H5" s="33"/>
+      <c r="I5" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="51" t="s">
+      <c r="J5" s="46" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="41" t="s">
+      <c r="D6" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="42" t="s">
+      <c r="E6" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="42" t="s">
+      <c r="F6" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="43" t="s">
+      <c r="G6" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="43" t="s">
+      <c r="H6" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B7" s="29">
+      <c r="B7" s="28">
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="30">
+      <c r="B8" s="29">
         <v>7.9999999999999996E-6</v>
       </c>
-      <c r="C8" s="48">
+      <c r="C8" s="43">
         <v>0.89829999999999999</v>
       </c>
-      <c r="D8" s="53">
+      <c r="D8" s="48">
         <v>0.35570000000000002</v>
       </c>
-      <c r="E8" s="49">
+      <c r="E8" s="44">
         <v>0.89829999999999999</v>
       </c>
-      <c r="F8" s="55">
+      <c r="F8" s="50">
         <v>0.2923</v>
       </c>
-      <c r="G8" s="50">
+      <c r="G8" s="45">
         <v>0.86439999999999995</v>
       </c>
-      <c r="H8" s="57">
+      <c r="H8" s="52">
         <v>0.32619999999999999</v>
       </c>
-      <c r="I8" s="47">
+      <c r="I8" s="42">
         <v>0.88700000000000001</v>
       </c>
-      <c r="J8" s="59">
+      <c r="J8" s="54">
         <v>0.32473333333333332</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="29">
+      <c r="B9" s="28">
         <v>9.0000000000000006E-5</v>
       </c>
-      <c r="C9" s="44"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="59"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="54"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="30">
+      <c r="B10" s="29">
         <v>7.9999999999999996E-6</v>
       </c>
-      <c r="C10" s="48">
+      <c r="C10" s="43">
         <v>0.88139999999999996</v>
       </c>
-      <c r="D10" s="53">
+      <c r="D10" s="48">
         <v>0.31280000000000002</v>
       </c>
-      <c r="E10" s="49">
+      <c r="E10" s="44">
         <v>0.88139999999999996</v>
       </c>
-      <c r="F10" s="55">
+      <c r="F10" s="50">
         <v>0.32579999999999998</v>
       </c>
-      <c r="G10" s="50">
+      <c r="G10" s="45">
         <v>0.9153</v>
       </c>
-      <c r="H10" s="57">
+      <c r="H10" s="52">
         <v>0.34310000000000002</v>
       </c>
-      <c r="I10" s="47">
+      <c r="I10" s="42">
         <v>0.89269999999999994</v>
       </c>
-      <c r="J10" s="59">
+      <c r="J10" s="54">
         <v>0.32723333333333332</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="29">
+      <c r="B11" s="28">
         <v>1E-4</v>
       </c>
-      <c r="C11" s="44"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="59"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="54"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="30">
+      <c r="B12" s="29">
         <v>7.9999999999999996E-6</v>
       </c>
-      <c r="C12" s="48">
+      <c r="C12" s="43">
         <v>0.88139999999999996</v>
       </c>
-      <c r="D12" s="53">
+      <c r="D12" s="48">
         <v>0.34820000000000001</v>
       </c>
-      <c r="E12" s="49">
+      <c r="E12" s="44">
         <v>0.88139999999999996</v>
       </c>
-      <c r="F12" s="55">
+      <c r="F12" s="50">
         <v>0.33729999999999999</v>
       </c>
-      <c r="G12" s="50">
+      <c r="G12" s="45">
         <v>0.88139999999999996</v>
       </c>
-      <c r="H12" s="57">
+      <c r="H12" s="52">
         <v>0.3115</v>
       </c>
-      <c r="I12" s="47">
+      <c r="I12" s="42">
         <v>0.88139999999999985</v>
       </c>
-      <c r="J12" s="59">
+      <c r="J12" s="54">
         <v>0.33233333333333331</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="30">
+      <c r="B13" s="29">
         <v>9.0000000000000002E-6</v>
       </c>
-      <c r="C13" s="48">
+      <c r="C13" s="43">
         <v>0.84750000000000003</v>
       </c>
-      <c r="D13" s="53">
+      <c r="D13" s="48">
         <v>0.3276</v>
       </c>
-      <c r="E13" s="49">
+      <c r="E13" s="44">
         <v>0.89829999999999999</v>
       </c>
-      <c r="F13" s="55">
+      <c r="F13" s="50">
         <v>0.34</v>
       </c>
-      <c r="G13" s="50">
+      <c r="G13" s="45">
         <v>0.88139999999999996</v>
       </c>
-      <c r="H13" s="57">
+      <c r="H13" s="52">
         <v>0.28820000000000001</v>
       </c>
-      <c r="I13" s="47">
+      <c r="I13" s="42">
         <v>0.87573333333333336</v>
       </c>
-      <c r="J13" s="59">
+      <c r="J13" s="54">
         <v>0.31859999999999999</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B14" s="30">
+      <c r="B14" s="29">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="C14" s="48">
+      <c r="C14" s="43">
         <v>0.83099999999999996</v>
       </c>
-      <c r="D14" s="53">
+      <c r="D14" s="48">
         <v>0.318</v>
       </c>
-      <c r="E14" s="49">
+      <c r="E14" s="44">
         <v>0.86439999999999995</v>
       </c>
-      <c r="F14" s="55">
+      <c r="F14" s="50">
         <v>0.36280000000000001</v>
       </c>
-      <c r="G14" s="50">
+      <c r="G14" s="45">
         <v>0.86439999999999995</v>
       </c>
-      <c r="H14" s="57">
+      <c r="H14" s="52">
         <v>0.29389999999999999</v>
       </c>
-      <c r="I14" s="47">
+      <c r="I14" s="42">
         <v>0.85326666666666651</v>
       </c>
-      <c r="J14" s="59">
+      <c r="J14" s="54">
         <v>0.32490000000000002</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="30">
+      <c r="B15" s="29">
         <v>1.1E-5</v>
       </c>
-      <c r="C15" s="48">
+      <c r="C15" s="43">
         <v>0.81359999999999999</v>
       </c>
-      <c r="D15" s="53">
+      <c r="D15" s="48">
         <v>0.28499999999999998</v>
       </c>
-      <c r="E15" s="49">
+      <c r="E15" s="44">
         <v>0.86439999999999995</v>
       </c>
-      <c r="F15" s="55">
+      <c r="F15" s="50">
         <v>0.28220000000000001</v>
       </c>
-      <c r="G15" s="50">
+      <c r="G15" s="45">
         <v>0.89829999999999999</v>
       </c>
-      <c r="H15" s="57">
+      <c r="H15" s="52">
         <v>0.2928</v>
       </c>
-      <c r="I15" s="47">
+      <c r="I15" s="42">
         <v>0.85876666666666657</v>
       </c>
-      <c r="J15" s="59">
+      <c r="J15" s="54">
         <v>0.28666666666666663</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B16" s="30">
+      <c r="B16" s="29">
         <v>1.2E-5</v>
       </c>
-      <c r="C16" s="48">
+      <c r="C16" s="43">
         <v>0.88139999999999996</v>
       </c>
-      <c r="D16" s="53">
+      <c r="D16" s="48">
         <v>0.27060000000000001</v>
       </c>
-      <c r="E16" s="49">
+      <c r="E16" s="44">
         <v>0.86439999999999995</v>
       </c>
-      <c r="F16" s="55">
+      <c r="F16" s="50">
         <v>0.33379999999999999</v>
       </c>
-      <c r="G16" s="50">
+      <c r="G16" s="45">
         <v>0.88139999999999996</v>
       </c>
-      <c r="H16" s="57">
+      <c r="H16" s="52">
         <v>0.31330000000000002</v>
       </c>
-      <c r="I16" s="47">
+      <c r="I16" s="42">
         <v>0.87573333333333336</v>
       </c>
-      <c r="J16" s="59">
+      <c r="J16" s="54">
         <v>0.30590000000000001</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B17" s="29">
+      <c r="B17" s="28">
         <v>1.1E-4</v>
       </c>
-      <c r="C17" s="44"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="59"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="54"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B18" s="30">
+      <c r="B18" s="29">
         <v>7.9999999999999996E-6</v>
       </c>
-      <c r="C18" s="48">
+      <c r="C18" s="43">
         <v>0.81359999999999999</v>
       </c>
-      <c r="D18" s="53">
+      <c r="D18" s="48">
         <v>0.3266</v>
       </c>
-      <c r="E18" s="49">
+      <c r="E18" s="44">
         <v>0.83050000000000002</v>
       </c>
-      <c r="F18" s="55">
+      <c r="F18" s="50">
         <v>0.36230000000000001</v>
       </c>
-      <c r="G18" s="50">
+      <c r="G18" s="45">
         <v>0.83050000000000002</v>
       </c>
-      <c r="H18" s="57">
+      <c r="H18" s="52">
         <v>0.33050000000000002</v>
       </c>
-      <c r="I18" s="47">
+      <c r="I18" s="42">
         <v>0.82486666666666653</v>
       </c>
-      <c r="J18" s="59">
+      <c r="J18" s="54">
         <v>0.33980000000000005</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B19" s="29">
+      <c r="B19" s="28">
         <v>1.2E-4</v>
       </c>
-      <c r="C19" s="44"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="59"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="54"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B20" s="30">
+      <c r="B20" s="29">
         <v>7.9999999999999996E-6</v>
       </c>
-      <c r="C20" s="48">
+      <c r="C20" s="43">
         <v>0.89829999999999999</v>
       </c>
-      <c r="D20" s="53">
+      <c r="D20" s="48">
         <v>0.31469999999999998</v>
       </c>
-      <c r="E20" s="49">
+      <c r="E20" s="44">
         <v>0.9153</v>
       </c>
-      <c r="F20" s="55">
+      <c r="F20" s="50">
         <v>0.26700000000000002</v>
       </c>
-      <c r="G20" s="50">
+      <c r="G20" s="45">
         <v>0.88139999999999996</v>
       </c>
-      <c r="H20" s="57">
+      <c r="H20" s="52">
         <v>0.28820000000000001</v>
       </c>
-      <c r="I20" s="52">
+      <c r="I20" s="47">
         <v>0.89833333333333343</v>
       </c>
-      <c r="J20" s="60">
+      <c r="J20" s="55">
         <v>0.28996666666666665</v>
       </c>
     </row>
@@ -4637,2131 +6206,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54A7B53C-1470-498D-AE06-6C9C8BBDE7A1}">
-  <dimension ref="B2:P58"/>
-  <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="N48" sqref="N48"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" customWidth="1"/>
-    <col min="7" max="7" width="17.21875" customWidth="1"/>
-    <col min="9" max="9" width="10.88671875" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" customWidth="1"/>
-    <col min="11" max="11" width="10.88671875" customWidth="1"/>
-    <col min="13" max="13" width="10.88671875" customWidth="1"/>
-    <col min="14" max="14" width="13.33203125" customWidth="1"/>
-    <col min="15" max="15" width="17.33203125" customWidth="1"/>
-    <col min="16" max="16" width="28.109375" hidden="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-    </row>
-    <row r="3" spans="2:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="38"/>
-      <c r="F3" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="39"/>
-    </row>
-    <row r="4" spans="2:10" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="13">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="C5" s="14">
-        <f t="shared" ref="C5:C14" si="0">B5/10</f>
-        <v>1.0000000000000002E-6</v>
-      </c>
-      <c r="D5" s="10">
-        <v>50</v>
-      </c>
-      <c r="E5" s="10">
-        <v>33</v>
-      </c>
-      <c r="F5" s="8">
-        <v>50</v>
-      </c>
-      <c r="G5" s="8">
-        <v>47</v>
-      </c>
-      <c r="H5" s="16">
-        <v>0.3407</v>
-      </c>
-      <c r="I5" s="4">
-        <v>0.84750000000000003</v>
-      </c>
-      <c r="J5" s="6">
-        <f>59*Table4[[#This Row],[Test Dataset Accuracy]]</f>
-        <v>50.002500000000005</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="13">
-        <v>2.5000000000000001E-5</v>
-      </c>
-      <c r="C6" s="14">
-        <f t="shared" si="0"/>
-        <v>2.5000000000000002E-6</v>
-      </c>
-      <c r="D6" s="10">
-        <v>50</v>
-      </c>
-      <c r="E6" s="10">
-        <v>50</v>
-      </c>
-      <c r="F6" s="8">
-        <v>50</v>
-      </c>
-      <c r="G6" s="8">
-        <v>29</v>
-      </c>
-      <c r="H6" s="16">
-        <v>0.31769999999999998</v>
-      </c>
-      <c r="I6" s="4">
-        <v>0.88139999999999996</v>
-      </c>
-      <c r="J6" s="6">
-        <f>59*Table4[[#This Row],[Test Dataset Accuracy]]</f>
-        <v>52.002600000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="13">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="C7" s="14">
-        <f t="shared" si="0"/>
-        <v>5.0000000000000004E-6</v>
-      </c>
-      <c r="D7" s="10">
-        <v>50</v>
-      </c>
-      <c r="E7" s="10">
-        <v>50</v>
-      </c>
-      <c r="F7" s="8">
-        <v>50</v>
-      </c>
-      <c r="G7" s="8">
-        <v>29</v>
-      </c>
-      <c r="H7" s="16">
-        <v>0.37159999999999999</v>
-      </c>
-      <c r="I7" s="4">
-        <v>0.81359999999999999</v>
-      </c>
-      <c r="J7" s="6">
-        <f>59*Table4[[#This Row],[Test Dataset Accuracy]]</f>
-        <v>48.002400000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="13">
-        <v>7.4999999999999993E-5</v>
-      </c>
-      <c r="C8" s="14">
-        <f t="shared" si="0"/>
-        <v>7.4999999999999993E-6</v>
-      </c>
-      <c r="D8" s="10">
-        <v>50</v>
-      </c>
-      <c r="E8" s="10">
-        <v>50</v>
-      </c>
-      <c r="F8" s="8">
-        <v>50</v>
-      </c>
-      <c r="G8" s="8">
-        <v>37</v>
-      </c>
-      <c r="H8" s="16">
-        <v>0.3518</v>
-      </c>
-      <c r="I8" s="4">
-        <v>0.84750000000000003</v>
-      </c>
-      <c r="J8" s="6">
-        <f>59*Table4[[#This Row],[Test Dataset Accuracy]]</f>
-        <v>50.002500000000005</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="13">
-        <v>1E-4</v>
-      </c>
-      <c r="C9" s="14">
-        <f t="shared" si="0"/>
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="D9" s="10">
-        <v>50</v>
-      </c>
-      <c r="E9" s="10">
-        <v>50</v>
-      </c>
-      <c r="F9" s="8">
-        <v>50</v>
-      </c>
-      <c r="G9" s="8">
-        <v>12</v>
-      </c>
-      <c r="H9" s="16">
-        <v>0.29520000000000002</v>
-      </c>
-      <c r="I9" s="5">
-        <v>0.89829999999999999</v>
-      </c>
-      <c r="J9" s="6">
-        <f>59*Table4[[#This Row],[Test Dataset Accuracy]]</f>
-        <v>52.999699999999997</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="13">
-        <v>1.25E-4</v>
-      </c>
-      <c r="C10" s="14">
-        <f t="shared" si="0"/>
-        <v>1.2500000000000001E-5</v>
-      </c>
-      <c r="D10" s="10">
-        <v>50</v>
-      </c>
-      <c r="E10" s="10">
-        <v>50</v>
-      </c>
-      <c r="F10" s="8">
-        <v>50</v>
-      </c>
-      <c r="G10" s="8">
-        <v>12</v>
-      </c>
-      <c r="H10" s="16">
-        <v>0.33810000000000001</v>
-      </c>
-      <c r="I10" s="4">
-        <v>0.86439999999999995</v>
-      </c>
-      <c r="J10" s="6">
-        <f>59*Table4[[#This Row],[Test Dataset Accuracy]]</f>
-        <v>50.999599999999994</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="13">
-        <v>1.4999999999999999E-4</v>
-      </c>
-      <c r="C11" s="14">
-        <f t="shared" si="0"/>
-        <v>1.4999999999999999E-5</v>
-      </c>
-      <c r="D11" s="10">
-        <v>50</v>
-      </c>
-      <c r="E11" s="10">
-        <v>47</v>
-      </c>
-      <c r="F11" s="8">
-        <v>50</v>
-      </c>
-      <c r="G11" s="8">
-        <v>16</v>
-      </c>
-      <c r="H11" s="16">
-        <v>0.32369999999999999</v>
-      </c>
-      <c r="I11" s="4">
-        <v>0.86439999999999995</v>
-      </c>
-      <c r="J11" s="6">
-        <f>59*Table4[[#This Row],[Test Dataset Accuracy]]</f>
-        <v>50.999599999999994</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="13">
-        <v>1.75E-4</v>
-      </c>
-      <c r="C12" s="14">
-        <f t="shared" si="0"/>
-        <v>1.7499999999999998E-5</v>
-      </c>
-      <c r="D12" s="10">
-        <v>50</v>
-      </c>
-      <c r="E12" s="10">
-        <v>50</v>
-      </c>
-      <c r="F12" s="8">
-        <v>50</v>
-      </c>
-      <c r="G12" s="8">
-        <v>11</v>
-      </c>
-      <c r="H12" s="16">
-        <v>0.35730000000000001</v>
-      </c>
-      <c r="I12" s="4">
-        <v>0.84750000000000003</v>
-      </c>
-      <c r="J12" s="6">
-        <f>59*Table4[[#This Row],[Test Dataset Accuracy]]</f>
-        <v>50.002500000000005</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="13">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="C13" s="14">
-        <f t="shared" si="0"/>
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="D13" s="10">
-        <v>50</v>
-      </c>
-      <c r="E13" s="10">
-        <v>50</v>
-      </c>
-      <c r="F13" s="8">
-        <v>50</v>
-      </c>
-      <c r="G13" s="8">
-        <v>22</v>
-      </c>
-      <c r="H13" s="16">
-        <v>0.37690000000000001</v>
-      </c>
-      <c r="I13" s="4">
-        <v>0.86439999999999995</v>
-      </c>
-      <c r="J13" s="6">
-        <f>59*Table4[[#This Row],[Test Dataset Accuracy]]</f>
-        <v>50.999599999999994</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="13">
-        <v>1E-3</v>
-      </c>
-      <c r="C14" s="14">
-        <f t="shared" si="0"/>
-        <v>1E-4</v>
-      </c>
-      <c r="D14" s="10">
-        <v>50</v>
-      </c>
-      <c r="E14" s="10">
-        <v>35</v>
-      </c>
-      <c r="F14" s="8">
-        <v>50</v>
-      </c>
-      <c r="G14" s="8">
-        <v>18</v>
-      </c>
-      <c r="H14" s="16">
-        <v>0.43680000000000002</v>
-      </c>
-      <c r="I14" s="4">
-        <v>0.746</v>
-      </c>
-      <c r="J14" s="6">
-        <f>59*Table4[[#This Row],[Test Dataset Accuracy]]</f>
-        <v>44.014000000000003</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="2"/>
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="E16" s="38"/>
-      <c r="F16" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="G16" s="39"/>
-    </row>
-    <row r="17" spans="2:16" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H17" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="13">
-        <v>8.0000000000000007E-5</v>
-      </c>
-      <c r="C18" s="14">
-        <v>7.9999999999999996E-6</v>
-      </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="16">
-        <v>0.35570000000000002</v>
-      </c>
-      <c r="I18" s="4">
-        <v>0.89829999999999999</v>
-      </c>
-      <c r="J18" s="4">
-        <v>0.2923</v>
-      </c>
-      <c r="K18" s="4">
-        <v>0.89829999999999999</v>
-      </c>
-      <c r="L18" s="4">
-        <v>0.32619999999999999</v>
-      </c>
-      <c r="M18" s="4">
-        <v>0.86439999999999995</v>
-      </c>
-      <c r="N18" s="4">
-        <f>SUM(Table42[[#This Row],[Loss1]],Table42[[#This Row],[Loss2]],Table42[[#This Row],[Loss3]])/3</f>
-        <v>0.32473333333333332</v>
-      </c>
-      <c r="O18" s="4">
-        <f>SUM(Table42[[#This Row],[Accuracy1]],Table42[[#This Row],[Accuracy2]],Table42[[#This Row],[Accuracy3]])/3</f>
-        <v>0.88700000000000001</v>
-      </c>
-      <c r="P18" s="6"/>
-    </row>
-    <row r="19" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="13">
-        <v>9.0000000000000006E-5</v>
-      </c>
-      <c r="C19" s="14">
-        <v>7.9999999999999996E-6</v>
-      </c>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="16">
-        <v>0.31280000000000002</v>
-      </c>
-      <c r="I19" s="4">
-        <v>0.88139999999999996</v>
-      </c>
-      <c r="J19" s="4">
-        <v>0.32579999999999998</v>
-      </c>
-      <c r="K19" s="4">
-        <v>0.88139999999999996</v>
-      </c>
-      <c r="L19" s="4">
-        <v>0.34310000000000002</v>
-      </c>
-      <c r="M19" s="4">
-        <v>0.9153</v>
-      </c>
-      <c r="N19" s="4">
-        <f>SUM(Table42[[#This Row],[Loss1]],Table42[[#This Row],[Loss2]],Table42[[#This Row],[Loss3]])/3</f>
-        <v>0.32723333333333332</v>
-      </c>
-      <c r="O19" s="4">
-        <f>SUM(Table42[[#This Row],[Accuracy1]],Table42[[#This Row],[Accuracy2]],Table42[[#This Row],[Accuracy3]])/3</f>
-        <v>0.89269999999999994</v>
-      </c>
-      <c r="P19" s="6"/>
-    </row>
-    <row r="20" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="13">
-        <v>1E-4</v>
-      </c>
-      <c r="C20" s="14">
-        <v>7.9999999999999996E-6</v>
-      </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="16">
-        <v>0.34820000000000001</v>
-      </c>
-      <c r="I20" s="4">
-        <v>0.88139999999999996</v>
-      </c>
-      <c r="J20" s="4">
-        <v>0.33729999999999999</v>
-      </c>
-      <c r="K20" s="4">
-        <v>0.88139999999999996</v>
-      </c>
-      <c r="L20" s="4">
-        <v>0.3115</v>
-      </c>
-      <c r="M20" s="4">
-        <v>0.88139999999999996</v>
-      </c>
-      <c r="N20" s="4">
-        <f>SUM(Table42[[#This Row],[Loss1]],Table42[[#This Row],[Loss2]],Table42[[#This Row],[Loss3]])/3</f>
-        <v>0.33233333333333331</v>
-      </c>
-      <c r="O20" s="4">
-        <f>SUM(Table42[[#This Row],[Accuracy1]],Table42[[#This Row],[Accuracy2]],Table42[[#This Row],[Accuracy3]])/3</f>
-        <v>0.88139999999999985</v>
-      </c>
-      <c r="P20" s="6">
-        <f>59*Table42[[#This Row],[Average Accuracy]]</f>
-        <v>52.002599999999994</v>
-      </c>
-    </row>
-    <row r="21" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="13">
-        <v>1E-4</v>
-      </c>
-      <c r="C21" s="14">
-        <v>9.0000000000000002E-6</v>
-      </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="16">
-        <v>0.3276</v>
-      </c>
-      <c r="I21" s="4">
-        <v>0.84750000000000003</v>
-      </c>
-      <c r="J21" s="4">
-        <v>0.34</v>
-      </c>
-      <c r="K21" s="4">
-        <v>0.89829999999999999</v>
-      </c>
-      <c r="L21" s="4">
-        <v>0.28820000000000001</v>
-      </c>
-      <c r="M21" s="4">
-        <v>0.88139999999999996</v>
-      </c>
-      <c r="N21" s="4">
-        <f>SUM(Table42[[#This Row],[Loss1]],Table42[[#This Row],[Loss2]],Table42[[#This Row],[Loss3]])/3</f>
-        <v>0.31859999999999999</v>
-      </c>
-      <c r="O21" s="4">
-        <f>SUM(Table42[[#This Row],[Accuracy1]],Table42[[#This Row],[Accuracy2]],Table42[[#This Row],[Accuracy3]])/3</f>
-        <v>0.87573333333333336</v>
-      </c>
-      <c r="P21" s="6">
-        <f>59*Table42[[#This Row],[Average Accuracy]]</f>
-        <v>51.668266666666668</v>
-      </c>
-    </row>
-    <row r="22" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="13">
-        <v>1E-4</v>
-      </c>
-      <c r="C22" s="14">
-        <f>B22/10</f>
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="D22" s="10">
-        <v>50</v>
-      </c>
-      <c r="E22" s="10">
-        <v>50</v>
-      </c>
-      <c r="F22" s="8">
-        <v>50</v>
-      </c>
-      <c r="G22" s="8"/>
-      <c r="H22" s="16">
-        <v>0.318</v>
-      </c>
-      <c r="I22" s="4">
-        <v>0.83099999999999996</v>
-      </c>
-      <c r="J22" s="4">
-        <v>0.36280000000000001</v>
-      </c>
-      <c r="K22" s="4">
-        <v>0.86439999999999995</v>
-      </c>
-      <c r="L22" s="4">
-        <v>0.29389999999999999</v>
-      </c>
-      <c r="M22" s="4">
-        <v>0.86439999999999995</v>
-      </c>
-      <c r="N22" s="4">
-        <f>SUM(Table42[[#This Row],[Loss1]],Table42[[#This Row],[Loss2]],Table42[[#This Row],[Loss3]])/3</f>
-        <v>0.32490000000000002</v>
-      </c>
-      <c r="O22" s="4">
-        <f>SUM(Table42[[#This Row],[Accuracy1]],Table42[[#This Row],[Accuracy2]],Table42[[#This Row],[Accuracy3]])/3</f>
-        <v>0.85326666666666651</v>
-      </c>
-      <c r="P22" s="6">
-        <f>59*Table42[[#This Row],[Average Accuracy]]</f>
-        <v>50.342733333333321</v>
-      </c>
-    </row>
-    <row r="23" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="13">
-        <v>1E-4</v>
-      </c>
-      <c r="C23" s="14">
-        <v>1.1E-5</v>
-      </c>
-      <c r="D23" s="10">
-        <v>50</v>
-      </c>
-      <c r="E23" s="10">
-        <v>50</v>
-      </c>
-      <c r="F23" s="8">
-        <v>50</v>
-      </c>
-      <c r="G23" s="8">
-        <v>20</v>
-      </c>
-      <c r="H23" s="16">
-        <v>0.28499999999999998</v>
-      </c>
-      <c r="I23" s="4">
-        <v>0.81359999999999999</v>
-      </c>
-      <c r="J23" s="16">
-        <v>0.28220000000000001</v>
-      </c>
-      <c r="K23" s="4">
-        <v>0.86439999999999995</v>
-      </c>
-      <c r="L23" s="16">
-        <v>0.2928</v>
-      </c>
-      <c r="M23" s="4">
-        <v>0.89829999999999999</v>
-      </c>
-      <c r="N23" s="4">
-        <f>SUM(Table42[[#This Row],[Loss1]],Table42[[#This Row],[Loss2]],Table42[[#This Row],[Loss3]])/3</f>
-        <v>0.28666666666666663</v>
-      </c>
-      <c r="O23" s="4">
-        <f>SUM(Table42[[#This Row],[Accuracy1]],Table42[[#This Row],[Accuracy2]],Table42[[#This Row],[Accuracy3]])/3</f>
-        <v>0.85876666666666657</v>
-      </c>
-      <c r="P23" s="6">
-        <f>59*Table42[[#This Row],[Average Accuracy]]</f>
-        <v>50.667233333333328</v>
-      </c>
-    </row>
-    <row r="24" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="13">
-        <v>1E-4</v>
-      </c>
-      <c r="C24" s="14">
-        <v>1.2E-5</v>
-      </c>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="16">
-        <v>0.27060000000000001</v>
-      </c>
-      <c r="I24" s="4">
-        <v>0.88139999999999996</v>
-      </c>
-      <c r="J24" s="4">
-        <v>0.33379999999999999</v>
-      </c>
-      <c r="K24" s="4">
-        <v>0.86439999999999995</v>
-      </c>
-      <c r="L24" s="4">
-        <v>0.31330000000000002</v>
-      </c>
-      <c r="M24" s="4">
-        <v>0.88139999999999996</v>
-      </c>
-      <c r="N24" s="4">
-        <f>SUM(Table42[[#This Row],[Loss1]],Table42[[#This Row],[Loss2]],Table42[[#This Row],[Loss3]])/3</f>
-        <v>0.30590000000000001</v>
-      </c>
-      <c r="O24" s="4">
-        <f>SUM(Table42[[#This Row],[Accuracy1]],Table42[[#This Row],[Accuracy2]],Table42[[#This Row],[Accuracy3]])/3</f>
-        <v>0.87573333333333336</v>
-      </c>
-      <c r="P24" s="6">
-        <f>59*Table42[[#This Row],[Average Accuracy]]</f>
-        <v>51.668266666666668</v>
-      </c>
-    </row>
-    <row r="25" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="13">
-        <v>1.1E-4</v>
-      </c>
-      <c r="C25" s="14">
-        <v>7.9999999999999996E-6</v>
-      </c>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="16">
-        <v>0.3266</v>
-      </c>
-      <c r="I25" s="4">
-        <v>0.81359999999999999</v>
-      </c>
-      <c r="J25" s="4">
-        <v>0.36230000000000001</v>
-      </c>
-      <c r="K25" s="4">
-        <v>0.83050000000000002</v>
-      </c>
-      <c r="L25" s="4">
-        <v>0.33050000000000002</v>
-      </c>
-      <c r="M25" s="4">
-        <v>0.83050000000000002</v>
-      </c>
-      <c r="N25" s="4">
-        <f>SUM(Table42[[#This Row],[Loss1]],Table42[[#This Row],[Loss2]],Table42[[#This Row],[Loss3]])/3</f>
-        <v>0.33980000000000005</v>
-      </c>
-      <c r="O25" s="4">
-        <f>SUM(Table42[[#This Row],[Accuracy1]],Table42[[#This Row],[Accuracy2]],Table42[[#This Row],[Accuracy3]])/3</f>
-        <v>0.82486666666666653</v>
-      </c>
-      <c r="P25" s="6">
-        <f>59*Table42[[#This Row],[Average Accuracy]]</f>
-        <v>48.667133333333325</v>
-      </c>
-    </row>
-    <row r="26" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="13">
-        <v>1.2E-4</v>
-      </c>
-      <c r="C26" s="14">
-        <v>7.9999999999999996E-6</v>
-      </c>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="16">
-        <v>0.31469999999999998</v>
-      </c>
-      <c r="I26" s="4">
-        <v>0.89829999999999999</v>
-      </c>
-      <c r="J26" s="4">
-        <v>0.26700000000000002</v>
-      </c>
-      <c r="K26" s="4">
-        <v>0.9153</v>
-      </c>
-      <c r="L26" s="4">
-        <v>0.28820000000000001</v>
-      </c>
-      <c r="M26" s="4">
-        <v>0.88139999999999996</v>
-      </c>
-      <c r="N26" s="4">
-        <f>SUM(Table42[[#This Row],[Loss1]],Table42[[#This Row],[Loss2]],Table42[[#This Row],[Loss3]])/3</f>
-        <v>0.28996666666666665</v>
-      </c>
-      <c r="O26" s="4">
-        <f>SUM(Table42[[#This Row],[Accuracy1]],Table42[[#This Row],[Accuracy2]],Table42[[#This Row],[Accuracy3]])/3</f>
-        <v>0.89833333333333343</v>
-      </c>
-      <c r="P26" s="6">
-        <f>59*Table42[[#This Row],[Average Accuracy]]</f>
-        <v>53.001666666666672</v>
-      </c>
-    </row>
-    <row r="27" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="13"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4">
-        <f>SUM(Table42[[#This Row],[Loss1]],Table42[[#This Row],[Loss2]],Table42[[#This Row],[Loss3]])/3</f>
-        <v>0</v>
-      </c>
-      <c r="O27" s="4">
-        <f>SUM(Table42[[#This Row],[Accuracy1]],Table42[[#This Row],[Accuracy2]],Table42[[#This Row],[Accuracy3]])/3</f>
-        <v>0</v>
-      </c>
-      <c r="P27" s="6"/>
-    </row>
-    <row r="28" spans="2:16" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="2:16" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="2:16" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="2:16" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B31" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C31" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="D31" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E31" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="F31" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="G31" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="H31" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="I31" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="J31" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="K31" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="L31" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="M31" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="N31" s="23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="2:16" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="31">
-        <v>1</v>
-      </c>
-      <c r="C32" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="D32" s="31">
-        <v>1</v>
-      </c>
-      <c r="E32" s="31">
-        <v>1</v>
-      </c>
-      <c r="F32" s="18">
-        <v>8.0000000000000007E-5</v>
-      </c>
-      <c r="G32" s="14">
-        <v>7.9999999999999996E-6</v>
-      </c>
-      <c r="H32" s="24">
-        <v>50</v>
-      </c>
-      <c r="I32" s="24">
-        <v>50</v>
-      </c>
-      <c r="J32" s="25">
-        <v>50</v>
-      </c>
-      <c r="K32" s="25">
-        <v>19</v>
-      </c>
-      <c r="L32" s="16">
-        <v>0.35570000000000002</v>
-      </c>
-      <c r="M32" s="26">
-        <v>0.89829999999999999</v>
-      </c>
-      <c r="N32" s="27">
-        <f>59*Table2[[#This Row],[Accuracy]]</f>
-        <v>52.999699999999997</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="31">
-        <v>2</v>
-      </c>
-      <c r="C33" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="D33" s="31">
-        <v>1</v>
-      </c>
-      <c r="E33" s="31">
-        <v>2</v>
-      </c>
-      <c r="F33" s="18">
-        <v>8.0000000000000007E-5</v>
-      </c>
-      <c r="G33" s="14">
-        <v>7.9999999999999996E-6</v>
-      </c>
-      <c r="H33" s="24">
-        <v>50</v>
-      </c>
-      <c r="I33" s="24">
-        <v>50</v>
-      </c>
-      <c r="J33" s="25">
-        <v>50</v>
-      </c>
-      <c r="K33" s="25">
-        <v>19</v>
-      </c>
-      <c r="L33" s="26">
-        <v>0.2923</v>
-      </c>
-      <c r="M33" s="26">
-        <v>0.89829999999999999</v>
-      </c>
-      <c r="N33" s="27">
-        <f>59*Table2[[#This Row],[Accuracy]]</f>
-        <v>52.999699999999997</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="31">
-        <v>3</v>
-      </c>
-      <c r="C34" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="D34" s="31">
-        <v>1</v>
-      </c>
-      <c r="E34" s="31">
-        <v>3</v>
-      </c>
-      <c r="F34" s="18">
-        <v>8.0000000000000007E-5</v>
-      </c>
-      <c r="G34" s="14">
-        <v>7.9999999999999996E-6</v>
-      </c>
-      <c r="H34" s="24">
-        <v>50</v>
-      </c>
-      <c r="I34" s="10">
-        <v>50</v>
-      </c>
-      <c r="J34" s="25">
-        <v>50</v>
-      </c>
-      <c r="K34" s="8">
-        <v>21</v>
-      </c>
-      <c r="L34" s="26">
-        <v>0.32619999999999999</v>
-      </c>
-      <c r="M34" s="26">
-        <v>0.86439999999999995</v>
-      </c>
-      <c r="N34" s="27">
-        <f>59*Table2[[#This Row],[Accuracy]]</f>
-        <v>50.999599999999994</v>
-      </c>
-    </row>
-    <row r="35" spans="2:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="31">
-        <v>4</v>
-      </c>
-      <c r="C35" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="D35" s="31">
-        <v>2</v>
-      </c>
-      <c r="E35" s="31">
-        <v>1</v>
-      </c>
-      <c r="F35" s="18">
-        <v>9.0000000000000006E-5</v>
-      </c>
-      <c r="G35" s="14">
-        <v>7.9999999999999996E-6</v>
-      </c>
-      <c r="H35" s="24">
-        <v>50</v>
-      </c>
-      <c r="I35" s="10">
-        <v>50</v>
-      </c>
-      <c r="J35" s="25">
-        <v>50</v>
-      </c>
-      <c r="K35" s="8">
-        <v>11</v>
-      </c>
-      <c r="L35" s="16">
-        <v>0.31280000000000002</v>
-      </c>
-      <c r="M35" s="16">
-        <v>0.88139999999999996</v>
-      </c>
-      <c r="N35" s="27">
-        <f>59*Table2[[#This Row],[Accuracy]]</f>
-        <v>52.002600000000001</v>
-      </c>
-    </row>
-    <row r="36" spans="2:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="31">
-        <v>5</v>
-      </c>
-      <c r="C36" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="D36" s="31">
-        <v>2</v>
-      </c>
-      <c r="E36" s="31">
-        <v>2</v>
-      </c>
-      <c r="F36" s="18">
-        <v>9.0000000000000006E-5</v>
-      </c>
-      <c r="G36" s="14">
-        <v>7.9999999999999996E-6</v>
-      </c>
-      <c r="H36" s="24">
-        <v>50</v>
-      </c>
-      <c r="I36" s="10">
-        <v>50</v>
-      </c>
-      <c r="J36" s="25">
-        <v>50</v>
-      </c>
-      <c r="K36" s="8">
-        <v>20</v>
-      </c>
-      <c r="L36" s="26">
-        <v>0.32579999999999998</v>
-      </c>
-      <c r="M36" s="26">
-        <v>0.88139999999999996</v>
-      </c>
-      <c r="N36" s="27">
-        <f>59*Table2[[#This Row],[Accuracy]]</f>
-        <v>52.002600000000001</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="31">
-        <v>6</v>
-      </c>
-      <c r="C37" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="D37" s="31">
-        <v>2</v>
-      </c>
-      <c r="E37" s="31">
-        <v>3</v>
-      </c>
-      <c r="F37" s="18">
-        <v>9.0000000000000006E-5</v>
-      </c>
-      <c r="G37" s="14">
-        <v>7.9999999999999996E-6</v>
-      </c>
-      <c r="H37" s="24">
-        <v>50</v>
-      </c>
-      <c r="I37" s="10">
-        <v>50</v>
-      </c>
-      <c r="J37" s="25">
-        <v>50</v>
-      </c>
-      <c r="K37" s="8">
-        <v>20</v>
-      </c>
-      <c r="L37" s="16">
-        <v>0.34310000000000002</v>
-      </c>
-      <c r="M37" s="16">
-        <v>0.9153</v>
-      </c>
-      <c r="N37" s="27">
-        <f>59*Table2[[#This Row],[Accuracy]]</f>
-        <v>54.002699999999997</v>
-      </c>
-    </row>
-    <row r="38" spans="2:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="31">
-        <v>7</v>
-      </c>
-      <c r="C38" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="D38" s="31">
-        <v>3</v>
-      </c>
-      <c r="E38" s="31">
-        <v>1</v>
-      </c>
-      <c r="F38" s="18">
-        <v>1E-4</v>
-      </c>
-      <c r="G38" s="14">
-        <v>7.9999999999999996E-6</v>
-      </c>
-      <c r="H38" s="24">
-        <v>50</v>
-      </c>
-      <c r="I38" s="10">
-        <v>50</v>
-      </c>
-      <c r="J38" s="25">
-        <v>50</v>
-      </c>
-      <c r="K38" s="8">
-        <v>11</v>
-      </c>
-      <c r="L38" s="16">
-        <v>0.34820000000000001</v>
-      </c>
-      <c r="M38" s="26">
-        <v>0.88139999999999996</v>
-      </c>
-      <c r="N38" s="27">
-        <f>59*Table2[[#This Row],[Accuracy]]</f>
-        <v>52.002600000000001</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="31">
-        <v>8</v>
-      </c>
-      <c r="C39" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="D39" s="31">
-        <v>3</v>
-      </c>
-      <c r="E39" s="31">
-        <v>2</v>
-      </c>
-      <c r="F39" s="18">
-        <v>1E-4</v>
-      </c>
-      <c r="G39" s="14">
-        <v>7.9999999999999996E-6</v>
-      </c>
-      <c r="H39" s="24">
-        <v>50</v>
-      </c>
-      <c r="I39" s="10">
-        <v>50</v>
-      </c>
-      <c r="J39" s="25">
-        <v>50</v>
-      </c>
-      <c r="K39" s="8">
-        <v>12</v>
-      </c>
-      <c r="L39" s="26">
-        <v>0.33729999999999999</v>
-      </c>
-      <c r="M39" s="26">
-        <v>0.88139999999999996</v>
-      </c>
-      <c r="N39" s="27">
-        <f>59*Table2[[#This Row],[Accuracy]]</f>
-        <v>52.002600000000001</v>
-      </c>
-    </row>
-    <row r="40" spans="2:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="31">
-        <v>9</v>
-      </c>
-      <c r="C40" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="D40" s="31">
-        <v>3</v>
-      </c>
-      <c r="E40" s="31">
-        <v>3</v>
-      </c>
-      <c r="F40" s="18">
-        <v>1E-4</v>
-      </c>
-      <c r="G40" s="14">
-        <v>7.9999999999999996E-6</v>
-      </c>
-      <c r="H40" s="24">
-        <v>50</v>
-      </c>
-      <c r="I40" s="10">
-        <v>50</v>
-      </c>
-      <c r="J40" s="25">
-        <v>50</v>
-      </c>
-      <c r="K40" s="8">
-        <v>22</v>
-      </c>
-      <c r="L40" s="26">
-        <v>0.3115</v>
-      </c>
-      <c r="M40" s="26">
-        <v>0.88139999999999996</v>
-      </c>
-      <c r="N40" s="27">
-        <f>59*Table2[[#This Row],[Accuracy]]</f>
-        <v>52.002600000000001</v>
-      </c>
-    </row>
-    <row r="41" spans="2:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="31">
-        <v>10</v>
-      </c>
-      <c r="C41" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="D41" s="31">
-        <v>4</v>
-      </c>
-      <c r="E41" s="31">
-        <v>1</v>
-      </c>
-      <c r="F41" s="18">
-        <v>1E-4</v>
-      </c>
-      <c r="G41" s="14">
-        <v>9.0000000000000002E-6</v>
-      </c>
-      <c r="H41" s="24">
-        <v>50</v>
-      </c>
-      <c r="I41" s="10">
-        <v>50</v>
-      </c>
-      <c r="J41" s="25">
-        <v>50</v>
-      </c>
-      <c r="K41" s="8">
-        <v>33</v>
-      </c>
-      <c r="L41" s="26">
-        <v>0.3276</v>
-      </c>
-      <c r="M41" s="26">
-        <v>0.84750000000000003</v>
-      </c>
-      <c r="N41" s="27">
-        <f>59*Table2[[#This Row],[Accuracy]]</f>
-        <v>50.002500000000005</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="31">
-        <v>11</v>
-      </c>
-      <c r="C42" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="D42" s="31">
-        <v>4</v>
-      </c>
-      <c r="E42" s="31">
-        <v>2</v>
-      </c>
-      <c r="F42" s="18">
-        <v>1E-4</v>
-      </c>
-      <c r="G42" s="14">
-        <v>9.0000000000000002E-6</v>
-      </c>
-      <c r="H42" s="24">
-        <v>50</v>
-      </c>
-      <c r="I42" s="10">
-        <v>50</v>
-      </c>
-      <c r="J42" s="25">
-        <v>50</v>
-      </c>
-      <c r="K42" s="8">
-        <v>29</v>
-      </c>
-      <c r="L42" s="26">
-        <v>0.34</v>
-      </c>
-      <c r="M42" s="26">
-        <v>0.89829999999999999</v>
-      </c>
-      <c r="N42" s="27">
-        <f>59*Table2[[#This Row],[Accuracy]]</f>
-        <v>52.999699999999997</v>
-      </c>
-    </row>
-    <row r="43" spans="2:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="31">
-        <v>12</v>
-      </c>
-      <c r="C43" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="D43" s="31">
-        <v>4</v>
-      </c>
-      <c r="E43" s="31">
-        <v>3</v>
-      </c>
-      <c r="F43" s="18">
-        <v>1E-4</v>
-      </c>
-      <c r="G43" s="14">
-        <v>9.0000000000000002E-6</v>
-      </c>
-      <c r="H43" s="24">
-        <v>50</v>
-      </c>
-      <c r="I43" s="10">
-        <v>50</v>
-      </c>
-      <c r="J43" s="25">
-        <v>50</v>
-      </c>
-      <c r="K43" s="8">
-        <v>12</v>
-      </c>
-      <c r="L43" s="26">
-        <v>0.28820000000000001</v>
-      </c>
-      <c r="M43" s="26">
-        <v>0.88139999999999996</v>
-      </c>
-      <c r="N43" s="27">
-        <f>59*Table2[[#This Row],[Accuracy]]</f>
-        <v>52.002600000000001</v>
-      </c>
-    </row>
-    <row r="44" spans="2:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="31">
-        <v>13</v>
-      </c>
-      <c r="C44" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="D44" s="31">
-        <v>5</v>
-      </c>
-      <c r="E44" s="31">
-        <v>1</v>
-      </c>
-      <c r="F44" s="18">
-        <v>1E-4</v>
-      </c>
-      <c r="G44" s="14">
-        <f>F44/10</f>
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="H44" s="24">
-        <v>50</v>
-      </c>
-      <c r="I44" s="10">
-        <v>50</v>
-      </c>
-      <c r="J44" s="25">
-        <v>50</v>
-      </c>
-      <c r="K44" s="8">
-        <v>15</v>
-      </c>
-      <c r="L44" s="16">
-        <v>0.318</v>
-      </c>
-      <c r="M44" s="26">
-        <v>0.83099999999999996</v>
-      </c>
-      <c r="N44" s="27">
-        <f>59*Table2[[#This Row],[Accuracy]]</f>
-        <v>49.028999999999996</v>
-      </c>
-    </row>
-    <row r="45" spans="2:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="31">
-        <v>14</v>
-      </c>
-      <c r="C45" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="D45" s="31">
-        <v>5</v>
-      </c>
-      <c r="E45" s="31">
-        <v>2</v>
-      </c>
-      <c r="F45" s="18">
-        <v>1E-4</v>
-      </c>
-      <c r="G45" s="14">
-        <f>F45/10</f>
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="H45" s="24">
-        <v>50</v>
-      </c>
-      <c r="I45" s="10">
-        <v>50</v>
-      </c>
-      <c r="J45" s="25">
-        <v>50</v>
-      </c>
-      <c r="K45" s="8">
-        <v>10</v>
-      </c>
-      <c r="L45" s="26">
-        <v>0.36280000000000001</v>
-      </c>
-      <c r="M45" s="26">
-        <v>0.86439999999999995</v>
-      </c>
-      <c r="N45" s="27">
-        <f>59*Table2[[#This Row],[Accuracy]]</f>
-        <v>50.999599999999994</v>
-      </c>
-    </row>
-    <row r="46" spans="2:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="31">
-        <v>15</v>
-      </c>
-      <c r="C46" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="D46" s="31">
-        <v>5</v>
-      </c>
-      <c r="E46" s="31">
-        <v>3</v>
-      </c>
-      <c r="F46" s="18">
-        <v>1E-4</v>
-      </c>
-      <c r="G46" s="14">
-        <f>F46/10</f>
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="H46" s="24">
-        <v>50</v>
-      </c>
-      <c r="I46" s="10">
-        <v>50</v>
-      </c>
-      <c r="J46" s="25">
-        <v>50</v>
-      </c>
-      <c r="K46" s="8">
-        <v>12</v>
-      </c>
-      <c r="L46" s="26">
-        <v>0.29389999999999999</v>
-      </c>
-      <c r="M46" s="26">
-        <v>0.86439999999999995</v>
-      </c>
-      <c r="N46" s="27">
-        <f>59*Table2[[#This Row],[Accuracy]]</f>
-        <v>50.999599999999994</v>
-      </c>
-    </row>
-    <row r="47" spans="2:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="31">
-        <v>16</v>
-      </c>
-      <c r="C47" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="D47" s="31">
-        <v>6</v>
-      </c>
-      <c r="E47" s="31">
-        <v>1</v>
-      </c>
-      <c r="F47" s="18">
-        <v>1E-4</v>
-      </c>
-      <c r="G47" s="14">
-        <v>1.1E-5</v>
-      </c>
-      <c r="H47" s="24">
-        <v>50</v>
-      </c>
-      <c r="I47" s="10">
-        <v>50</v>
-      </c>
-      <c r="J47" s="25">
-        <v>50</v>
-      </c>
-      <c r="K47" s="8">
-        <v>20</v>
-      </c>
-      <c r="L47" s="16">
-        <v>0.28499999999999998</v>
-      </c>
-      <c r="M47" s="26">
-        <v>0.81359999999999999</v>
-      </c>
-      <c r="N47" s="27">
-        <f>59*Table2[[#This Row],[Accuracy]]</f>
-        <v>48.002400000000002</v>
-      </c>
-    </row>
-    <row r="48" spans="2:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="31">
-        <v>17</v>
-      </c>
-      <c r="C48" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="D48" s="31">
-        <v>6</v>
-      </c>
-      <c r="E48" s="31">
-        <v>2</v>
-      </c>
-      <c r="F48" s="18">
-        <v>1E-4</v>
-      </c>
-      <c r="G48" s="14">
-        <v>1.1E-5</v>
-      </c>
-      <c r="H48" s="24">
-        <v>50</v>
-      </c>
-      <c r="I48" s="10">
-        <v>50</v>
-      </c>
-      <c r="J48" s="25">
-        <v>50</v>
-      </c>
-      <c r="K48" s="8">
-        <v>12</v>
-      </c>
-      <c r="L48" s="16">
-        <v>0.28220000000000001</v>
-      </c>
-      <c r="M48" s="26">
-        <v>0.86439999999999995</v>
-      </c>
-      <c r="N48" s="27">
-        <f>59*Table2[[#This Row],[Accuracy]]</f>
-        <v>50.999599999999994</v>
-      </c>
-    </row>
-    <row r="49" spans="2:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="31">
-        <v>18</v>
-      </c>
-      <c r="C49" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="D49" s="31">
-        <v>6</v>
-      </c>
-      <c r="E49" s="31">
-        <v>3</v>
-      </c>
-      <c r="F49" s="18">
-        <v>1E-4</v>
-      </c>
-      <c r="G49" s="14">
-        <v>1.1E-5</v>
-      </c>
-      <c r="H49" s="24">
-        <v>50</v>
-      </c>
-      <c r="I49" s="10">
-        <v>50</v>
-      </c>
-      <c r="J49" s="25">
-        <v>50</v>
-      </c>
-      <c r="K49" s="8">
-        <v>21</v>
-      </c>
-      <c r="L49" s="16">
-        <v>0.2928</v>
-      </c>
-      <c r="M49" s="26">
-        <v>0.89829999999999999</v>
-      </c>
-      <c r="N49" s="27">
-        <f>59*Table2[[#This Row],[Accuracy]]</f>
-        <v>52.999699999999997</v>
-      </c>
-    </row>
-    <row r="50" spans="2:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="31">
-        <v>19</v>
-      </c>
-      <c r="C50" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="D50" s="31">
-        <v>7</v>
-      </c>
-      <c r="E50" s="31">
-        <v>1</v>
-      </c>
-      <c r="F50" s="18">
-        <v>1E-4</v>
-      </c>
-      <c r="G50" s="14">
-        <v>1.2E-5</v>
-      </c>
-      <c r="H50" s="24">
-        <v>50</v>
-      </c>
-      <c r="I50" s="10">
-        <v>50</v>
-      </c>
-      <c r="J50" s="25">
-        <v>50</v>
-      </c>
-      <c r="K50" s="8">
-        <v>11</v>
-      </c>
-      <c r="L50" s="16">
-        <v>0.27060000000000001</v>
-      </c>
-      <c r="M50" s="26">
-        <v>0.88139999999999996</v>
-      </c>
-      <c r="N50" s="27">
-        <f>59*Table2[[#This Row],[Accuracy]]</f>
-        <v>52.002600000000001</v>
-      </c>
-    </row>
-    <row r="51" spans="2:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="31">
-        <v>20</v>
-      </c>
-      <c r="C51" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="D51" s="31">
-        <v>7</v>
-      </c>
-      <c r="E51" s="31">
-        <v>2</v>
-      </c>
-      <c r="F51" s="18">
-        <v>1E-4</v>
-      </c>
-      <c r="G51" s="14">
-        <v>1.2E-5</v>
-      </c>
-      <c r="H51" s="24">
-        <v>50</v>
-      </c>
-      <c r="I51" s="10">
-        <v>50</v>
-      </c>
-      <c r="J51" s="25">
-        <v>50</v>
-      </c>
-      <c r="K51" s="8">
-        <v>19</v>
-      </c>
-      <c r="L51" s="26">
-        <v>0.33379999999999999</v>
-      </c>
-      <c r="M51" s="26">
-        <v>0.86439999999999995</v>
-      </c>
-      <c r="N51" s="27">
-        <f>59*Table2[[#This Row],[Accuracy]]</f>
-        <v>50.999599999999994</v>
-      </c>
-    </row>
-    <row r="52" spans="2:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="31">
-        <v>21</v>
-      </c>
-      <c r="C52" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="D52" s="31">
-        <v>7</v>
-      </c>
-      <c r="E52" s="31">
-        <v>3</v>
-      </c>
-      <c r="F52" s="18">
-        <v>1E-4</v>
-      </c>
-      <c r="G52" s="14">
-        <v>1.2E-5</v>
-      </c>
-      <c r="H52" s="24">
-        <v>50</v>
-      </c>
-      <c r="I52" s="10">
-        <v>50</v>
-      </c>
-      <c r="J52" s="25">
-        <v>50</v>
-      </c>
-      <c r="K52" s="8">
-        <v>19</v>
-      </c>
-      <c r="L52" s="26">
-        <v>0.31330000000000002</v>
-      </c>
-      <c r="M52" s="26">
-        <v>0.88139999999999996</v>
-      </c>
-      <c r="N52" s="27">
-        <f>59*Table2[[#This Row],[Accuracy]]</f>
-        <v>52.002600000000001</v>
-      </c>
-    </row>
-    <row r="53" spans="2:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="31">
-        <v>22</v>
-      </c>
-      <c r="C53" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="D53" s="31">
-        <v>8</v>
-      </c>
-      <c r="E53" s="31">
-        <v>1</v>
-      </c>
-      <c r="F53" s="18">
-        <v>1.1E-4</v>
-      </c>
-      <c r="G53" s="14">
-        <v>7.9999999999999996E-6</v>
-      </c>
-      <c r="H53" s="24">
-        <v>50</v>
-      </c>
-      <c r="I53" s="10">
-        <v>39</v>
-      </c>
-      <c r="J53" s="25">
-        <v>50</v>
-      </c>
-      <c r="K53" s="8">
-        <v>17</v>
-      </c>
-      <c r="L53" s="16">
-        <v>0.3266</v>
-      </c>
-      <c r="M53" s="26">
-        <v>0.81359999999999999</v>
-      </c>
-      <c r="N53" s="27">
-        <f>59*Table2[[#This Row],[Accuracy]]</f>
-        <v>48.002400000000002</v>
-      </c>
-    </row>
-    <row r="54" spans="2:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="31">
-        <v>23</v>
-      </c>
-      <c r="C54" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="D54" s="31">
-        <v>8</v>
-      </c>
-      <c r="E54" s="31">
-        <v>2</v>
-      </c>
-      <c r="F54" s="18">
-        <v>1.1E-4</v>
-      </c>
-      <c r="G54" s="14">
-        <v>7.9999999999999996E-6</v>
-      </c>
-      <c r="H54" s="24">
-        <v>50</v>
-      </c>
-      <c r="I54" s="10">
-        <v>50</v>
-      </c>
-      <c r="J54" s="25">
-        <v>50</v>
-      </c>
-      <c r="K54" s="8">
-        <v>22</v>
-      </c>
-      <c r="L54" s="26">
-        <v>0.36230000000000001</v>
-      </c>
-      <c r="M54" s="26">
-        <v>0.83050000000000002</v>
-      </c>
-      <c r="N54" s="27">
-        <f>59*Table2[[#This Row],[Accuracy]]</f>
-        <v>48.999499999999998</v>
-      </c>
-    </row>
-    <row r="55" spans="2:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="31">
-        <v>24</v>
-      </c>
-      <c r="C55" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="D55" s="31">
-        <v>8</v>
-      </c>
-      <c r="E55" s="31">
-        <v>3</v>
-      </c>
-      <c r="F55" s="18">
-        <v>1.1E-4</v>
-      </c>
-      <c r="G55" s="14">
-        <v>7.9999999999999996E-6</v>
-      </c>
-      <c r="H55" s="24">
-        <v>50</v>
-      </c>
-      <c r="I55" s="10">
-        <v>50</v>
-      </c>
-      <c r="J55" s="25">
-        <v>50</v>
-      </c>
-      <c r="K55" s="8">
-        <v>12</v>
-      </c>
-      <c r="L55" s="26">
-        <v>0.33050000000000002</v>
-      </c>
-      <c r="M55" s="26">
-        <v>0.83050000000000002</v>
-      </c>
-      <c r="N55" s="27">
-        <f>59*Table2[[#This Row],[Accuracy]]</f>
-        <v>48.999499999999998</v>
-      </c>
-    </row>
-    <row r="56" spans="2:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="31">
-        <v>25</v>
-      </c>
-      <c r="C56" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="D56" s="31">
-        <v>9</v>
-      </c>
-      <c r="E56" s="31">
-        <v>1</v>
-      </c>
-      <c r="F56" s="18">
-        <v>1.2E-4</v>
-      </c>
-      <c r="G56" s="14">
-        <v>7.9999999999999996E-6</v>
-      </c>
-      <c r="H56" s="24">
-        <v>50</v>
-      </c>
-      <c r="I56" s="10">
-        <v>50</v>
-      </c>
-      <c r="J56" s="25">
-        <v>50</v>
-      </c>
-      <c r="K56" s="8">
-        <v>19</v>
-      </c>
-      <c r="L56" s="16">
-        <v>0.31469999999999998</v>
-      </c>
-      <c r="M56" s="26">
-        <v>0.89829999999999999</v>
-      </c>
-      <c r="N56" s="27">
-        <f>59*Table2[[#This Row],[Accuracy]]</f>
-        <v>52.999699999999997</v>
-      </c>
-    </row>
-    <row r="57" spans="2:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="31">
-        <v>26</v>
-      </c>
-      <c r="C57" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="D57" s="31">
-        <v>9</v>
-      </c>
-      <c r="E57" s="31">
-        <v>2</v>
-      </c>
-      <c r="F57" s="18">
-        <v>1.2E-4</v>
-      </c>
-      <c r="G57" s="14">
-        <v>7.9999999999999996E-6</v>
-      </c>
-      <c r="H57" s="24">
-        <v>50</v>
-      </c>
-      <c r="I57" s="10">
-        <v>50</v>
-      </c>
-      <c r="J57" s="25">
-        <v>50</v>
-      </c>
-      <c r="K57" s="8">
-        <v>13</v>
-      </c>
-      <c r="L57" s="26">
-        <v>0.26700000000000002</v>
-      </c>
-      <c r="M57" s="26">
-        <v>0.9153</v>
-      </c>
-      <c r="N57" s="27">
-        <f>59*Table2[[#This Row],[Accuracy]]</f>
-        <v>54.002699999999997</v>
-      </c>
-    </row>
-    <row r="58" spans="2:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="31">
-        <v>27</v>
-      </c>
-      <c r="C58" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="D58" s="31">
-        <v>9</v>
-      </c>
-      <c r="E58" s="31">
-        <v>3</v>
-      </c>
-      <c r="F58" s="18">
-        <v>1.2E-4</v>
-      </c>
-      <c r="G58" s="14">
-        <v>7.9999999999999996E-6</v>
-      </c>
-      <c r="H58" s="24">
-        <v>50</v>
-      </c>
-      <c r="I58" s="10">
-        <v>50</v>
-      </c>
-      <c r="J58" s="25">
-        <v>50</v>
-      </c>
-      <c r="K58" s="8">
-        <v>12</v>
-      </c>
-      <c r="L58" s="26">
-        <v>0.28820000000000001</v>
-      </c>
-      <c r="M58" s="26">
-        <v>0.88139999999999996</v>
-      </c>
-      <c r="N58" s="27">
-        <f>59*Table2[[#This Row],[Accuracy]]</f>
-        <v>52.002600000000001</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <tableParts count="3">
-    <tablePart r:id="rId2"/>
-    <tablePart r:id="rId3"/>
-    <tablePart r:id="rId4"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{468FF429-579D-4BF9-B4BF-DB37CEA13A3D}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:N26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BADC4B10-C001-4BB7-890B-BA160B8A2716}">
-  <dimension ref="A1:A86"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:V27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="14" style="17" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17">
-        <v>7.9999999999999996E-6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="17">
-        <v>9.0000000000000002E-6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" s="17">
-        <v>1.0000000000000001E-5</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66" s="17">
-        <v>1.1E-5</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A86" s="17">
-        <v>1.2E-5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>